--- a/pysiaf/pre_delivery_data/NIRSpec/NIRSpec_SIAF.xlsx
+++ b/pysiaf/pre_delivery_data/NIRSpec/NIRSpec_SIAF.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1749">
   <si>
     <t>Aperture Basic Info</t>
   </si>
@@ -2996,601 +2996,133 @@
     <t>NRS1_FP2MIMF</t>
   </si>
   <si>
-    <t>1134.0</t>
-  </si>
-  <si>
-    <t>185.0</t>
-  </si>
-  <si>
-    <t>0.10354845441791825</t>
-  </si>
-  <si>
-    <t>0.1064824459047672</t>
-  </si>
-  <si>
-    <t>245.10939498603696</t>
-  </si>
-  <si>
-    <t>-429.2694973155898</t>
-  </si>
-  <si>
-    <t>139.24589007131073</t>
-  </si>
-  <si>
-    <t>48.06696928174939</t>
-  </si>
-  <si>
-    <t>-116.80408287601587</t>
-  </si>
-  <si>
-    <t>92.96054838568361</t>
-  </si>
-  <si>
-    <t>95.83630492845</t>
-  </si>
-  <si>
-    <t>-118.43315173681647</t>
-  </si>
-  <si>
-    <t>-17.00984631730101</t>
-  </si>
-  <si>
-    <t>-20.448172231196942</t>
-  </si>
-  <si>
-    <t>195.1772724448239</t>
-  </si>
-  <si>
-    <t>199.43606593725085</t>
-  </si>
-  <si>
-    <t>-0.06043278434864161</t>
-  </si>
-  <si>
-    <t>6.291830183034365e-05</t>
-  </si>
-  <si>
-    <t>-2.0209203719353367e-07</t>
-  </si>
-  <si>
-    <t>-2.773327910727479e-10</t>
-  </si>
-  <si>
-    <t>7.885458873015832e-10</t>
-  </si>
-  <si>
-    <t>-1.4467223386879322e-10</t>
-  </si>
-  <si>
-    <t>8.75230893598938e-14</t>
-  </si>
-  <si>
-    <t>1.1972488346801401e-14</t>
-  </si>
-  <si>
-    <t>9.760538179853622e-14</t>
-  </si>
-  <si>
-    <t>4.053368811552841e-14</t>
-  </si>
-  <si>
-    <t>5.042316088209057e-18</t>
-  </si>
-  <si>
-    <t>-2.8281792219190376e-18</t>
-  </si>
-  <si>
-    <t>-6.223473871360868e-19</t>
-  </si>
-  <si>
-    <t>-4.154288180697451e-18</t>
-  </si>
-  <si>
-    <t>-1.6345775501008223e-17</t>
-  </si>
-  <si>
-    <t>0.2396363229618105</t>
-  </si>
-  <si>
-    <t>-9.84850812724618e-07</t>
-  </si>
-  <si>
-    <t>6.479065470627686e-05</t>
-  </si>
-  <si>
-    <t>2.5285018444745804e-10</t>
-  </si>
-  <si>
-    <t>-1.8324066300145972e-10</t>
-  </si>
-  <si>
-    <t>1.076106137432829e-09</t>
-  </si>
-  <si>
-    <t>1.9705531993062945e-15</t>
-  </si>
-  <si>
-    <t>8.682415056009516e-14</t>
-  </si>
-  <si>
-    <t>1.0288306339388278e-14</t>
-  </si>
-  <si>
-    <t>1.4151656212703305e-13</t>
-  </si>
-  <si>
-    <t>6.851464999455429e-19</t>
-  </si>
-  <si>
-    <t>4.437032165868668e-18</t>
-  </si>
-  <si>
-    <t>-5.2743045410508145e-18</t>
-  </si>
-  <si>
-    <t>2.564637505537932e-19</t>
-  </si>
-  <si>
-    <t>-4.3482623103785326e-17</t>
-  </si>
-  <si>
-    <t>1112.024276660538</t>
-  </si>
-  <si>
-    <t>-3638.427161108084</t>
+    <t>243.398681640625</t>
+  </si>
+  <si>
+    <t>-432.2531433105469</t>
+  </si>
+  <si>
+    <t>0.09922201931476593</t>
+  </si>
+  <si>
+    <t>0.09922004491090775</t>
+  </si>
+  <si>
+    <t>-0.09917896240949631</t>
+  </si>
+  <si>
+    <t>-0.09917698055505753</t>
+  </si>
+  <si>
+    <t>0.2269858866930008</t>
+  </si>
+  <si>
+    <t>-0.2288781851530075</t>
+  </si>
+  <si>
+    <t>-0.2269887626171112</t>
+  </si>
+  <si>
+    <t>0.2288753092288971</t>
   </si>
   <si>
     <t>NRS1_FP3MIMF</t>
   </si>
   <si>
-    <t>1225.0</t>
-  </si>
-  <si>
-    <t>1967.0</t>
-  </si>
-  <si>
-    <t>0.10286830555492962</t>
-  </si>
-  <si>
-    <t>0.10393411721106055</t>
-  </si>
-  <si>
-    <t>375.2885041003595</t>
-  </si>
-  <si>
-    <t>-564.9785456327705</t>
-  </si>
-  <si>
-    <t>139.08204413172612</t>
-  </si>
-  <si>
-    <t>48.139959356083516</t>
-  </si>
-  <si>
-    <t>-126.23818366576208</t>
-  </si>
-  <si>
-    <t>83.53542230954889</t>
-  </si>
-  <si>
-    <t>85.79455439173194</t>
-  </si>
-  <si>
-    <t>-128.4862048156439</t>
-  </si>
-  <si>
-    <t>-205.15650719610187</t>
-  </si>
-  <si>
-    <t>-207.99496620793437</t>
-  </si>
-  <si>
-    <t>7.6378204680722845</t>
-  </si>
-  <si>
-    <t>11.283861492292665</t>
-  </si>
-  <si>
-    <t>-0.055277367781220436</t>
-  </si>
-  <si>
-    <t>6.45764014857777e-05</t>
-  </si>
-  <si>
-    <t>-5.096887347714826e-07</t>
-  </si>
-  <si>
-    <t>-2.368109788485556e-10</t>
-  </si>
-  <si>
-    <t>1.1241989052037165e-09</t>
-  </si>
-  <si>
-    <t>-1.2999990217232708e-10</t>
-  </si>
-  <si>
-    <t>8.508527538365597e-14</t>
-  </si>
-  <si>
-    <t>6.1622993144333116e-15</t>
-  </si>
-  <si>
-    <t>9.702537551052614e-14</t>
-  </si>
-  <si>
-    <t>-1.9172861165292428e-14</t>
-  </si>
-  <si>
-    <t>4.630356134150448e-18</t>
-  </si>
-  <si>
-    <t>-1.8836505431845106e-18</t>
-  </si>
-  <si>
-    <t>-2.2772172982912175e-18</t>
-  </si>
-  <si>
-    <t>4.0360143678892914e-18</t>
-  </si>
-  <si>
-    <t>-4.0539392164555937e-19</t>
-  </si>
-  <si>
-    <t>0.3588845387035701</t>
-  </si>
-  <si>
-    <t>-1.196458826195448e-06</t>
-  </si>
-  <si>
-    <t>6.932674401259109e-05</t>
-  </si>
-  <si>
-    <t>3.833275053628846e-10</t>
-  </si>
-  <si>
-    <t>-1.0943239660688708e-10</t>
-  </si>
-  <si>
-    <t>1.3968382657352098e-09</t>
-  </si>
-  <si>
-    <t>1.1158836970317953e-14</t>
-  </si>
-  <si>
-    <t>5.1865594862265576e-14</t>
-  </si>
-  <si>
-    <t>3.0278883289718745e-14</t>
-  </si>
-  <si>
-    <t>5.1042469603006595e-14</t>
-  </si>
-  <si>
-    <t>-2.1056834947258985e-18</t>
-  </si>
-  <si>
-    <t>6.165461104683166e-18</t>
-  </si>
-  <si>
-    <t>-1.5155435093775173e-17</t>
-  </si>
-  <si>
-    <t>7.917753704403046e-18</t>
-  </si>
-  <si>
-    <t>1.799271866545003e-17</t>
-  </si>
-  <si>
-    <t>1021.0242766605379</t>
-  </si>
-  <si>
-    <t>-5420.427161108084</t>
+    <t>374.9706115722656</t>
+  </si>
+  <si>
+    <t>-565.3275146484375</t>
+  </si>
+  <si>
+    <t>0.10031996667385101</t>
+  </si>
+  <si>
+    <t>0.10029201209545135</t>
+  </si>
+  <si>
+    <t>-0.1002969741821289</t>
+  </si>
+  <si>
+    <t>-0.10029201209545135</t>
+  </si>
+  <si>
+    <t>0.23222121596336365</t>
+  </si>
+  <si>
+    <t>-0.2347261607646942</t>
+  </si>
+  <si>
+    <t>-0.23220115900039673</t>
+  </si>
+  <si>
+    <t>0.2347261607646942</t>
   </si>
   <si>
     <t>NRS2_FP4MIMF</t>
   </si>
   <si>
-    <t>1276.0</t>
-  </si>
-  <si>
-    <t>236.0</t>
-  </si>
-  <si>
-    <t>773.0</t>
-  </si>
-  <si>
-    <t>1813.0</t>
-  </si>
-  <si>
-    <t>0.10298333591579645</t>
-  </si>
-  <si>
-    <t>0.10422222763104708</t>
-  </si>
-  <si>
-    <t>499.92026860165623</t>
-  </si>
-  <si>
-    <t>-432.49652798639914</t>
-  </si>
-  <si>
-    <t>137.65575176861478</t>
-  </si>
-  <si>
-    <t>48.87661592013217</t>
-  </si>
-  <si>
-    <t>-77.8136599462016</t>
-  </si>
-  <si>
-    <t>131.9412547723258</t>
-  </si>
-  <si>
-    <t>133.99534263760808</t>
-  </si>
-  <si>
-    <t>-80.55961187750506</t>
-  </si>
-  <si>
-    <t>-191.67407744270542</t>
-  </si>
-  <si>
-    <t>-187.9690268860695</t>
-  </si>
-  <si>
-    <t>28.76223480297344</t>
-  </si>
-  <si>
-    <t>23.954448790075716</t>
-  </si>
-  <si>
-    <t>0.056761310481016326</t>
-  </si>
-  <si>
-    <t>6.44037777979718e-05</t>
-  </si>
-  <si>
-    <t>1.4457455586300471e-06</t>
-  </si>
-  <si>
-    <t>2.371208090000291e-10</t>
-  </si>
-  <si>
-    <t>1.1013049968792132e-09</t>
-  </si>
-  <si>
-    <t>3.971996429048032e-11</t>
-  </si>
-  <si>
-    <t>8.571777175165078e-14</t>
-  </si>
-  <si>
-    <t>-2.750304318759919e-15</t>
-  </si>
-  <si>
-    <t>9.028802764041119e-14</t>
-  </si>
-  <si>
-    <t>-1.3693593994650858e-14</t>
-  </si>
-  <si>
-    <t>-4.528201073461864e-18</t>
-  </si>
-  <si>
-    <t>-1.7051201899401355e-18</t>
-  </si>
-  <si>
-    <t>-7.622393689474224e-19</t>
-  </si>
-  <si>
-    <t>2.1977549067273356e-18</t>
-  </si>
-  <si>
-    <t>2.4182552195458795e-19</t>
-  </si>
-  <si>
-    <t>0.34735323230382914</t>
-  </si>
-  <si>
-    <t>1.672664504439843e-07</t>
-  </si>
-  <si>
-    <t>6.888288718214647e-05</t>
-  </si>
-  <si>
-    <t>3.7719270539903066e-10</t>
-  </si>
-  <si>
-    <t>1.0131072294228309e-10</t>
-  </si>
-  <si>
-    <t>1.3822156010085925e-09</t>
-  </si>
-  <si>
-    <t>-1.2640169992582498e-14</t>
-  </si>
-  <si>
-    <t>6.057791267978742e-14</t>
-  </si>
-  <si>
-    <t>-1.7203151684244216e-14</t>
-  </si>
-  <si>
-    <t>4.8470043710259227e-14</t>
-  </si>
-  <si>
-    <t>-4.685104703730487e-18</t>
-  </si>
-  <si>
-    <t>-4.371179617872994e-18</t>
-  </si>
-  <si>
-    <t>-1.0959131780917046e-17</t>
-  </si>
-  <si>
-    <t>6.734569649636767e-19</t>
-  </si>
-  <si>
-    <t>1.4643166476365842e-17</t>
-  </si>
-  <si>
-    <t>-732.1477870860751</t>
-  </si>
-  <si>
-    <t>-5274.355050926751</t>
+    <t>499.39031982421875</t>
+  </si>
+  <si>
+    <t>-432.9581298828125</t>
+  </si>
+  <si>
+    <t>0.10025506466627121</t>
+  </si>
+  <si>
+    <t>0.10023612529039383</t>
+  </si>
+  <si>
+    <t>-0.10008034855127335</t>
+  </si>
+  <si>
+    <t>-0.10008177161216736</t>
+  </si>
+  <si>
+    <t>0.23534567654132843</t>
+  </si>
+  <si>
+    <t>-0.2329045832157135</t>
+  </si>
+  <si>
+    <t>-0.23531198501586914</t>
+  </si>
+  <si>
+    <t>0.2329609990119934</t>
   </si>
   <si>
     <t>NRS2_FP5MIMF</t>
   </si>
   <si>
-    <t>1247.0</t>
-  </si>
-  <si>
-    <t>1839.0</t>
-  </si>
-  <si>
-    <t>802.0</t>
-  </si>
-  <si>
-    <t>210.0</t>
-  </si>
-  <si>
-    <t>0.10359812070841962</t>
-  </si>
-  <si>
-    <t>0.1064703417354286</t>
-  </si>
-  <si>
-    <t>388.9295962227102</t>
-  </si>
-  <si>
-    <t>-305.32986159069225</t>
-  </si>
-  <si>
-    <t>137.68665270594178</t>
-  </si>
-  <si>
-    <t>48.922741754623345</t>
-  </si>
-  <si>
-    <t>-81.4489401098258</t>
-  </si>
-  <si>
-    <t>128.30794232230772</t>
-  </si>
-  <si>
-    <t>130.47891805874207</t>
-  </si>
-  <si>
-    <t>-84.07859820255855</t>
-  </si>
-  <si>
-    <t>-22.878368955681335</t>
-  </si>
-  <si>
-    <t>-19.286444602895443</t>
-  </si>
-  <si>
-    <t>197.44367774892322</t>
-  </si>
-  <si>
-    <t>192.75160687246145</t>
-  </si>
-  <si>
-    <t>0.05640844142359847</t>
-  </si>
-  <si>
-    <t>6.288317701432684e-05</t>
-  </si>
-  <si>
-    <t>1.2910101306416045e-06</t>
-  </si>
-  <si>
-    <t>2.4863039745181276e-10</t>
-  </si>
-  <si>
-    <t>8.095451700550371e-10</t>
-  </si>
-  <si>
-    <t>3.892631900135285e-11</t>
-  </si>
-  <si>
-    <t>8.858161866296168e-14</t>
-  </si>
-  <si>
-    <t>-3.015287136213552e-15</t>
-  </si>
-  <si>
-    <t>9.761019105415922e-14</t>
-  </si>
-  <si>
-    <t>3.0271275553578215e-14</t>
-  </si>
-  <si>
-    <t>-4.7401655240507284e-18</t>
-  </si>
-  <si>
-    <t>-2.5386878873731953e-18</t>
-  </si>
-  <si>
-    <t>8.123810820419345e-19</t>
-  </si>
-  <si>
-    <t>-5.242341849571296e-18</t>
-  </si>
-  <si>
-    <t>-1.396890476677689e-17</t>
-  </si>
-  <si>
-    <t>0.2403090582863051</t>
-  </si>
-  <si>
-    <t>-1.964557562280467e-08</t>
-  </si>
-  <si>
-    <t>6.481551184127024e-05</t>
-  </si>
-  <si>
-    <t>2.5931324440718916e-10</t>
-  </si>
-  <si>
-    <t>1.4784001398521988e-10</t>
-  </si>
-  <si>
-    <t>1.0910675498573013e-09</t>
-  </si>
-  <si>
-    <t>-4.267841915383462e-15</t>
-  </si>
-  <si>
-    <t>8.064890048952021e-14</t>
-  </si>
-  <si>
-    <t>-3.2308880365305206e-15</t>
-  </si>
-  <si>
-    <t>1.313844730886345e-13</t>
-  </si>
-  <si>
-    <t>-2.3533564976608354e-18</t>
-  </si>
-  <si>
-    <t>-6.5839779952021585e-18</t>
-  </si>
-  <si>
-    <t>-1.8590448665574135e-18</t>
-  </si>
-  <si>
-    <t>-6.638934515593936e-18</t>
-  </si>
-  <si>
-    <t>-4.053241438742617e-17</t>
-  </si>
-  <si>
-    <t>-761.1477870860751</t>
-  </si>
-  <si>
-    <t>-3671.3550509267507</t>
+    <t>387.3641052246094</t>
+  </si>
+  <si>
+    <t>-306.1568298339844</t>
+  </si>
+  <si>
+    <t>0.09788499027490616</t>
+  </si>
+  <si>
+    <t>0.09786975383758545</t>
+  </si>
+  <si>
+    <t>-0.09780123829841614</t>
+  </si>
+  <si>
+    <t>-0.09780634939670563</t>
+  </si>
+  <si>
+    <t>0.22738996148109436</t>
+  </si>
+  <si>
+    <t>-0.22582107782363892</t>
+  </si>
+  <si>
+    <t>-0.22743791341781616</t>
+  </si>
+  <si>
+    <t>0.2257959097623825</t>
   </si>
   <si>
     <t>CLEAR_GWA_OTE</t>
@@ -6121,8 +5653,8 @@
     <col customWidth="1" max="26" min="26" width="31.5"/>
     <col customWidth="1" max="27" min="27" width="31.5"/>
     <col customWidth="1" max="28" min="28" width="28.5"/>
-    <col customWidth="1" max="29" min="29" width="28.5"/>
-    <col customWidth="1" max="30" min="30" width="28.5"/>
+    <col customWidth="1" max="29" min="29" width="30"/>
+    <col customWidth="1" max="30" min="30" width="30"/>
     <col customWidth="1" max="31" min="31" width="27"/>
     <col customWidth="1" max="32" min="32" width="18"/>
     <col customWidth="1" max="33" min="33" width="10.5"/>
@@ -6131,17 +5663,17 @@
     <col customWidth="1" max="36" min="36" width="33"/>
     <col customWidth="1" max="37" min="37" width="34.5"/>
     <col customWidth="1" max="38" min="38" width="33"/>
-    <col customWidth="1" max="39" min="39" width="33"/>
+    <col customWidth="1" max="39" min="39" width="31.5"/>
     <col customWidth="1" max="40" min="40" width="34.5"/>
     <col customWidth="1" max="41" min="41" width="33"/>
     <col customWidth="1" max="42" min="42" width="33"/>
     <col customWidth="1" max="43" min="43" width="33"/>
-    <col customWidth="1" max="44" min="44" width="34.5"/>
-    <col customWidth="1" max="45" min="45" width="34.5"/>
+    <col customWidth="1" max="44" min="44" width="33"/>
+    <col customWidth="1" max="45" min="45" width="33"/>
     <col customWidth="1" max="46" min="46" width="34.5"/>
     <col customWidth="1" max="47" min="47" width="34.5"/>
     <col customWidth="1" max="48" min="48" width="34.5"/>
-    <col customWidth="1" max="49" min="49" width="34.5"/>
+    <col customWidth="1" max="49" min="49" width="33"/>
     <col customWidth="1" max="50" min="50" width="34.5"/>
     <col customWidth="1" max="51" min="51" width="33"/>
     <col customWidth="1" max="52" min="52" width="34.5"/>
@@ -6150,15 +5682,15 @@
     <col customWidth="1" max="55" min="55" width="34.5"/>
     <col customWidth="1" max="56" min="56" width="33"/>
     <col customWidth="1" max="57" min="57" width="33"/>
-    <col customWidth="1" max="58" min="58" width="31.5"/>
+    <col customWidth="1" max="58" min="58" width="30"/>
     <col customWidth="1" max="59" min="59" width="33"/>
     <col customWidth="1" max="60" min="60" width="34.5"/>
     <col customWidth="1" max="61" min="61" width="33"/>
     <col customWidth="1" max="62" min="62" width="34.5"/>
     <col customWidth="1" max="63" min="63" width="33"/>
-    <col customWidth="1" max="64" min="64" width="34.5"/>
+    <col customWidth="1" max="64" min="64" width="33"/>
     <col customWidth="1" max="65" min="65" width="34.5"/>
-    <col customWidth="1" max="66" min="66" width="34.5"/>
+    <col customWidth="1" max="66" min="66" width="33"/>
     <col customWidth="1" max="67" min="67" width="34.5"/>
     <col customWidth="1" max="68" min="68" width="34.5"/>
     <col customWidth="1" max="69" min="69" width="33"/>
@@ -25580,88 +25112,88 @@
         <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>418</v>
       </c>
       <c r="E56" t="s">
         <v>128</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="H56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P56" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="Q56" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>998</v>
-      </c>
       <c r="R56" s="3" t="s">
-        <v>999</v>
+        <v>135</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>236</v>
       </c>
       <c r="T56" s="3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="V56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="W56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="X56" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="Y56" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z56" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="AB56" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="AC56" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="W56" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="X56" s="3" t="s">
+      <c r="AD56" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="Y56" s="3" t="s">
+      <c r="AE56" s="3" t="s">
         <v>1002</v>
-      </c>
-      <c r="Z56" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AA56" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AB56" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="AC56" s="3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AD56" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AE56" s="3" t="s">
-        <v>1008</v>
       </c>
       <c r="AF56" s="3" t="s">
         <v>147</v>
@@ -25670,259 +25202,259 @@
         <v>148</v>
       </c>
       <c r="AH56" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI56" s="3" t="s">
-        <v>1009</v>
+        <v>148</v>
       </c>
       <c r="AJ56" s="3" t="s">
-        <v>1010</v>
+        <v>148</v>
       </c>
       <c r="AK56" s="3" t="s">
-        <v>1011</v>
+        <v>148</v>
       </c>
       <c r="AL56" s="3" t="s">
-        <v>1012</v>
+        <v>148</v>
       </c>
       <c r="AM56" s="3" t="s">
-        <v>1013</v>
+        <v>148</v>
       </c>
       <c r="AN56" s="3" t="s">
-        <v>1014</v>
+        <v>148</v>
       </c>
       <c r="AO56" s="3" t="s">
-        <v>1015</v>
+        <v>148</v>
       </c>
       <c r="AP56" s="3" t="s">
-        <v>1016</v>
+        <v>148</v>
       </c>
       <c r="AQ56" s="3" t="s">
-        <v>1017</v>
+        <v>148</v>
       </c>
       <c r="AR56" s="3" t="s">
-        <v>1018</v>
+        <v>148</v>
       </c>
       <c r="AS56" s="3" t="s">
-        <v>1019</v>
+        <v>148</v>
       </c>
       <c r="AT56" s="3" t="s">
-        <v>1020</v>
+        <v>148</v>
       </c>
       <c r="AU56" s="3" t="s">
-        <v>1021</v>
+        <v>148</v>
       </c>
       <c r="AV56" s="3" t="s">
-        <v>1022</v>
+        <v>148</v>
       </c>
       <c r="AW56" s="3" t="s">
-        <v>1023</v>
+        <v>148</v>
       </c>
       <c r="AX56" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="AY56" s="3" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="AZ56" s="3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="BA56" s="3" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="BB56" s="3" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="BC56" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="BD56" s="3" t="s">
-        <v>1024</v>
+        <v>148</v>
       </c>
       <c r="BE56" s="3" t="s">
-        <v>1025</v>
+        <v>148</v>
       </c>
       <c r="BF56" s="3" t="s">
-        <v>1026</v>
+        <v>148</v>
       </c>
       <c r="BG56" s="3" t="s">
-        <v>1027</v>
+        <v>148</v>
       </c>
       <c r="BH56" s="3" t="s">
-        <v>1028</v>
+        <v>148</v>
       </c>
       <c r="BI56" s="3" t="s">
-        <v>1029</v>
+        <v>148</v>
       </c>
       <c r="BJ56" s="3" t="s">
-        <v>1030</v>
+        <v>148</v>
       </c>
       <c r="BK56" s="3" t="s">
-        <v>1031</v>
+        <v>148</v>
       </c>
       <c r="BL56" s="3" t="s">
-        <v>1032</v>
+        <v>148</v>
       </c>
       <c r="BM56" s="3" t="s">
-        <v>1033</v>
+        <v>148</v>
       </c>
       <c r="BN56" s="3" t="s">
-        <v>1034</v>
+        <v>148</v>
       </c>
       <c r="BO56" s="3" t="s">
-        <v>1035</v>
+        <v>148</v>
       </c>
       <c r="BP56" s="3" t="s">
-        <v>1036</v>
+        <v>148</v>
       </c>
       <c r="BQ56" s="3" t="s">
-        <v>1037</v>
+        <v>148</v>
       </c>
       <c r="BR56" s="3" t="s">
-        <v>1038</v>
+        <v>148</v>
       </c>
       <c r="BS56" s="3" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="BT56" s="3" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="BU56" s="3" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="BV56" s="3" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="BW56" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="BX56" s="3" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="BY56" s="3" t="s">
-        <v>1039</v>
+        <v>148</v>
       </c>
       <c r="BZ56" s="3" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="CA56" s="3" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="CB56" s="3" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="CC56" s="3" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="CD56" s="3" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="CE56" s="3" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="CF56" s="3" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="CG56" s="3" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="CH56" s="3" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="CI56" s="3" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="CJ56" s="3" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="CK56" s="3" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="CL56" s="3" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="CM56" s="3" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="CN56" s="3" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="CO56" s="3" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="CP56" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="CQ56" s="3" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="CR56" s="3" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="CS56" s="3" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="CT56" s="3" t="s">
-        <v>1040</v>
+        <v>148</v>
       </c>
       <c r="CU56" s="3" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="CV56" s="3" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="CW56" s="3" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="CX56" s="3" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="CY56" s="3" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="CZ56" s="3" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="DA56" s="3" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="DB56" s="3" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="DC56" s="3" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="DD56" s="3" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="DE56" s="3" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="DF56" s="3" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="DG56" s="3" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="DH56" s="3" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="DI56" s="3" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="DJ56" s="3" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="DK56" s="3" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="DL56" s="3" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="DM56" s="3" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="DN56" s="3" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:118">
@@ -25930,94 +25462,94 @@
         <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>1041</v>
+        <v>1003</v>
       </c>
       <c r="C57" t="s">
         <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>235</v>
+        <v>418</v>
       </c>
       <c r="E57" t="s">
         <v>128</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>1042</v>
+        <v>148</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>1043</v>
+        <v>148</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>1042</v>
+        <v>148</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>1043</v>
+        <v>148</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>1044</v>
+        <v>148</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>1045</v>
+        <v>148</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>1046</v>
+        <v>1004</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>1047</v>
+        <v>1005</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>1048</v>
+        <v>135</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>236</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="U57" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>1049</v>
+        <v>148</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>1048</v>
+        <v>148</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>1050</v>
+        <v>1006</v>
       </c>
       <c r="Y57" s="3" t="s">
-        <v>1051</v>
+        <v>1007</v>
       </c>
       <c r="Z57" s="3" t="s">
-        <v>1052</v>
+        <v>1008</v>
       </c>
       <c r="AA57" s="3" t="s">
-        <v>1053</v>
+        <v>1009</v>
       </c>
       <c r="AB57" s="3" t="s">
-        <v>1054</v>
+        <v>1010</v>
       </c>
       <c r="AC57" s="3" t="s">
-        <v>1055</v>
+        <v>1011</v>
       </c>
       <c r="AD57" s="3" t="s">
-        <v>1056</v>
+        <v>1012</v>
       </c>
       <c r="AE57" s="3" t="s">
-        <v>1057</v>
+        <v>1013</v>
       </c>
       <c r="AF57" s="3" t="s">
         <v>147</v>
@@ -26026,259 +25558,259 @@
         <v>148</v>
       </c>
       <c r="AH57" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI57" s="3" t="s">
-        <v>1058</v>
+        <v>148</v>
       </c>
       <c r="AJ57" s="3" t="s">
-        <v>1059</v>
+        <v>148</v>
       </c>
       <c r="AK57" s="3" t="s">
-        <v>1060</v>
+        <v>148</v>
       </c>
       <c r="AL57" s="3" t="s">
-        <v>1061</v>
+        <v>148</v>
       </c>
       <c r="AM57" s="3" t="s">
-        <v>1062</v>
+        <v>148</v>
       </c>
       <c r="AN57" s="3" t="s">
-        <v>1063</v>
+        <v>148</v>
       </c>
       <c r="AO57" s="3" t="s">
-        <v>1064</v>
+        <v>148</v>
       </c>
       <c r="AP57" s="3" t="s">
-        <v>1065</v>
+        <v>148</v>
       </c>
       <c r="AQ57" s="3" t="s">
-        <v>1066</v>
+        <v>148</v>
       </c>
       <c r="AR57" s="3" t="s">
-        <v>1067</v>
+        <v>148</v>
       </c>
       <c r="AS57" s="3" t="s">
-        <v>1068</v>
+        <v>148</v>
       </c>
       <c r="AT57" s="3" t="s">
-        <v>1069</v>
+        <v>148</v>
       </c>
       <c r="AU57" s="3" t="s">
-        <v>1070</v>
+        <v>148</v>
       </c>
       <c r="AV57" s="3" t="s">
-        <v>1071</v>
+        <v>148</v>
       </c>
       <c r="AW57" s="3" t="s">
-        <v>1072</v>
+        <v>148</v>
       </c>
       <c r="AX57" s="3" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="AY57" s="3" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="AZ57" s="3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="BA57" s="3" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="BB57" s="3" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="BC57" s="3" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="BD57" s="3" t="s">
-        <v>1073</v>
+        <v>148</v>
       </c>
       <c r="BE57" s="3" t="s">
-        <v>1074</v>
+        <v>148</v>
       </c>
       <c r="BF57" s="3" t="s">
-        <v>1075</v>
+        <v>148</v>
       </c>
       <c r="BG57" s="3" t="s">
-        <v>1076</v>
+        <v>148</v>
       </c>
       <c r="BH57" s="3" t="s">
-        <v>1077</v>
+        <v>148</v>
       </c>
       <c r="BI57" s="3" t="s">
-        <v>1078</v>
+        <v>148</v>
       </c>
       <c r="BJ57" s="3" t="s">
-        <v>1079</v>
+        <v>148</v>
       </c>
       <c r="BK57" s="3" t="s">
-        <v>1080</v>
+        <v>148</v>
       </c>
       <c r="BL57" s="3" t="s">
-        <v>1081</v>
+        <v>148</v>
       </c>
       <c r="BM57" s="3" t="s">
-        <v>1082</v>
+        <v>148</v>
       </c>
       <c r="BN57" s="3" t="s">
-        <v>1083</v>
+        <v>148</v>
       </c>
       <c r="BO57" s="3" t="s">
-        <v>1084</v>
+        <v>148</v>
       </c>
       <c r="BP57" s="3" t="s">
-        <v>1085</v>
+        <v>148</v>
       </c>
       <c r="BQ57" s="3" t="s">
-        <v>1086</v>
+        <v>148</v>
       </c>
       <c r="BR57" s="3" t="s">
-        <v>1087</v>
+        <v>148</v>
       </c>
       <c r="BS57" s="3" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="BT57" s="3" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="BU57" s="3" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="BV57" s="3" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="BW57" s="3" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="BX57" s="3" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="BY57" s="3" t="s">
-        <v>1088</v>
+        <v>148</v>
       </c>
       <c r="BZ57" s="3" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="CA57" s="3" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="CB57" s="3" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="CC57" s="3" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="CD57" s="3" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="CE57" s="3" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="CF57" s="3" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="CG57" s="3" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c r="CH57" s="3" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="CI57" s="3" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="CJ57" s="3" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="CK57" s="3" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="CL57" s="3" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="CM57" s="3" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="CN57" s="3" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="CO57" s="3" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
       <c r="CP57" s="3" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="CQ57" s="3" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="CR57" s="3" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="CS57" s="3" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="CT57" s="3" t="s">
-        <v>1089</v>
+        <v>148</v>
       </c>
       <c r="CU57" s="3" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="CV57" s="3" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="CW57" s="3" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="CX57" s="3" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="CY57" s="3" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="CZ57" s="3" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="DA57" s="3" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="DB57" s="3" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="DC57" s="3" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="DD57" s="3" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="DE57" s="3" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="DF57" s="3" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="DG57" s="3" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="DH57" s="3" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="DI57" s="3" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
       <c r="DJ57" s="3" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="DK57" s="3" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="DL57" s="3" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="DM57" s="3" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="DN57" s="3" t="s">
-        <v>233</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:118">
@@ -26286,94 +25818,94 @@
         <v>124</v>
       </c>
       <c r="B58" t="s">
-        <v>1090</v>
+        <v>1014</v>
       </c>
       <c r="C58" t="s">
         <v>242</v>
       </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>418</v>
       </c>
       <c r="E58" t="s">
         <v>128</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>1091</v>
+        <v>148</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>1092</v>
+        <v>148</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>1093</v>
+        <v>148</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>1094</v>
+        <v>148</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>1095</v>
+        <v>148</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>1096</v>
+        <v>148</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>1097</v>
+        <v>1015</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>1098</v>
+        <v>1016</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>1099</v>
+        <v>342</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>236</v>
       </c>
       <c r="T58" s="3" t="s">
-        <v>343</v>
+        <v>148</v>
       </c>
       <c r="U58" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>1100</v>
+        <v>148</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>1099</v>
+        <v>148</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>1101</v>
+        <v>1017</v>
       </c>
       <c r="Y58" s="3" t="s">
-        <v>1102</v>
+        <v>1018</v>
       </c>
       <c r="Z58" s="3" t="s">
-        <v>1103</v>
+        <v>1019</v>
       </c>
       <c r="AA58" s="3" t="s">
-        <v>1104</v>
+        <v>1020</v>
       </c>
       <c r="AB58" s="3" t="s">
-        <v>1105</v>
+        <v>1021</v>
       </c>
       <c r="AC58" s="3" t="s">
-        <v>1106</v>
+        <v>1022</v>
       </c>
       <c r="AD58" s="3" t="s">
-        <v>1107</v>
+        <v>1023</v>
       </c>
       <c r="AE58" s="3" t="s">
-        <v>1108</v>
+        <v>1024</v>
       </c>
       <c r="AF58" s="3" t="s">
         <v>147</v>
@@ -26382,259 +25914,259 @@
         <v>148</v>
       </c>
       <c r="AH58" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI58" s="3" t="s">
-        <v>1109</v>
+        <v>148</v>
       </c>
       <c r="AJ58" s="3" t="s">
-        <v>1110</v>
+        <v>148</v>
       </c>
       <c r="AK58" s="3" t="s">
-        <v>1111</v>
+        <v>148</v>
       </c>
       <c r="AL58" s="3" t="s">
-        <v>1112</v>
+        <v>148</v>
       </c>
       <c r="AM58" s="3" t="s">
-        <v>1113</v>
+        <v>148</v>
       </c>
       <c r="AN58" s="3" t="s">
-        <v>1114</v>
+        <v>148</v>
       </c>
       <c r="AO58" s="3" t="s">
-        <v>1115</v>
+        <v>148</v>
       </c>
       <c r="AP58" s="3" t="s">
-        <v>1116</v>
+        <v>148</v>
       </c>
       <c r="AQ58" s="3" t="s">
-        <v>1117</v>
+        <v>148</v>
       </c>
       <c r="AR58" s="3" t="s">
-        <v>1118</v>
+        <v>148</v>
       </c>
       <c r="AS58" s="3" t="s">
-        <v>1119</v>
+        <v>148</v>
       </c>
       <c r="AT58" s="3" t="s">
-        <v>1120</v>
+        <v>148</v>
       </c>
       <c r="AU58" s="3" t="s">
-        <v>1121</v>
+        <v>148</v>
       </c>
       <c r="AV58" s="3" t="s">
-        <v>1122</v>
+        <v>148</v>
       </c>
       <c r="AW58" s="3" t="s">
-        <v>1123</v>
+        <v>148</v>
       </c>
       <c r="AX58" s="3" t="s">
-        <v>357</v>
+        <v>148</v>
       </c>
       <c r="AY58" s="3" t="s">
-        <v>358</v>
+        <v>148</v>
       </c>
       <c r="AZ58" s="3" t="s">
-        <v>359</v>
+        <v>148</v>
       </c>
       <c r="BA58" s="3" t="s">
-        <v>360</v>
+        <v>148</v>
       </c>
       <c r="BB58" s="3" t="s">
-        <v>361</v>
+        <v>148</v>
       </c>
       <c r="BC58" s="3" t="s">
-        <v>362</v>
+        <v>148</v>
       </c>
       <c r="BD58" s="3" t="s">
-        <v>1124</v>
+        <v>148</v>
       </c>
       <c r="BE58" s="3" t="s">
-        <v>1125</v>
+        <v>148</v>
       </c>
       <c r="BF58" s="3" t="s">
-        <v>1126</v>
+        <v>148</v>
       </c>
       <c r="BG58" s="3" t="s">
-        <v>1127</v>
+        <v>148</v>
       </c>
       <c r="BH58" s="3" t="s">
-        <v>1128</v>
+        <v>148</v>
       </c>
       <c r="BI58" s="3" t="s">
-        <v>1129</v>
+        <v>148</v>
       </c>
       <c r="BJ58" s="3" t="s">
-        <v>1130</v>
+        <v>148</v>
       </c>
       <c r="BK58" s="3" t="s">
-        <v>1131</v>
+        <v>148</v>
       </c>
       <c r="BL58" s="3" t="s">
-        <v>1132</v>
+        <v>148</v>
       </c>
       <c r="BM58" s="3" t="s">
-        <v>1133</v>
+        <v>148</v>
       </c>
       <c r="BN58" s="3" t="s">
-        <v>1134</v>
+        <v>148</v>
       </c>
       <c r="BO58" s="3" t="s">
-        <v>1135</v>
+        <v>148</v>
       </c>
       <c r="BP58" s="3" t="s">
-        <v>1136</v>
+        <v>148</v>
       </c>
       <c r="BQ58" s="3" t="s">
-        <v>1137</v>
+        <v>148</v>
       </c>
       <c r="BR58" s="3" t="s">
-        <v>1138</v>
+        <v>148</v>
       </c>
       <c r="BS58" s="3" t="s">
-        <v>369</v>
+        <v>148</v>
       </c>
       <c r="BT58" s="3" t="s">
-        <v>370</v>
+        <v>148</v>
       </c>
       <c r="BU58" s="3" t="s">
-        <v>371</v>
+        <v>148</v>
       </c>
       <c r="BV58" s="3" t="s">
-        <v>372</v>
+        <v>148</v>
       </c>
       <c r="BW58" s="3" t="s">
-        <v>373</v>
+        <v>148</v>
       </c>
       <c r="BX58" s="3" t="s">
-        <v>374</v>
+        <v>148</v>
       </c>
       <c r="BY58" s="3" t="s">
-        <v>1139</v>
+        <v>148</v>
       </c>
       <c r="BZ58" s="3" t="s">
-        <v>376</v>
+        <v>148</v>
       </c>
       <c r="CA58" s="3" t="s">
-        <v>377</v>
+        <v>148</v>
       </c>
       <c r="CB58" s="3" t="s">
-        <v>378</v>
+        <v>148</v>
       </c>
       <c r="CC58" s="3" t="s">
-        <v>379</v>
+        <v>148</v>
       </c>
       <c r="CD58" s="3" t="s">
-        <v>380</v>
+        <v>148</v>
       </c>
       <c r="CE58" s="3" t="s">
-        <v>381</v>
+        <v>148</v>
       </c>
       <c r="CF58" s="3" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
       <c r="CG58" s="3" t="s">
-        <v>383</v>
+        <v>148</v>
       </c>
       <c r="CH58" s="3" t="s">
-        <v>384</v>
+        <v>148</v>
       </c>
       <c r="CI58" s="3" t="s">
-        <v>385</v>
+        <v>148</v>
       </c>
       <c r="CJ58" s="3" t="s">
-        <v>386</v>
+        <v>148</v>
       </c>
       <c r="CK58" s="3" t="s">
-        <v>387</v>
+        <v>148</v>
       </c>
       <c r="CL58" s="3" t="s">
-        <v>388</v>
+        <v>148</v>
       </c>
       <c r="CM58" s="3" t="s">
-        <v>389</v>
+        <v>148</v>
       </c>
       <c r="CN58" s="3" t="s">
-        <v>390</v>
+        <v>148</v>
       </c>
       <c r="CO58" s="3" t="s">
-        <v>391</v>
+        <v>148</v>
       </c>
       <c r="CP58" s="3" t="s">
-        <v>392</v>
+        <v>148</v>
       </c>
       <c r="CQ58" s="3" t="s">
-        <v>393</v>
+        <v>148</v>
       </c>
       <c r="CR58" s="3" t="s">
-        <v>394</v>
+        <v>148</v>
       </c>
       <c r="CS58" s="3" t="s">
-        <v>395</v>
+        <v>148</v>
       </c>
       <c r="CT58" s="3" t="s">
-        <v>1140</v>
+        <v>148</v>
       </c>
       <c r="CU58" s="3" t="s">
-        <v>397</v>
+        <v>148</v>
       </c>
       <c r="CV58" s="3" t="s">
-        <v>398</v>
+        <v>148</v>
       </c>
       <c r="CW58" s="3" t="s">
-        <v>399</v>
+        <v>148</v>
       </c>
       <c r="CX58" s="3" t="s">
-        <v>400</v>
+        <v>148</v>
       </c>
       <c r="CY58" s="3" t="s">
-        <v>401</v>
+        <v>148</v>
       </c>
       <c r="CZ58" s="3" t="s">
-        <v>402</v>
+        <v>148</v>
       </c>
       <c r="DA58" s="3" t="s">
-        <v>403</v>
+        <v>148</v>
       </c>
       <c r="DB58" s="3" t="s">
-        <v>404</v>
+        <v>148</v>
       </c>
       <c r="DC58" s="3" t="s">
-        <v>405</v>
+        <v>148</v>
       </c>
       <c r="DD58" s="3" t="s">
-        <v>406</v>
+        <v>148</v>
       </c>
       <c r="DE58" s="3" t="s">
-        <v>407</v>
+        <v>148</v>
       </c>
       <c r="DF58" s="3" t="s">
-        <v>408</v>
+        <v>148</v>
       </c>
       <c r="DG58" s="3" t="s">
-        <v>409</v>
+        <v>148</v>
       </c>
       <c r="DH58" s="3" t="s">
-        <v>410</v>
+        <v>148</v>
       </c>
       <c r="DI58" s="3" t="s">
-        <v>411</v>
+        <v>148</v>
       </c>
       <c r="DJ58" s="3" t="s">
-        <v>412</v>
+        <v>148</v>
       </c>
       <c r="DK58" s="3" t="s">
-        <v>413</v>
+        <v>148</v>
       </c>
       <c r="DL58" s="3" t="s">
-        <v>414</v>
+        <v>148</v>
       </c>
       <c r="DM58" s="3" t="s">
-        <v>415</v>
+        <v>148</v>
       </c>
       <c r="DN58" s="3" t="s">
-        <v>416</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:118">
@@ -26642,94 +26174,94 @@
         <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>1141</v>
+        <v>1025</v>
       </c>
       <c r="C59" t="s">
         <v>242</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>418</v>
       </c>
       <c r="E59" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>1142</v>
+        <v>148</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>1143</v>
+        <v>148</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>1144</v>
+        <v>148</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>1145</v>
+        <v>148</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>1146</v>
+        <v>148</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>1147</v>
+        <v>148</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>1148</v>
+        <v>1026</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>1149</v>
+        <v>1027</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>1150</v>
+        <v>342</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>236</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>343</v>
+        <v>148</v>
       </c>
       <c r="U59" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>1151</v>
+        <v>148</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>1150</v>
+        <v>148</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>1152</v>
+        <v>1028</v>
       </c>
       <c r="Y59" s="3" t="s">
-        <v>1153</v>
+        <v>1029</v>
       </c>
       <c r="Z59" s="3" t="s">
-        <v>1154</v>
+        <v>1030</v>
       </c>
       <c r="AA59" s="3" t="s">
-        <v>1155</v>
+        <v>1031</v>
       </c>
       <c r="AB59" s="3" t="s">
-        <v>1156</v>
+        <v>1032</v>
       </c>
       <c r="AC59" s="3" t="s">
-        <v>1157</v>
+        <v>1033</v>
       </c>
       <c r="AD59" s="3" t="s">
-        <v>1158</v>
+        <v>1034</v>
       </c>
       <c r="AE59" s="3" t="s">
-        <v>1159</v>
+        <v>1035</v>
       </c>
       <c r="AF59" s="3" t="s">
         <v>147</v>
@@ -26738,259 +26270,259 @@
         <v>148</v>
       </c>
       <c r="AH59" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AI59" s="3" t="s">
-        <v>1160</v>
+        <v>148</v>
       </c>
       <c r="AJ59" s="3" t="s">
-        <v>1161</v>
+        <v>148</v>
       </c>
       <c r="AK59" s="3" t="s">
-        <v>1162</v>
+        <v>148</v>
       </c>
       <c r="AL59" s="3" t="s">
-        <v>1163</v>
+        <v>148</v>
       </c>
       <c r="AM59" s="3" t="s">
-        <v>1164</v>
+        <v>148</v>
       </c>
       <c r="AN59" s="3" t="s">
-        <v>1165</v>
+        <v>148</v>
       </c>
       <c r="AO59" s="3" t="s">
-        <v>1166</v>
+        <v>148</v>
       </c>
       <c r="AP59" s="3" t="s">
-        <v>1167</v>
+        <v>148</v>
       </c>
       <c r="AQ59" s="3" t="s">
-        <v>1168</v>
+        <v>148</v>
       </c>
       <c r="AR59" s="3" t="s">
-        <v>1169</v>
+        <v>148</v>
       </c>
       <c r="AS59" s="3" t="s">
-        <v>1170</v>
+        <v>148</v>
       </c>
       <c r="AT59" s="3" t="s">
-        <v>1171</v>
+        <v>148</v>
       </c>
       <c r="AU59" s="3" t="s">
-        <v>1172</v>
+        <v>148</v>
       </c>
       <c r="AV59" s="3" t="s">
-        <v>1173</v>
+        <v>148</v>
       </c>
       <c r="AW59" s="3" t="s">
-        <v>1174</v>
+        <v>148</v>
       </c>
       <c r="AX59" s="3" t="s">
-        <v>357</v>
+        <v>148</v>
       </c>
       <c r="AY59" s="3" t="s">
-        <v>358</v>
+        <v>148</v>
       </c>
       <c r="AZ59" s="3" t="s">
-        <v>359</v>
+        <v>148</v>
       </c>
       <c r="BA59" s="3" t="s">
-        <v>360</v>
+        <v>148</v>
       </c>
       <c r="BB59" s="3" t="s">
-        <v>361</v>
+        <v>148</v>
       </c>
       <c r="BC59" s="3" t="s">
-        <v>362</v>
+        <v>148</v>
       </c>
       <c r="BD59" s="3" t="s">
-        <v>1175</v>
+        <v>148</v>
       </c>
       <c r="BE59" s="3" t="s">
-        <v>1176</v>
+        <v>148</v>
       </c>
       <c r="BF59" s="3" t="s">
-        <v>1177</v>
+        <v>148</v>
       </c>
       <c r="BG59" s="3" t="s">
-        <v>1178</v>
+        <v>148</v>
       </c>
       <c r="BH59" s="3" t="s">
-        <v>1179</v>
+        <v>148</v>
       </c>
       <c r="BI59" s="3" t="s">
-        <v>1180</v>
+        <v>148</v>
       </c>
       <c r="BJ59" s="3" t="s">
-        <v>1181</v>
+        <v>148</v>
       </c>
       <c r="BK59" s="3" t="s">
-        <v>1182</v>
+        <v>148</v>
       </c>
       <c r="BL59" s="3" t="s">
-        <v>1183</v>
+        <v>148</v>
       </c>
       <c r="BM59" s="3" t="s">
-        <v>1184</v>
+        <v>148</v>
       </c>
       <c r="BN59" s="3" t="s">
-        <v>1185</v>
+        <v>148</v>
       </c>
       <c r="BO59" s="3" t="s">
-        <v>1186</v>
+        <v>148</v>
       </c>
       <c r="BP59" s="3" t="s">
-        <v>1187</v>
+        <v>148</v>
       </c>
       <c r="BQ59" s="3" t="s">
-        <v>1188</v>
+        <v>148</v>
       </c>
       <c r="BR59" s="3" t="s">
-        <v>1189</v>
+        <v>148</v>
       </c>
       <c r="BS59" s="3" t="s">
-        <v>369</v>
+        <v>148</v>
       </c>
       <c r="BT59" s="3" t="s">
-        <v>370</v>
+        <v>148</v>
       </c>
       <c r="BU59" s="3" t="s">
-        <v>371</v>
+        <v>148</v>
       </c>
       <c r="BV59" s="3" t="s">
-        <v>372</v>
+        <v>148</v>
       </c>
       <c r="BW59" s="3" t="s">
-        <v>373</v>
+        <v>148</v>
       </c>
       <c r="BX59" s="3" t="s">
-        <v>374</v>
+        <v>148</v>
       </c>
       <c r="BY59" s="3" t="s">
-        <v>1190</v>
+        <v>148</v>
       </c>
       <c r="BZ59" s="3" t="s">
-        <v>376</v>
+        <v>148</v>
       </c>
       <c r="CA59" s="3" t="s">
-        <v>377</v>
+        <v>148</v>
       </c>
       <c r="CB59" s="3" t="s">
-        <v>378</v>
+        <v>148</v>
       </c>
       <c r="CC59" s="3" t="s">
-        <v>379</v>
+        <v>148</v>
       </c>
       <c r="CD59" s="3" t="s">
-        <v>380</v>
+        <v>148</v>
       </c>
       <c r="CE59" s="3" t="s">
-        <v>381</v>
+        <v>148</v>
       </c>
       <c r="CF59" s="3" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
       <c r="CG59" s="3" t="s">
-        <v>383</v>
+        <v>148</v>
       </c>
       <c r="CH59" s="3" t="s">
-        <v>384</v>
+        <v>148</v>
       </c>
       <c r="CI59" s="3" t="s">
-        <v>385</v>
+        <v>148</v>
       </c>
       <c r="CJ59" s="3" t="s">
-        <v>386</v>
+        <v>148</v>
       </c>
       <c r="CK59" s="3" t="s">
-        <v>387</v>
+        <v>148</v>
       </c>
       <c r="CL59" s="3" t="s">
-        <v>388</v>
+        <v>148</v>
       </c>
       <c r="CM59" s="3" t="s">
-        <v>389</v>
+        <v>148</v>
       </c>
       <c r="CN59" s="3" t="s">
-        <v>390</v>
+        <v>148</v>
       </c>
       <c r="CO59" s="3" t="s">
-        <v>391</v>
+        <v>148</v>
       </c>
       <c r="CP59" s="3" t="s">
-        <v>392</v>
+        <v>148</v>
       </c>
       <c r="CQ59" s="3" t="s">
-        <v>393</v>
+        <v>148</v>
       </c>
       <c r="CR59" s="3" t="s">
-        <v>394</v>
+        <v>148</v>
       </c>
       <c r="CS59" s="3" t="s">
-        <v>395</v>
+        <v>148</v>
       </c>
       <c r="CT59" s="3" t="s">
-        <v>1191</v>
+        <v>148</v>
       </c>
       <c r="CU59" s="3" t="s">
-        <v>397</v>
+        <v>148</v>
       </c>
       <c r="CV59" s="3" t="s">
-        <v>398</v>
+        <v>148</v>
       </c>
       <c r="CW59" s="3" t="s">
-        <v>399</v>
+        <v>148</v>
       </c>
       <c r="CX59" s="3" t="s">
-        <v>400</v>
+        <v>148</v>
       </c>
       <c r="CY59" s="3" t="s">
-        <v>401</v>
+        <v>148</v>
       </c>
       <c r="CZ59" s="3" t="s">
-        <v>402</v>
+        <v>148</v>
       </c>
       <c r="DA59" s="3" t="s">
-        <v>403</v>
+        <v>148</v>
       </c>
       <c r="DB59" s="3" t="s">
-        <v>404</v>
+        <v>148</v>
       </c>
       <c r="DC59" s="3" t="s">
-        <v>405</v>
+        <v>148</v>
       </c>
       <c r="DD59" s="3" t="s">
-        <v>406</v>
+        <v>148</v>
       </c>
       <c r="DE59" s="3" t="s">
-        <v>407</v>
+        <v>148</v>
       </c>
       <c r="DF59" s="3" t="s">
-        <v>408</v>
+        <v>148</v>
       </c>
       <c r="DG59" s="3" t="s">
-        <v>409</v>
+        <v>148</v>
       </c>
       <c r="DH59" s="3" t="s">
-        <v>410</v>
+        <v>148</v>
       </c>
       <c r="DI59" s="3" t="s">
-        <v>411</v>
+        <v>148</v>
       </c>
       <c r="DJ59" s="3" t="s">
-        <v>412</v>
+        <v>148</v>
       </c>
       <c r="DK59" s="3" t="s">
-        <v>413</v>
+        <v>148</v>
       </c>
       <c r="DL59" s="3" t="s">
-        <v>414</v>
+        <v>148</v>
       </c>
       <c r="DM59" s="3" t="s">
-        <v>415</v>
+        <v>148</v>
       </c>
       <c r="DN59" s="3" t="s">
-        <v>416</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:118">
@@ -26998,13 +26530,13 @@
         <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>1192</v>
+        <v>1036</v>
       </c>
       <c r="C60" t="s">
         <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E60" t="s">
         <v>148</v>
@@ -27028,16 +26560,16 @@
         <v>148</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>1194</v>
+        <v>1038</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>1195</v>
+        <v>1039</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>1196</v>
+        <v>1040</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>1197</v>
+        <v>1041</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>148</v>
@@ -27097,256 +26629,256 @@
         <v>149</v>
       </c>
       <c r="AI60" s="3" t="s">
-        <v>1198</v>
+        <v>1042</v>
       </c>
       <c r="AJ60" s="3" t="s">
-        <v>1199</v>
+        <v>1043</v>
       </c>
       <c r="AK60" s="3" t="s">
-        <v>1200</v>
+        <v>1044</v>
       </c>
       <c r="AL60" s="3" t="s">
-        <v>1201</v>
+        <v>1045</v>
       </c>
       <c r="AM60" s="3" t="s">
-        <v>1202</v>
+        <v>1046</v>
       </c>
       <c r="AN60" s="3" t="s">
-        <v>1203</v>
+        <v>1047</v>
       </c>
       <c r="AO60" s="3" t="s">
-        <v>1204</v>
+        <v>1048</v>
       </c>
       <c r="AP60" s="3" t="s">
-        <v>1205</v>
+        <v>1049</v>
       </c>
       <c r="AQ60" s="3" t="s">
-        <v>1206</v>
+        <v>1050</v>
       </c>
       <c r="AR60" s="3" t="s">
-        <v>1207</v>
+        <v>1051</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>1208</v>
+        <v>1052</v>
       </c>
       <c r="AT60" s="3" t="s">
-        <v>1209</v>
+        <v>1053</v>
       </c>
       <c r="AU60" s="3" t="s">
-        <v>1210</v>
+        <v>1054</v>
       </c>
       <c r="AV60" s="3" t="s">
-        <v>1211</v>
+        <v>1055</v>
       </c>
       <c r="AW60" s="3" t="s">
-        <v>1212</v>
+        <v>1056</v>
       </c>
       <c r="AX60" s="3" t="s">
-        <v>1213</v>
+        <v>1057</v>
       </c>
       <c r="AY60" s="3" t="s">
-        <v>1214</v>
+        <v>1058</v>
       </c>
       <c r="AZ60" s="3" t="s">
-        <v>1215</v>
+        <v>1059</v>
       </c>
       <c r="BA60" s="3" t="s">
-        <v>1216</v>
+        <v>1060</v>
       </c>
       <c r="BB60" s="3" t="s">
-        <v>1217</v>
+        <v>1061</v>
       </c>
       <c r="BC60" s="3" t="s">
-        <v>1218</v>
+        <v>1062</v>
       </c>
       <c r="BD60" s="3" t="s">
-        <v>1219</v>
+        <v>1063</v>
       </c>
       <c r="BE60" s="3" t="s">
-        <v>1220</v>
+        <v>1064</v>
       </c>
       <c r="BF60" s="3" t="s">
-        <v>1221</v>
+        <v>1065</v>
       </c>
       <c r="BG60" s="3" t="s">
-        <v>1222</v>
+        <v>1066</v>
       </c>
       <c r="BH60" s="3" t="s">
-        <v>1223</v>
+        <v>1067</v>
       </c>
       <c r="BI60" s="3" t="s">
-        <v>1224</v>
+        <v>1068</v>
       </c>
       <c r="BJ60" s="3" t="s">
-        <v>1225</v>
+        <v>1069</v>
       </c>
       <c r="BK60" s="3" t="s">
-        <v>1226</v>
+        <v>1070</v>
       </c>
       <c r="BL60" s="3" t="s">
-        <v>1227</v>
+        <v>1071</v>
       </c>
       <c r="BM60" s="3" t="s">
-        <v>1228</v>
+        <v>1072</v>
       </c>
       <c r="BN60" s="3" t="s">
-        <v>1229</v>
+        <v>1073</v>
       </c>
       <c r="BO60" s="3" t="s">
-        <v>1230</v>
+        <v>1074</v>
       </c>
       <c r="BP60" s="3" t="s">
-        <v>1231</v>
+        <v>1075</v>
       </c>
       <c r="BQ60" s="3" t="s">
-        <v>1232</v>
+        <v>1076</v>
       </c>
       <c r="BR60" s="3" t="s">
-        <v>1233</v>
+        <v>1077</v>
       </c>
       <c r="BS60" s="3" t="s">
-        <v>1234</v>
+        <v>1078</v>
       </c>
       <c r="BT60" s="3" t="s">
-        <v>1235</v>
+        <v>1079</v>
       </c>
       <c r="BU60" s="3" t="s">
-        <v>1236</v>
+        <v>1080</v>
       </c>
       <c r="BV60" s="3" t="s">
-        <v>1237</v>
+        <v>1081</v>
       </c>
       <c r="BW60" s="3" t="s">
-        <v>1238</v>
+        <v>1082</v>
       </c>
       <c r="BX60" s="3" t="s">
-        <v>1239</v>
+        <v>1083</v>
       </c>
       <c r="BY60" s="3" t="s">
-        <v>1240</v>
+        <v>1084</v>
       </c>
       <c r="BZ60" s="3" t="s">
-        <v>1241</v>
+        <v>1085</v>
       </c>
       <c r="CA60" s="3" t="s">
-        <v>1242</v>
+        <v>1086</v>
       </c>
       <c r="CB60" s="3" t="s">
-        <v>1243</v>
+        <v>1087</v>
       </c>
       <c r="CC60" s="3" t="s">
-        <v>1244</v>
+        <v>1088</v>
       </c>
       <c r="CD60" s="3" t="s">
-        <v>1245</v>
+        <v>1089</v>
       </c>
       <c r="CE60" s="3" t="s">
-        <v>1246</v>
+        <v>1090</v>
       </c>
       <c r="CF60" s="3" t="s">
-        <v>1247</v>
+        <v>1091</v>
       </c>
       <c r="CG60" s="3" t="s">
-        <v>1248</v>
+        <v>1092</v>
       </c>
       <c r="CH60" s="3" t="s">
-        <v>1249</v>
+        <v>1093</v>
       </c>
       <c r="CI60" s="3" t="s">
-        <v>1250</v>
+        <v>1094</v>
       </c>
       <c r="CJ60" s="3" t="s">
-        <v>1251</v>
+        <v>1095</v>
       </c>
       <c r="CK60" s="3" t="s">
-        <v>1252</v>
+        <v>1096</v>
       </c>
       <c r="CL60" s="3" t="s">
-        <v>1253</v>
+        <v>1097</v>
       </c>
       <c r="CM60" s="3" t="s">
-        <v>1254</v>
+        <v>1098</v>
       </c>
       <c r="CN60" s="3" t="s">
-        <v>1255</v>
+        <v>1099</v>
       </c>
       <c r="CO60" s="3" t="s">
-        <v>1256</v>
+        <v>1100</v>
       </c>
       <c r="CP60" s="3" t="s">
-        <v>1257</v>
+        <v>1101</v>
       </c>
       <c r="CQ60" s="3" t="s">
-        <v>1258</v>
+        <v>1102</v>
       </c>
       <c r="CR60" s="3" t="s">
-        <v>1259</v>
+        <v>1103</v>
       </c>
       <c r="CS60" s="3" t="s">
-        <v>1260</v>
+        <v>1104</v>
       </c>
       <c r="CT60" s="3" t="s">
-        <v>1261</v>
+        <v>1105</v>
       </c>
       <c r="CU60" s="3" t="s">
-        <v>1262</v>
+        <v>1106</v>
       </c>
       <c r="CV60" s="3" t="s">
-        <v>1263</v>
+        <v>1107</v>
       </c>
       <c r="CW60" s="3" t="s">
-        <v>1264</v>
+        <v>1108</v>
       </c>
       <c r="CX60" s="3" t="s">
-        <v>1265</v>
+        <v>1109</v>
       </c>
       <c r="CY60" s="3" t="s">
-        <v>1266</v>
+        <v>1110</v>
       </c>
       <c r="CZ60" s="3" t="s">
-        <v>1267</v>
+        <v>1111</v>
       </c>
       <c r="DA60" s="3" t="s">
-        <v>1268</v>
+        <v>1112</v>
       </c>
       <c r="DB60" s="3" t="s">
-        <v>1269</v>
+        <v>1113</v>
       </c>
       <c r="DC60" s="3" t="s">
-        <v>1270</v>
+        <v>1114</v>
       </c>
       <c r="DD60" s="3" t="s">
-        <v>1271</v>
+        <v>1115</v>
       </c>
       <c r="DE60" s="3" t="s">
-        <v>1272</v>
+        <v>1116</v>
       </c>
       <c r="DF60" s="3" t="s">
-        <v>1273</v>
+        <v>1117</v>
       </c>
       <c r="DG60" s="3" t="s">
-        <v>1274</v>
+        <v>1118</v>
       </c>
       <c r="DH60" s="3" t="s">
-        <v>1275</v>
+        <v>1119</v>
       </c>
       <c r="DI60" s="3" t="s">
-        <v>1276</v>
+        <v>1120</v>
       </c>
       <c r="DJ60" s="3" t="s">
-        <v>1277</v>
+        <v>1121</v>
       </c>
       <c r="DK60" s="3" t="s">
-        <v>1278</v>
+        <v>1122</v>
       </c>
       <c r="DL60" s="3" t="s">
-        <v>1279</v>
+        <v>1123</v>
       </c>
       <c r="DM60" s="3" t="s">
-        <v>1280</v>
+        <v>1124</v>
       </c>
       <c r="DN60" s="3" t="s">
-        <v>1281</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="61" spans="1:118">
@@ -27354,13 +26886,13 @@
         <v>124</v>
       </c>
       <c r="B61" t="s">
-        <v>1282</v>
+        <v>1126</v>
       </c>
       <c r="C61" t="s">
         <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E61" t="s">
         <v>148</v>
@@ -27384,16 +26916,16 @@
         <v>148</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>1194</v>
+        <v>1038</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>1195</v>
+        <v>1039</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>1196</v>
+        <v>1040</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>1197</v>
+        <v>1041</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>148</v>
@@ -27453,256 +26985,256 @@
         <v>149</v>
       </c>
       <c r="AI61" s="3" t="s">
-        <v>1283</v>
+        <v>1127</v>
       </c>
       <c r="AJ61" s="3" t="s">
-        <v>1284</v>
+        <v>1128</v>
       </c>
       <c r="AK61" s="3" t="s">
-        <v>1285</v>
+        <v>1129</v>
       </c>
       <c r="AL61" s="3" t="s">
-        <v>1286</v>
+        <v>1130</v>
       </c>
       <c r="AM61" s="3" t="s">
-        <v>1287</v>
+        <v>1131</v>
       </c>
       <c r="AN61" s="3" t="s">
-        <v>1288</v>
+        <v>1132</v>
       </c>
       <c r="AO61" s="3" t="s">
-        <v>1289</v>
+        <v>1133</v>
       </c>
       <c r="AP61" s="3" t="s">
-        <v>1290</v>
+        <v>1134</v>
       </c>
       <c r="AQ61" s="3" t="s">
-        <v>1291</v>
+        <v>1135</v>
       </c>
       <c r="AR61" s="3" t="s">
-        <v>1292</v>
+        <v>1136</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>1293</v>
+        <v>1137</v>
       </c>
       <c r="AT61" s="3" t="s">
-        <v>1294</v>
+        <v>1138</v>
       </c>
       <c r="AU61" s="3" t="s">
-        <v>1295</v>
+        <v>1139</v>
       </c>
       <c r="AV61" s="3" t="s">
-        <v>1296</v>
+        <v>1140</v>
       </c>
       <c r="AW61" s="3" t="s">
-        <v>1297</v>
+        <v>1141</v>
       </c>
       <c r="AX61" s="3" t="s">
-        <v>1298</v>
+        <v>1142</v>
       </c>
       <c r="AY61" s="3" t="s">
-        <v>1299</v>
+        <v>1143</v>
       </c>
       <c r="AZ61" s="3" t="s">
-        <v>1300</v>
+        <v>1144</v>
       </c>
       <c r="BA61" s="3" t="s">
-        <v>1301</v>
+        <v>1145</v>
       </c>
       <c r="BB61" s="3" t="s">
-        <v>1302</v>
+        <v>1146</v>
       </c>
       <c r="BC61" s="3" t="s">
-        <v>1303</v>
+        <v>1147</v>
       </c>
       <c r="BD61" s="3" t="s">
-        <v>1304</v>
+        <v>1148</v>
       </c>
       <c r="BE61" s="3" t="s">
-        <v>1305</v>
+        <v>1149</v>
       </c>
       <c r="BF61" s="3" t="s">
-        <v>1306</v>
+        <v>1150</v>
       </c>
       <c r="BG61" s="3" t="s">
-        <v>1307</v>
+        <v>1151</v>
       </c>
       <c r="BH61" s="3" t="s">
-        <v>1308</v>
+        <v>1152</v>
       </c>
       <c r="BI61" s="3" t="s">
-        <v>1309</v>
+        <v>1153</v>
       </c>
       <c r="BJ61" s="3" t="s">
-        <v>1310</v>
+        <v>1154</v>
       </c>
       <c r="BK61" s="3" t="s">
-        <v>1311</v>
+        <v>1155</v>
       </c>
       <c r="BL61" s="3" t="s">
-        <v>1312</v>
+        <v>1156</v>
       </c>
       <c r="BM61" s="3" t="s">
-        <v>1313</v>
+        <v>1157</v>
       </c>
       <c r="BN61" s="3" t="s">
-        <v>1314</v>
+        <v>1158</v>
       </c>
       <c r="BO61" s="3" t="s">
-        <v>1315</v>
+        <v>1159</v>
       </c>
       <c r="BP61" s="3" t="s">
-        <v>1316</v>
+        <v>1160</v>
       </c>
       <c r="BQ61" s="3" t="s">
-        <v>1317</v>
+        <v>1161</v>
       </c>
       <c r="BR61" s="3" t="s">
-        <v>1318</v>
+        <v>1162</v>
       </c>
       <c r="BS61" s="3" t="s">
-        <v>1319</v>
+        <v>1163</v>
       </c>
       <c r="BT61" s="3" t="s">
-        <v>1320</v>
+        <v>1164</v>
       </c>
       <c r="BU61" s="3" t="s">
-        <v>1321</v>
+        <v>1165</v>
       </c>
       <c r="BV61" s="3" t="s">
-        <v>1322</v>
+        <v>1166</v>
       </c>
       <c r="BW61" s="3" t="s">
-        <v>1323</v>
+        <v>1167</v>
       </c>
       <c r="BX61" s="3" t="s">
-        <v>1324</v>
+        <v>1168</v>
       </c>
       <c r="BY61" s="3" t="s">
-        <v>1325</v>
+        <v>1169</v>
       </c>
       <c r="BZ61" s="3" t="s">
-        <v>1326</v>
+        <v>1170</v>
       </c>
       <c r="CA61" s="3" t="s">
-        <v>1327</v>
+        <v>1171</v>
       </c>
       <c r="CB61" s="3" t="s">
-        <v>1328</v>
+        <v>1172</v>
       </c>
       <c r="CC61" s="3" t="s">
-        <v>1329</v>
+        <v>1173</v>
       </c>
       <c r="CD61" s="3" t="s">
-        <v>1330</v>
+        <v>1174</v>
       </c>
       <c r="CE61" s="3" t="s">
-        <v>1331</v>
+        <v>1175</v>
       </c>
       <c r="CF61" s="3" t="s">
-        <v>1332</v>
+        <v>1176</v>
       </c>
       <c r="CG61" s="3" t="s">
-        <v>1333</v>
+        <v>1177</v>
       </c>
       <c r="CH61" s="3" t="s">
-        <v>1334</v>
+        <v>1178</v>
       </c>
       <c r="CI61" s="3" t="s">
-        <v>1335</v>
+        <v>1179</v>
       </c>
       <c r="CJ61" s="3" t="s">
-        <v>1336</v>
+        <v>1180</v>
       </c>
       <c r="CK61" s="3" t="s">
-        <v>1337</v>
+        <v>1181</v>
       </c>
       <c r="CL61" s="3" t="s">
-        <v>1338</v>
+        <v>1182</v>
       </c>
       <c r="CM61" s="3" t="s">
-        <v>1339</v>
+        <v>1183</v>
       </c>
       <c r="CN61" s="3" t="s">
-        <v>1340</v>
+        <v>1184</v>
       </c>
       <c r="CO61" s="3" t="s">
-        <v>1341</v>
+        <v>1185</v>
       </c>
       <c r="CP61" s="3" t="s">
-        <v>1342</v>
+        <v>1186</v>
       </c>
       <c r="CQ61" s="3" t="s">
-        <v>1343</v>
+        <v>1187</v>
       </c>
       <c r="CR61" s="3" t="s">
-        <v>1344</v>
+        <v>1188</v>
       </c>
       <c r="CS61" s="3" t="s">
-        <v>1345</v>
+        <v>1189</v>
       </c>
       <c r="CT61" s="3" t="s">
-        <v>1346</v>
+        <v>1190</v>
       </c>
       <c r="CU61" s="3" t="s">
-        <v>1347</v>
+        <v>1191</v>
       </c>
       <c r="CV61" s="3" t="s">
-        <v>1348</v>
+        <v>1192</v>
       </c>
       <c r="CW61" s="3" t="s">
-        <v>1349</v>
+        <v>1193</v>
       </c>
       <c r="CX61" s="3" t="s">
-        <v>1350</v>
+        <v>1194</v>
       </c>
       <c r="CY61" s="3" t="s">
-        <v>1351</v>
+        <v>1195</v>
       </c>
       <c r="CZ61" s="3" t="s">
-        <v>1352</v>
+        <v>1196</v>
       </c>
       <c r="DA61" s="3" t="s">
-        <v>1353</v>
+        <v>1197</v>
       </c>
       <c r="DB61" s="3" t="s">
-        <v>1354</v>
+        <v>1198</v>
       </c>
       <c r="DC61" s="3" t="s">
-        <v>1355</v>
+        <v>1199</v>
       </c>
       <c r="DD61" s="3" t="s">
-        <v>1356</v>
+        <v>1200</v>
       </c>
       <c r="DE61" s="3" t="s">
-        <v>1357</v>
+        <v>1201</v>
       </c>
       <c r="DF61" s="3" t="s">
-        <v>1358</v>
+        <v>1202</v>
       </c>
       <c r="DG61" s="3" t="s">
-        <v>1359</v>
+        <v>1203</v>
       </c>
       <c r="DH61" s="3" t="s">
-        <v>1360</v>
+        <v>1204</v>
       </c>
       <c r="DI61" s="3" t="s">
-        <v>1361</v>
+        <v>1205</v>
       </c>
       <c r="DJ61" s="3" t="s">
-        <v>1362</v>
+        <v>1206</v>
       </c>
       <c r="DK61" s="3" t="s">
-        <v>1363</v>
+        <v>1207</v>
       </c>
       <c r="DL61" s="3" t="s">
-        <v>1364</v>
+        <v>1208</v>
       </c>
       <c r="DM61" s="3" t="s">
-        <v>1365</v>
+        <v>1209</v>
       </c>
       <c r="DN61" s="3" t="s">
-        <v>1366</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="62" spans="1:118">
@@ -27710,13 +27242,13 @@
         <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>1367</v>
+        <v>1211</v>
       </c>
       <c r="C62" t="s">
         <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E62" t="s">
         <v>148</v>
@@ -27740,16 +27272,16 @@
         <v>148</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>1194</v>
+        <v>1038</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>1195</v>
+        <v>1039</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>1196</v>
+        <v>1040</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>1197</v>
+        <v>1041</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>148</v>
@@ -27809,256 +27341,256 @@
         <v>149</v>
       </c>
       <c r="AI62" s="3" t="s">
-        <v>1368</v>
+        <v>1212</v>
       </c>
       <c r="AJ62" s="3" t="s">
-        <v>1369</v>
+        <v>1213</v>
       </c>
       <c r="AK62" s="3" t="s">
-        <v>1370</v>
+        <v>1214</v>
       </c>
       <c r="AL62" s="3" t="s">
-        <v>1371</v>
+        <v>1215</v>
       </c>
       <c r="AM62" s="3" t="s">
-        <v>1372</v>
+        <v>1216</v>
       </c>
       <c r="AN62" s="3" t="s">
-        <v>1373</v>
+        <v>1217</v>
       </c>
       <c r="AO62" s="3" t="s">
-        <v>1374</v>
+        <v>1218</v>
       </c>
       <c r="AP62" s="3" t="s">
-        <v>1375</v>
+        <v>1219</v>
       </c>
       <c r="AQ62" s="3" t="s">
-        <v>1376</v>
+        <v>1220</v>
       </c>
       <c r="AR62" s="3" t="s">
-        <v>1377</v>
+        <v>1221</v>
       </c>
       <c r="AS62" s="3" t="s">
-        <v>1378</v>
+        <v>1222</v>
       </c>
       <c r="AT62" s="3" t="s">
-        <v>1379</v>
+        <v>1223</v>
       </c>
       <c r="AU62" s="3" t="s">
-        <v>1380</v>
+        <v>1224</v>
       </c>
       <c r="AV62" s="3" t="s">
-        <v>1381</v>
+        <v>1225</v>
       </c>
       <c r="AW62" s="3" t="s">
-        <v>1382</v>
+        <v>1226</v>
       </c>
       <c r="AX62" s="3" t="s">
-        <v>1383</v>
+        <v>1227</v>
       </c>
       <c r="AY62" s="3" t="s">
-        <v>1384</v>
+        <v>1228</v>
       </c>
       <c r="AZ62" s="3" t="s">
-        <v>1385</v>
+        <v>1229</v>
       </c>
       <c r="BA62" s="3" t="s">
-        <v>1386</v>
+        <v>1230</v>
       </c>
       <c r="BB62" s="3" t="s">
-        <v>1387</v>
+        <v>1231</v>
       </c>
       <c r="BC62" s="3" t="s">
-        <v>1388</v>
+        <v>1232</v>
       </c>
       <c r="BD62" s="3" t="s">
-        <v>1389</v>
+        <v>1233</v>
       </c>
       <c r="BE62" s="3" t="s">
-        <v>1390</v>
+        <v>1234</v>
       </c>
       <c r="BF62" s="3" t="s">
-        <v>1391</v>
+        <v>1235</v>
       </c>
       <c r="BG62" s="3" t="s">
-        <v>1392</v>
+        <v>1236</v>
       </c>
       <c r="BH62" s="3" t="s">
-        <v>1393</v>
+        <v>1237</v>
       </c>
       <c r="BI62" s="3" t="s">
-        <v>1394</v>
+        <v>1238</v>
       </c>
       <c r="BJ62" s="3" t="s">
-        <v>1395</v>
+        <v>1239</v>
       </c>
       <c r="BK62" s="3" t="s">
-        <v>1396</v>
+        <v>1240</v>
       </c>
       <c r="BL62" s="3" t="s">
-        <v>1397</v>
+        <v>1241</v>
       </c>
       <c r="BM62" s="3" t="s">
-        <v>1398</v>
+        <v>1242</v>
       </c>
       <c r="BN62" s="3" t="s">
-        <v>1399</v>
+        <v>1243</v>
       </c>
       <c r="BO62" s="3" t="s">
-        <v>1400</v>
+        <v>1244</v>
       </c>
       <c r="BP62" s="3" t="s">
-        <v>1401</v>
+        <v>1245</v>
       </c>
       <c r="BQ62" s="3" t="s">
-        <v>1402</v>
+        <v>1246</v>
       </c>
       <c r="BR62" s="3" t="s">
-        <v>1403</v>
+        <v>1247</v>
       </c>
       <c r="BS62" s="3" t="s">
-        <v>1404</v>
+        <v>1248</v>
       </c>
       <c r="BT62" s="3" t="s">
-        <v>1405</v>
+        <v>1249</v>
       </c>
       <c r="BU62" s="3" t="s">
-        <v>1406</v>
+        <v>1250</v>
       </c>
       <c r="BV62" s="3" t="s">
-        <v>1407</v>
+        <v>1251</v>
       </c>
       <c r="BW62" s="3" t="s">
-        <v>1408</v>
+        <v>1252</v>
       </c>
       <c r="BX62" s="3" t="s">
-        <v>1409</v>
+        <v>1253</v>
       </c>
       <c r="BY62" s="3" t="s">
-        <v>1410</v>
+        <v>1254</v>
       </c>
       <c r="BZ62" s="3" t="s">
-        <v>1411</v>
+        <v>1255</v>
       </c>
       <c r="CA62" s="3" t="s">
-        <v>1412</v>
+        <v>1256</v>
       </c>
       <c r="CB62" s="3" t="s">
-        <v>1413</v>
+        <v>1257</v>
       </c>
       <c r="CC62" s="3" t="s">
-        <v>1414</v>
+        <v>1258</v>
       </c>
       <c r="CD62" s="3" t="s">
-        <v>1415</v>
+        <v>1259</v>
       </c>
       <c r="CE62" s="3" t="s">
-        <v>1416</v>
+        <v>1260</v>
       </c>
       <c r="CF62" s="3" t="s">
-        <v>1417</v>
+        <v>1261</v>
       </c>
       <c r="CG62" s="3" t="s">
-        <v>1418</v>
+        <v>1262</v>
       </c>
       <c r="CH62" s="3" t="s">
-        <v>1419</v>
+        <v>1263</v>
       </c>
       <c r="CI62" s="3" t="s">
-        <v>1420</v>
+        <v>1264</v>
       </c>
       <c r="CJ62" s="3" t="s">
-        <v>1421</v>
+        <v>1265</v>
       </c>
       <c r="CK62" s="3" t="s">
-        <v>1422</v>
+        <v>1266</v>
       </c>
       <c r="CL62" s="3" t="s">
-        <v>1423</v>
+        <v>1267</v>
       </c>
       <c r="CM62" s="3" t="s">
-        <v>1424</v>
+        <v>1268</v>
       </c>
       <c r="CN62" s="3" t="s">
-        <v>1425</v>
+        <v>1269</v>
       </c>
       <c r="CO62" s="3" t="s">
-        <v>1426</v>
+        <v>1270</v>
       </c>
       <c r="CP62" s="3" t="s">
-        <v>1427</v>
+        <v>1271</v>
       </c>
       <c r="CQ62" s="3" t="s">
-        <v>1428</v>
+        <v>1272</v>
       </c>
       <c r="CR62" s="3" t="s">
-        <v>1429</v>
+        <v>1273</v>
       </c>
       <c r="CS62" s="3" t="s">
-        <v>1430</v>
+        <v>1274</v>
       </c>
       <c r="CT62" s="3" t="s">
-        <v>1431</v>
+        <v>1275</v>
       </c>
       <c r="CU62" s="3" t="s">
-        <v>1432</v>
+        <v>1276</v>
       </c>
       <c r="CV62" s="3" t="s">
-        <v>1433</v>
+        <v>1277</v>
       </c>
       <c r="CW62" s="3" t="s">
-        <v>1434</v>
+        <v>1278</v>
       </c>
       <c r="CX62" s="3" t="s">
-        <v>1435</v>
+        <v>1279</v>
       </c>
       <c r="CY62" s="3" t="s">
-        <v>1436</v>
+        <v>1280</v>
       </c>
       <c r="CZ62" s="3" t="s">
-        <v>1437</v>
+        <v>1281</v>
       </c>
       <c r="DA62" s="3" t="s">
-        <v>1438</v>
+        <v>1282</v>
       </c>
       <c r="DB62" s="3" t="s">
-        <v>1439</v>
+        <v>1283</v>
       </c>
       <c r="DC62" s="3" t="s">
-        <v>1440</v>
+        <v>1284</v>
       </c>
       <c r="DD62" s="3" t="s">
-        <v>1441</v>
+        <v>1285</v>
       </c>
       <c r="DE62" s="3" t="s">
-        <v>1442</v>
+        <v>1286</v>
       </c>
       <c r="DF62" s="3" t="s">
-        <v>1443</v>
+        <v>1287</v>
       </c>
       <c r="DG62" s="3" t="s">
-        <v>1444</v>
+        <v>1288</v>
       </c>
       <c r="DH62" s="3" t="s">
-        <v>1445</v>
+        <v>1289</v>
       </c>
       <c r="DI62" s="3" t="s">
-        <v>1446</v>
+        <v>1290</v>
       </c>
       <c r="DJ62" s="3" t="s">
-        <v>1447</v>
+        <v>1291</v>
       </c>
       <c r="DK62" s="3" t="s">
-        <v>1448</v>
+        <v>1292</v>
       </c>
       <c r="DL62" s="3" t="s">
-        <v>1449</v>
+        <v>1293</v>
       </c>
       <c r="DM62" s="3" t="s">
-        <v>1450</v>
+        <v>1294</v>
       </c>
       <c r="DN62" s="3" t="s">
-        <v>1451</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="63" spans="1:118">
@@ -28066,13 +27598,13 @@
         <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>1452</v>
+        <v>1296</v>
       </c>
       <c r="C63" t="s">
         <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E63" t="s">
         <v>148</v>
@@ -28096,25 +27628,25 @@
         <v>148</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>1453</v>
+        <v>1297</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>1454</v>
+        <v>1298</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>1455</v>
+        <v>1299</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>1456</v>
+        <v>1300</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>1457</v>
+        <v>1301</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>1458</v>
+        <v>1302</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>1459</v>
+        <v>1303</v>
       </c>
       <c r="S63" s="3" t="s">
         <v>148</v>
@@ -28165,256 +27697,256 @@
         <v>149</v>
       </c>
       <c r="AI63" s="3" t="s">
-        <v>1460</v>
+        <v>1304</v>
       </c>
       <c r="AJ63" s="3" t="s">
-        <v>1461</v>
+        <v>1305</v>
       </c>
       <c r="AK63" s="3" t="s">
-        <v>1462</v>
+        <v>1306</v>
       </c>
       <c r="AL63" s="3" t="s">
-        <v>1463</v>
+        <v>1307</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>1464</v>
+        <v>1308</v>
       </c>
       <c r="AN63" s="3" t="s">
-        <v>1465</v>
+        <v>1309</v>
       </c>
       <c r="AO63" s="3" t="s">
-        <v>1466</v>
+        <v>1310</v>
       </c>
       <c r="AP63" s="3" t="s">
-        <v>1467</v>
+        <v>1311</v>
       </c>
       <c r="AQ63" s="3" t="s">
-        <v>1468</v>
+        <v>1312</v>
       </c>
       <c r="AR63" s="3" t="s">
-        <v>1469</v>
+        <v>1313</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>1470</v>
+        <v>1314</v>
       </c>
       <c r="AT63" s="3" t="s">
-        <v>1471</v>
+        <v>1315</v>
       </c>
       <c r="AU63" s="3" t="s">
-        <v>1472</v>
+        <v>1316</v>
       </c>
       <c r="AV63" s="3" t="s">
-        <v>1473</v>
+        <v>1317</v>
       </c>
       <c r="AW63" s="3" t="s">
-        <v>1474</v>
+        <v>1318</v>
       </c>
       <c r="AX63" s="3" t="s">
-        <v>1475</v>
+        <v>1319</v>
       </c>
       <c r="AY63" s="3" t="s">
-        <v>1476</v>
+        <v>1320</v>
       </c>
       <c r="AZ63" s="3" t="s">
-        <v>1477</v>
+        <v>1321</v>
       </c>
       <c r="BA63" s="3" t="s">
-        <v>1478</v>
+        <v>1322</v>
       </c>
       <c r="BB63" s="3" t="s">
-        <v>1479</v>
+        <v>1323</v>
       </c>
       <c r="BC63" s="3" t="s">
-        <v>1480</v>
+        <v>1324</v>
       </c>
       <c r="BD63" s="3" t="s">
-        <v>1481</v>
+        <v>1325</v>
       </c>
       <c r="BE63" s="3" t="s">
-        <v>1482</v>
+        <v>1326</v>
       </c>
       <c r="BF63" s="3" t="s">
-        <v>1483</v>
+        <v>1327</v>
       </c>
       <c r="BG63" s="3" t="s">
-        <v>1484</v>
+        <v>1328</v>
       </c>
       <c r="BH63" s="3" t="s">
-        <v>1485</v>
+        <v>1329</v>
       </c>
       <c r="BI63" s="3" t="s">
-        <v>1486</v>
+        <v>1330</v>
       </c>
       <c r="BJ63" s="3" t="s">
-        <v>1487</v>
+        <v>1331</v>
       </c>
       <c r="BK63" s="3" t="s">
-        <v>1488</v>
+        <v>1332</v>
       </c>
       <c r="BL63" s="3" t="s">
-        <v>1489</v>
+        <v>1333</v>
       </c>
       <c r="BM63" s="3" t="s">
-        <v>1490</v>
+        <v>1334</v>
       </c>
       <c r="BN63" s="3" t="s">
-        <v>1491</v>
+        <v>1335</v>
       </c>
       <c r="BO63" s="3" t="s">
-        <v>1492</v>
+        <v>1336</v>
       </c>
       <c r="BP63" s="3" t="s">
-        <v>1493</v>
+        <v>1337</v>
       </c>
       <c r="BQ63" s="3" t="s">
-        <v>1494</v>
+        <v>1338</v>
       </c>
       <c r="BR63" s="3" t="s">
-        <v>1495</v>
+        <v>1339</v>
       </c>
       <c r="BS63" s="3" t="s">
-        <v>1496</v>
+        <v>1340</v>
       </c>
       <c r="BT63" s="3" t="s">
-        <v>1497</v>
+        <v>1341</v>
       </c>
       <c r="BU63" s="3" t="s">
-        <v>1498</v>
+        <v>1342</v>
       </c>
       <c r="BV63" s="3" t="s">
-        <v>1499</v>
+        <v>1343</v>
       </c>
       <c r="BW63" s="3" t="s">
-        <v>1500</v>
+        <v>1344</v>
       </c>
       <c r="BX63" s="3" t="s">
-        <v>1501</v>
+        <v>1345</v>
       </c>
       <c r="BY63" s="3" t="s">
-        <v>1502</v>
+        <v>1346</v>
       </c>
       <c r="BZ63" s="3" t="s">
-        <v>1503</v>
+        <v>1347</v>
       </c>
       <c r="CA63" s="3" t="s">
-        <v>1504</v>
+        <v>1348</v>
       </c>
       <c r="CB63" s="3" t="s">
-        <v>1505</v>
+        <v>1349</v>
       </c>
       <c r="CC63" s="3" t="s">
-        <v>1506</v>
+        <v>1350</v>
       </c>
       <c r="CD63" s="3" t="s">
-        <v>1507</v>
+        <v>1351</v>
       </c>
       <c r="CE63" s="3" t="s">
-        <v>1508</v>
+        <v>1352</v>
       </c>
       <c r="CF63" s="3" t="s">
-        <v>1509</v>
+        <v>1353</v>
       </c>
       <c r="CG63" s="3" t="s">
-        <v>1510</v>
+        <v>1354</v>
       </c>
       <c r="CH63" s="3" t="s">
-        <v>1511</v>
+        <v>1355</v>
       </c>
       <c r="CI63" s="3" t="s">
-        <v>1512</v>
+        <v>1356</v>
       </c>
       <c r="CJ63" s="3" t="s">
-        <v>1513</v>
+        <v>1357</v>
       </c>
       <c r="CK63" s="3" t="s">
-        <v>1514</v>
+        <v>1358</v>
       </c>
       <c r="CL63" s="3" t="s">
-        <v>1515</v>
+        <v>1359</v>
       </c>
       <c r="CM63" s="3" t="s">
-        <v>1516</v>
+        <v>1360</v>
       </c>
       <c r="CN63" s="3" t="s">
-        <v>1517</v>
+        <v>1361</v>
       </c>
       <c r="CO63" s="3" t="s">
-        <v>1518</v>
+        <v>1362</v>
       </c>
       <c r="CP63" s="3" t="s">
-        <v>1519</v>
+        <v>1363</v>
       </c>
       <c r="CQ63" s="3" t="s">
-        <v>1520</v>
+        <v>1364</v>
       </c>
       <c r="CR63" s="3" t="s">
-        <v>1521</v>
+        <v>1365</v>
       </c>
       <c r="CS63" s="3" t="s">
-        <v>1522</v>
+        <v>1366</v>
       </c>
       <c r="CT63" s="3" t="s">
-        <v>1523</v>
+        <v>1367</v>
       </c>
       <c r="CU63" s="3" t="s">
-        <v>1524</v>
+        <v>1368</v>
       </c>
       <c r="CV63" s="3" t="s">
-        <v>1525</v>
+        <v>1369</v>
       </c>
       <c r="CW63" s="3" t="s">
-        <v>1526</v>
+        <v>1370</v>
       </c>
       <c r="CX63" s="3" t="s">
-        <v>1527</v>
+        <v>1371</v>
       </c>
       <c r="CY63" s="3" t="s">
-        <v>1528</v>
+        <v>1372</v>
       </c>
       <c r="CZ63" s="3" t="s">
-        <v>1529</v>
+        <v>1373</v>
       </c>
       <c r="DA63" s="3" t="s">
-        <v>1530</v>
+        <v>1374</v>
       </c>
       <c r="DB63" s="3" t="s">
-        <v>1531</v>
+        <v>1375</v>
       </c>
       <c r="DC63" s="3" t="s">
-        <v>1532</v>
+        <v>1376</v>
       </c>
       <c r="DD63" s="3" t="s">
-        <v>1533</v>
+        <v>1377</v>
       </c>
       <c r="DE63" s="3" t="s">
-        <v>1534</v>
+        <v>1378</v>
       </c>
       <c r="DF63" s="3" t="s">
-        <v>1535</v>
+        <v>1379</v>
       </c>
       <c r="DG63" s="3" t="s">
-        <v>1536</v>
+        <v>1380</v>
       </c>
       <c r="DH63" s="3" t="s">
-        <v>1537</v>
+        <v>1381</v>
       </c>
       <c r="DI63" s="3" t="s">
-        <v>1538</v>
+        <v>1382</v>
       </c>
       <c r="DJ63" s="3" t="s">
-        <v>1539</v>
+        <v>1383</v>
       </c>
       <c r="DK63" s="3" t="s">
-        <v>1540</v>
+        <v>1384</v>
       </c>
       <c r="DL63" s="3" t="s">
-        <v>1541</v>
+        <v>1385</v>
       </c>
       <c r="DM63" s="3" t="s">
-        <v>1542</v>
+        <v>1386</v>
       </c>
       <c r="DN63" s="3" t="s">
-        <v>1543</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="64" spans="1:118">
@@ -28422,13 +27954,13 @@
         <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>1544</v>
+        <v>1388</v>
       </c>
       <c r="C64" t="s">
         <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E64" t="s">
         <v>148</v>
@@ -28452,25 +27984,25 @@
         <v>148</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>1547</v>
+        <v>1391</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>1548</v>
+        <v>1392</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>1549</v>
+        <v>1393</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>1550</v>
+        <v>1394</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S64" s="3" t="s">
         <v>148</v>
@@ -28521,256 +28053,256 @@
         <v>149</v>
       </c>
       <c r="AI64" s="3" t="s">
-        <v>1552</v>
+        <v>1396</v>
       </c>
       <c r="AJ64" s="3" t="s">
-        <v>1553</v>
+        <v>1397</v>
       </c>
       <c r="AK64" s="3" t="s">
-        <v>1554</v>
+        <v>1398</v>
       </c>
       <c r="AL64" s="3" t="s">
-        <v>1555</v>
+        <v>1399</v>
       </c>
       <c r="AM64" s="3" t="s">
-        <v>1556</v>
+        <v>1400</v>
       </c>
       <c r="AN64" s="3" t="s">
-        <v>1557</v>
+        <v>1401</v>
       </c>
       <c r="AO64" s="3" t="s">
-        <v>1558</v>
+        <v>1402</v>
       </c>
       <c r="AP64" s="3" t="s">
-        <v>1559</v>
+        <v>1403</v>
       </c>
       <c r="AQ64" s="3" t="s">
-        <v>1560</v>
+        <v>1404</v>
       </c>
       <c r="AR64" s="3" t="s">
-        <v>1561</v>
+        <v>1405</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>1562</v>
+        <v>1406</v>
       </c>
       <c r="AT64" s="3" t="s">
-        <v>1563</v>
+        <v>1407</v>
       </c>
       <c r="AU64" s="3" t="s">
-        <v>1564</v>
+        <v>1408</v>
       </c>
       <c r="AV64" s="3" t="s">
-        <v>1565</v>
+        <v>1409</v>
       </c>
       <c r="AW64" s="3" t="s">
-        <v>1566</v>
+        <v>1410</v>
       </c>
       <c r="AX64" s="3" t="s">
-        <v>1567</v>
+        <v>1411</v>
       </c>
       <c r="AY64" s="3" t="s">
-        <v>1568</v>
+        <v>1412</v>
       </c>
       <c r="AZ64" s="3" t="s">
-        <v>1569</v>
+        <v>1413</v>
       </c>
       <c r="BA64" s="3" t="s">
-        <v>1570</v>
+        <v>1414</v>
       </c>
       <c r="BB64" s="3" t="s">
-        <v>1571</v>
+        <v>1415</v>
       </c>
       <c r="BC64" s="3" t="s">
-        <v>1572</v>
+        <v>1416</v>
       </c>
       <c r="BD64" s="3" t="s">
-        <v>1573</v>
+        <v>1417</v>
       </c>
       <c r="BE64" s="3" t="s">
-        <v>1574</v>
+        <v>1418</v>
       </c>
       <c r="BF64" s="3" t="s">
-        <v>1575</v>
+        <v>1419</v>
       </c>
       <c r="BG64" s="3" t="s">
-        <v>1576</v>
+        <v>1420</v>
       </c>
       <c r="BH64" s="3" t="s">
-        <v>1577</v>
+        <v>1421</v>
       </c>
       <c r="BI64" s="3" t="s">
-        <v>1578</v>
+        <v>1422</v>
       </c>
       <c r="BJ64" s="3" t="s">
-        <v>1579</v>
+        <v>1423</v>
       </c>
       <c r="BK64" s="3" t="s">
-        <v>1580</v>
+        <v>1424</v>
       </c>
       <c r="BL64" s="3" t="s">
-        <v>1581</v>
+        <v>1425</v>
       </c>
       <c r="BM64" s="3" t="s">
-        <v>1582</v>
+        <v>1426</v>
       </c>
       <c r="BN64" s="3" t="s">
-        <v>1583</v>
+        <v>1427</v>
       </c>
       <c r="BO64" s="3" t="s">
-        <v>1584</v>
+        <v>1428</v>
       </c>
       <c r="BP64" s="3" t="s">
-        <v>1585</v>
+        <v>1429</v>
       </c>
       <c r="BQ64" s="3" t="s">
-        <v>1586</v>
+        <v>1430</v>
       </c>
       <c r="BR64" s="3" t="s">
-        <v>1587</v>
+        <v>1431</v>
       </c>
       <c r="BS64" s="3" t="s">
-        <v>1588</v>
+        <v>1432</v>
       </c>
       <c r="BT64" s="3" t="s">
-        <v>1589</v>
+        <v>1433</v>
       </c>
       <c r="BU64" s="3" t="s">
-        <v>1590</v>
+        <v>1434</v>
       </c>
       <c r="BV64" s="3" t="s">
-        <v>1591</v>
+        <v>1435</v>
       </c>
       <c r="BW64" s="3" t="s">
-        <v>1592</v>
+        <v>1436</v>
       </c>
       <c r="BX64" s="3" t="s">
-        <v>1593</v>
+        <v>1437</v>
       </c>
       <c r="BY64" s="3" t="s">
-        <v>1594</v>
+        <v>1438</v>
       </c>
       <c r="BZ64" s="3" t="s">
-        <v>1595</v>
+        <v>1439</v>
       </c>
       <c r="CA64" s="3" t="s">
-        <v>1596</v>
+        <v>1440</v>
       </c>
       <c r="CB64" s="3" t="s">
-        <v>1597</v>
+        <v>1441</v>
       </c>
       <c r="CC64" s="3" t="s">
-        <v>1598</v>
+        <v>1442</v>
       </c>
       <c r="CD64" s="3" t="s">
-        <v>1599</v>
+        <v>1443</v>
       </c>
       <c r="CE64" s="3" t="s">
-        <v>1600</v>
+        <v>1444</v>
       </c>
       <c r="CF64" s="3" t="s">
-        <v>1601</v>
+        <v>1445</v>
       </c>
       <c r="CG64" s="3" t="s">
-        <v>1602</v>
+        <v>1446</v>
       </c>
       <c r="CH64" s="3" t="s">
-        <v>1603</v>
+        <v>1447</v>
       </c>
       <c r="CI64" s="3" t="s">
-        <v>1604</v>
+        <v>1448</v>
       </c>
       <c r="CJ64" s="3" t="s">
-        <v>1605</v>
+        <v>1449</v>
       </c>
       <c r="CK64" s="3" t="s">
-        <v>1606</v>
+        <v>1450</v>
       </c>
       <c r="CL64" s="3" t="s">
-        <v>1607</v>
+        <v>1451</v>
       </c>
       <c r="CM64" s="3" t="s">
-        <v>1608</v>
+        <v>1452</v>
       </c>
       <c r="CN64" s="3" t="s">
-        <v>1609</v>
+        <v>1453</v>
       </c>
       <c r="CO64" s="3" t="s">
-        <v>1610</v>
+        <v>1454</v>
       </c>
       <c r="CP64" s="3" t="s">
-        <v>1611</v>
+        <v>1455</v>
       </c>
       <c r="CQ64" s="3" t="s">
-        <v>1612</v>
+        <v>1456</v>
       </c>
       <c r="CR64" s="3" t="s">
-        <v>1613</v>
+        <v>1457</v>
       </c>
       <c r="CS64" s="3" t="s">
-        <v>1614</v>
+        <v>1458</v>
       </c>
       <c r="CT64" s="3" t="s">
-        <v>1615</v>
+        <v>1459</v>
       </c>
       <c r="CU64" s="3" t="s">
-        <v>1616</v>
+        <v>1460</v>
       </c>
       <c r="CV64" s="3" t="s">
-        <v>1617</v>
+        <v>1461</v>
       </c>
       <c r="CW64" s="3" t="s">
-        <v>1618</v>
+        <v>1462</v>
       </c>
       <c r="CX64" s="3" t="s">
-        <v>1619</v>
+        <v>1463</v>
       </c>
       <c r="CY64" s="3" t="s">
-        <v>1620</v>
+        <v>1464</v>
       </c>
       <c r="CZ64" s="3" t="s">
-        <v>1621</v>
+        <v>1465</v>
       </c>
       <c r="DA64" s="3" t="s">
-        <v>1622</v>
+        <v>1466</v>
       </c>
       <c r="DB64" s="3" t="s">
-        <v>1623</v>
+        <v>1467</v>
       </c>
       <c r="DC64" s="3" t="s">
-        <v>1624</v>
+        <v>1468</v>
       </c>
       <c r="DD64" s="3" t="s">
-        <v>1625</v>
+        <v>1469</v>
       </c>
       <c r="DE64" s="3" t="s">
-        <v>1626</v>
+        <v>1470</v>
       </c>
       <c r="DF64" s="3" t="s">
-        <v>1627</v>
+        <v>1471</v>
       </c>
       <c r="DG64" s="3" t="s">
-        <v>1628</v>
+        <v>1472</v>
       </c>
       <c r="DH64" s="3" t="s">
-        <v>1629</v>
+        <v>1473</v>
       </c>
       <c r="DI64" s="3" t="s">
-        <v>1630</v>
+        <v>1474</v>
       </c>
       <c r="DJ64" s="3" t="s">
-        <v>1631</v>
+        <v>1475</v>
       </c>
       <c r="DK64" s="3" t="s">
-        <v>1632</v>
+        <v>1476</v>
       </c>
       <c r="DL64" s="3" t="s">
-        <v>1633</v>
+        <v>1477</v>
       </c>
       <c r="DM64" s="3" t="s">
-        <v>1634</v>
+        <v>1478</v>
       </c>
       <c r="DN64" s="3" t="s">
-        <v>1635</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="65" spans="1:118">
@@ -28778,13 +28310,13 @@
         <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>1636</v>
+        <v>1480</v>
       </c>
       <c r="C65" t="s">
         <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E65" t="s">
         <v>148</v>
@@ -28808,25 +28340,25 @@
         <v>148</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>1547</v>
+        <v>1391</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>1548</v>
+        <v>1392</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>1549</v>
+        <v>1393</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>1550</v>
+        <v>1394</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S65" s="3" t="s">
         <v>148</v>
@@ -28877,256 +28409,256 @@
         <v>149</v>
       </c>
       <c r="AI65" s="3" t="s">
-        <v>1637</v>
+        <v>1481</v>
       </c>
       <c r="AJ65" s="3" t="s">
-        <v>1638</v>
+        <v>1482</v>
       </c>
       <c r="AK65" s="3" t="s">
-        <v>1639</v>
+        <v>1483</v>
       </c>
       <c r="AL65" s="3" t="s">
-        <v>1640</v>
+        <v>1484</v>
       </c>
       <c r="AM65" s="3" t="s">
-        <v>1641</v>
+        <v>1485</v>
       </c>
       <c r="AN65" s="3" t="s">
-        <v>1642</v>
+        <v>1486</v>
       </c>
       <c r="AO65" s="3" t="s">
-        <v>1643</v>
+        <v>1487</v>
       </c>
       <c r="AP65" s="3" t="s">
-        <v>1644</v>
+        <v>1488</v>
       </c>
       <c r="AQ65" s="3" t="s">
-        <v>1645</v>
+        <v>1489</v>
       </c>
       <c r="AR65" s="3" t="s">
-        <v>1646</v>
+        <v>1490</v>
       </c>
       <c r="AS65" s="3" t="s">
-        <v>1647</v>
+        <v>1491</v>
       </c>
       <c r="AT65" s="3" t="s">
-        <v>1648</v>
+        <v>1492</v>
       </c>
       <c r="AU65" s="3" t="s">
-        <v>1649</v>
+        <v>1493</v>
       </c>
       <c r="AV65" s="3" t="s">
-        <v>1650</v>
+        <v>1494</v>
       </c>
       <c r="AW65" s="3" t="s">
-        <v>1651</v>
+        <v>1495</v>
       </c>
       <c r="AX65" s="3" t="s">
-        <v>1652</v>
+        <v>1496</v>
       </c>
       <c r="AY65" s="3" t="s">
-        <v>1653</v>
+        <v>1497</v>
       </c>
       <c r="AZ65" s="3" t="s">
-        <v>1654</v>
+        <v>1498</v>
       </c>
       <c r="BA65" s="3" t="s">
-        <v>1655</v>
+        <v>1499</v>
       </c>
       <c r="BB65" s="3" t="s">
-        <v>1656</v>
+        <v>1500</v>
       </c>
       <c r="BC65" s="3" t="s">
-        <v>1657</v>
+        <v>1501</v>
       </c>
       <c r="BD65" s="3" t="s">
-        <v>1658</v>
+        <v>1502</v>
       </c>
       <c r="BE65" s="3" t="s">
-        <v>1659</v>
+        <v>1503</v>
       </c>
       <c r="BF65" s="3" t="s">
-        <v>1660</v>
+        <v>1504</v>
       </c>
       <c r="BG65" s="3" t="s">
-        <v>1661</v>
+        <v>1505</v>
       </c>
       <c r="BH65" s="3" t="s">
-        <v>1662</v>
+        <v>1506</v>
       </c>
       <c r="BI65" s="3" t="s">
-        <v>1663</v>
+        <v>1507</v>
       </c>
       <c r="BJ65" s="3" t="s">
-        <v>1664</v>
+        <v>1508</v>
       </c>
       <c r="BK65" s="3" t="s">
-        <v>1665</v>
+        <v>1509</v>
       </c>
       <c r="BL65" s="3" t="s">
-        <v>1666</v>
+        <v>1510</v>
       </c>
       <c r="BM65" s="3" t="s">
-        <v>1667</v>
+        <v>1511</v>
       </c>
       <c r="BN65" s="3" t="s">
-        <v>1668</v>
+        <v>1512</v>
       </c>
       <c r="BO65" s="3" t="s">
-        <v>1669</v>
+        <v>1513</v>
       </c>
       <c r="BP65" s="3" t="s">
-        <v>1670</v>
+        <v>1514</v>
       </c>
       <c r="BQ65" s="3" t="s">
-        <v>1671</v>
+        <v>1515</v>
       </c>
       <c r="BR65" s="3" t="s">
-        <v>1672</v>
+        <v>1516</v>
       </c>
       <c r="BS65" s="3" t="s">
-        <v>1673</v>
+        <v>1517</v>
       </c>
       <c r="BT65" s="3" t="s">
-        <v>1674</v>
+        <v>1518</v>
       </c>
       <c r="BU65" s="3" t="s">
-        <v>1675</v>
+        <v>1519</v>
       </c>
       <c r="BV65" s="3" t="s">
-        <v>1676</v>
+        <v>1520</v>
       </c>
       <c r="BW65" s="3" t="s">
-        <v>1677</v>
+        <v>1521</v>
       </c>
       <c r="BX65" s="3" t="s">
-        <v>1678</v>
+        <v>1522</v>
       </c>
       <c r="BY65" s="3" t="s">
-        <v>1679</v>
+        <v>1523</v>
       </c>
       <c r="BZ65" s="3" t="s">
-        <v>1680</v>
+        <v>1524</v>
       </c>
       <c r="CA65" s="3" t="s">
-        <v>1681</v>
+        <v>1525</v>
       </c>
       <c r="CB65" s="3" t="s">
-        <v>1682</v>
+        <v>1526</v>
       </c>
       <c r="CC65" s="3" t="s">
-        <v>1683</v>
+        <v>1527</v>
       </c>
       <c r="CD65" s="3" t="s">
-        <v>1684</v>
+        <v>1528</v>
       </c>
       <c r="CE65" s="3" t="s">
-        <v>1685</v>
+        <v>1529</v>
       </c>
       <c r="CF65" s="3" t="s">
-        <v>1686</v>
+        <v>1530</v>
       </c>
       <c r="CG65" s="3" t="s">
-        <v>1687</v>
+        <v>1531</v>
       </c>
       <c r="CH65" s="3" t="s">
-        <v>1688</v>
+        <v>1532</v>
       </c>
       <c r="CI65" s="3" t="s">
-        <v>1689</v>
+        <v>1533</v>
       </c>
       <c r="CJ65" s="3" t="s">
-        <v>1690</v>
+        <v>1534</v>
       </c>
       <c r="CK65" s="3" t="s">
-        <v>1691</v>
+        <v>1535</v>
       </c>
       <c r="CL65" s="3" t="s">
-        <v>1692</v>
+        <v>1536</v>
       </c>
       <c r="CM65" s="3" t="s">
-        <v>1693</v>
+        <v>1537</v>
       </c>
       <c r="CN65" s="3" t="s">
-        <v>1694</v>
+        <v>1538</v>
       </c>
       <c r="CO65" s="3" t="s">
-        <v>1695</v>
+        <v>1539</v>
       </c>
       <c r="CP65" s="3" t="s">
-        <v>1696</v>
+        <v>1540</v>
       </c>
       <c r="CQ65" s="3" t="s">
-        <v>1697</v>
+        <v>1541</v>
       </c>
       <c r="CR65" s="3" t="s">
-        <v>1698</v>
+        <v>1542</v>
       </c>
       <c r="CS65" s="3" t="s">
-        <v>1699</v>
+        <v>1543</v>
       </c>
       <c r="CT65" s="3" t="s">
-        <v>1700</v>
+        <v>1544</v>
       </c>
       <c r="CU65" s="3" t="s">
-        <v>1701</v>
+        <v>1545</v>
       </c>
       <c r="CV65" s="3" t="s">
-        <v>1702</v>
+        <v>1546</v>
       </c>
       <c r="CW65" s="3" t="s">
-        <v>1703</v>
+        <v>1547</v>
       </c>
       <c r="CX65" s="3" t="s">
-        <v>1704</v>
+        <v>1548</v>
       </c>
       <c r="CY65" s="3" t="s">
-        <v>1705</v>
+        <v>1549</v>
       </c>
       <c r="CZ65" s="3" t="s">
-        <v>1706</v>
+        <v>1550</v>
       </c>
       <c r="DA65" s="3" t="s">
-        <v>1707</v>
+        <v>1551</v>
       </c>
       <c r="DB65" s="3" t="s">
-        <v>1708</v>
+        <v>1552</v>
       </c>
       <c r="DC65" s="3" t="s">
-        <v>1709</v>
+        <v>1553</v>
       </c>
       <c r="DD65" s="3" t="s">
-        <v>1710</v>
+        <v>1554</v>
       </c>
       <c r="DE65" s="3" t="s">
-        <v>1711</v>
+        <v>1555</v>
       </c>
       <c r="DF65" s="3" t="s">
-        <v>1712</v>
+        <v>1556</v>
       </c>
       <c r="DG65" s="3" t="s">
-        <v>1713</v>
+        <v>1557</v>
       </c>
       <c r="DH65" s="3" t="s">
-        <v>1714</v>
+        <v>1558</v>
       </c>
       <c r="DI65" s="3" t="s">
-        <v>1715</v>
+        <v>1559</v>
       </c>
       <c r="DJ65" s="3" t="s">
-        <v>1716</v>
+        <v>1560</v>
       </c>
       <c r="DK65" s="3" t="s">
-        <v>1717</v>
+        <v>1561</v>
       </c>
       <c r="DL65" s="3" t="s">
-        <v>1718</v>
+        <v>1562</v>
       </c>
       <c r="DM65" s="3" t="s">
-        <v>1719</v>
+        <v>1563</v>
       </c>
       <c r="DN65" s="3" t="s">
-        <v>1720</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="66" spans="1:118">
@@ -29134,13 +28666,13 @@
         <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>1721</v>
+        <v>1565</v>
       </c>
       <c r="C66" t="s">
         <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E66" t="s">
         <v>148</v>
@@ -29164,25 +28696,25 @@
         <v>148</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>1547</v>
+        <v>1391</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>1548</v>
+        <v>1392</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>1549</v>
+        <v>1393</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>1550</v>
+        <v>1394</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>148</v>
@@ -29233,256 +28765,256 @@
         <v>149</v>
       </c>
       <c r="AI66" s="3" t="s">
-        <v>1552</v>
+        <v>1396</v>
       </c>
       <c r="AJ66" s="3" t="s">
-        <v>1553</v>
+        <v>1397</v>
       </c>
       <c r="AK66" s="3" t="s">
-        <v>1554</v>
+        <v>1398</v>
       </c>
       <c r="AL66" s="3" t="s">
-        <v>1555</v>
+        <v>1399</v>
       </c>
       <c r="AM66" s="3" t="s">
-        <v>1556</v>
+        <v>1400</v>
       </c>
       <c r="AN66" s="3" t="s">
-        <v>1557</v>
+        <v>1401</v>
       </c>
       <c r="AO66" s="3" t="s">
-        <v>1558</v>
+        <v>1402</v>
       </c>
       <c r="AP66" s="3" t="s">
-        <v>1559</v>
+        <v>1403</v>
       </c>
       <c r="AQ66" s="3" t="s">
-        <v>1560</v>
+        <v>1404</v>
       </c>
       <c r="AR66" s="3" t="s">
-        <v>1561</v>
+        <v>1405</v>
       </c>
       <c r="AS66" s="3" t="s">
-        <v>1562</v>
+        <v>1406</v>
       </c>
       <c r="AT66" s="3" t="s">
-        <v>1563</v>
+        <v>1407</v>
       </c>
       <c r="AU66" s="3" t="s">
-        <v>1564</v>
+        <v>1408</v>
       </c>
       <c r="AV66" s="3" t="s">
-        <v>1565</v>
+        <v>1409</v>
       </c>
       <c r="AW66" s="3" t="s">
-        <v>1566</v>
+        <v>1410</v>
       </c>
       <c r="AX66" s="3" t="s">
-        <v>1567</v>
+        <v>1411</v>
       </c>
       <c r="AY66" s="3" t="s">
-        <v>1568</v>
+        <v>1412</v>
       </c>
       <c r="AZ66" s="3" t="s">
-        <v>1569</v>
+        <v>1413</v>
       </c>
       <c r="BA66" s="3" t="s">
-        <v>1570</v>
+        <v>1414</v>
       </c>
       <c r="BB66" s="3" t="s">
-        <v>1571</v>
+        <v>1415</v>
       </c>
       <c r="BC66" s="3" t="s">
-        <v>1572</v>
+        <v>1416</v>
       </c>
       <c r="BD66" s="3" t="s">
-        <v>1573</v>
+        <v>1417</v>
       </c>
       <c r="BE66" s="3" t="s">
-        <v>1574</v>
+        <v>1418</v>
       </c>
       <c r="BF66" s="3" t="s">
-        <v>1575</v>
+        <v>1419</v>
       </c>
       <c r="BG66" s="3" t="s">
-        <v>1576</v>
+        <v>1420</v>
       </c>
       <c r="BH66" s="3" t="s">
-        <v>1577</v>
+        <v>1421</v>
       </c>
       <c r="BI66" s="3" t="s">
-        <v>1578</v>
+        <v>1422</v>
       </c>
       <c r="BJ66" s="3" t="s">
-        <v>1579</v>
+        <v>1423</v>
       </c>
       <c r="BK66" s="3" t="s">
-        <v>1580</v>
+        <v>1424</v>
       </c>
       <c r="BL66" s="3" t="s">
-        <v>1581</v>
+        <v>1425</v>
       </c>
       <c r="BM66" s="3" t="s">
-        <v>1582</v>
+        <v>1426</v>
       </c>
       <c r="BN66" s="3" t="s">
-        <v>1583</v>
+        <v>1427</v>
       </c>
       <c r="BO66" s="3" t="s">
-        <v>1584</v>
+        <v>1428</v>
       </c>
       <c r="BP66" s="3" t="s">
-        <v>1585</v>
+        <v>1429</v>
       </c>
       <c r="BQ66" s="3" t="s">
-        <v>1586</v>
+        <v>1430</v>
       </c>
       <c r="BR66" s="3" t="s">
-        <v>1587</v>
+        <v>1431</v>
       </c>
       <c r="BS66" s="3" t="s">
-        <v>1588</v>
+        <v>1432</v>
       </c>
       <c r="BT66" s="3" t="s">
-        <v>1589</v>
+        <v>1433</v>
       </c>
       <c r="BU66" s="3" t="s">
-        <v>1590</v>
+        <v>1434</v>
       </c>
       <c r="BV66" s="3" t="s">
-        <v>1591</v>
+        <v>1435</v>
       </c>
       <c r="BW66" s="3" t="s">
-        <v>1592</v>
+        <v>1436</v>
       </c>
       <c r="BX66" s="3" t="s">
-        <v>1593</v>
+        <v>1437</v>
       </c>
       <c r="BY66" s="3" t="s">
-        <v>1594</v>
+        <v>1438</v>
       </c>
       <c r="BZ66" s="3" t="s">
-        <v>1595</v>
+        <v>1439</v>
       </c>
       <c r="CA66" s="3" t="s">
-        <v>1596</v>
+        <v>1440</v>
       </c>
       <c r="CB66" s="3" t="s">
-        <v>1597</v>
+        <v>1441</v>
       </c>
       <c r="CC66" s="3" t="s">
-        <v>1598</v>
+        <v>1442</v>
       </c>
       <c r="CD66" s="3" t="s">
-        <v>1599</v>
+        <v>1443</v>
       </c>
       <c r="CE66" s="3" t="s">
-        <v>1600</v>
+        <v>1444</v>
       </c>
       <c r="CF66" s="3" t="s">
-        <v>1601</v>
+        <v>1445</v>
       </c>
       <c r="CG66" s="3" t="s">
-        <v>1602</v>
+        <v>1446</v>
       </c>
       <c r="CH66" s="3" t="s">
-        <v>1603</v>
+        <v>1447</v>
       </c>
       <c r="CI66" s="3" t="s">
-        <v>1604</v>
+        <v>1448</v>
       </c>
       <c r="CJ66" s="3" t="s">
-        <v>1605</v>
+        <v>1449</v>
       </c>
       <c r="CK66" s="3" t="s">
-        <v>1606</v>
+        <v>1450</v>
       </c>
       <c r="CL66" s="3" t="s">
-        <v>1607</v>
+        <v>1451</v>
       </c>
       <c r="CM66" s="3" t="s">
-        <v>1608</v>
+        <v>1452</v>
       </c>
       <c r="CN66" s="3" t="s">
-        <v>1609</v>
+        <v>1453</v>
       </c>
       <c r="CO66" s="3" t="s">
-        <v>1610</v>
+        <v>1454</v>
       </c>
       <c r="CP66" s="3" t="s">
-        <v>1611</v>
+        <v>1455</v>
       </c>
       <c r="CQ66" s="3" t="s">
-        <v>1612</v>
+        <v>1456</v>
       </c>
       <c r="CR66" s="3" t="s">
-        <v>1613</v>
+        <v>1457</v>
       </c>
       <c r="CS66" s="3" t="s">
-        <v>1614</v>
+        <v>1458</v>
       </c>
       <c r="CT66" s="3" t="s">
-        <v>1615</v>
+        <v>1459</v>
       </c>
       <c r="CU66" s="3" t="s">
-        <v>1616</v>
+        <v>1460</v>
       </c>
       <c r="CV66" s="3" t="s">
-        <v>1617</v>
+        <v>1461</v>
       </c>
       <c r="CW66" s="3" t="s">
-        <v>1618</v>
+        <v>1462</v>
       </c>
       <c r="CX66" s="3" t="s">
-        <v>1619</v>
+        <v>1463</v>
       </c>
       <c r="CY66" s="3" t="s">
-        <v>1620</v>
+        <v>1464</v>
       </c>
       <c r="CZ66" s="3" t="s">
-        <v>1621</v>
+        <v>1465</v>
       </c>
       <c r="DA66" s="3" t="s">
-        <v>1622</v>
+        <v>1466</v>
       </c>
       <c r="DB66" s="3" t="s">
-        <v>1623</v>
+        <v>1467</v>
       </c>
       <c r="DC66" s="3" t="s">
-        <v>1624</v>
+        <v>1468</v>
       </c>
       <c r="DD66" s="3" t="s">
-        <v>1625</v>
+        <v>1469</v>
       </c>
       <c r="DE66" s="3" t="s">
-        <v>1626</v>
+        <v>1470</v>
       </c>
       <c r="DF66" s="3" t="s">
-        <v>1627</v>
+        <v>1471</v>
       </c>
       <c r="DG66" s="3" t="s">
-        <v>1628</v>
+        <v>1472</v>
       </c>
       <c r="DH66" s="3" t="s">
-        <v>1629</v>
+        <v>1473</v>
       </c>
       <c r="DI66" s="3" t="s">
-        <v>1630</v>
+        <v>1474</v>
       </c>
       <c r="DJ66" s="3" t="s">
-        <v>1631</v>
+        <v>1475</v>
       </c>
       <c r="DK66" s="3" t="s">
-        <v>1632</v>
+        <v>1476</v>
       </c>
       <c r="DL66" s="3" t="s">
-        <v>1633</v>
+        <v>1477</v>
       </c>
       <c r="DM66" s="3" t="s">
-        <v>1634</v>
+        <v>1478</v>
       </c>
       <c r="DN66" s="3" t="s">
-        <v>1635</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="67" spans="1:118">
@@ -29490,13 +29022,13 @@
         <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>1722</v>
+        <v>1566</v>
       </c>
       <c r="C67" t="s">
         <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E67" t="s">
         <v>148</v>
@@ -29520,25 +29052,25 @@
         <v>148</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>1547</v>
+        <v>1391</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>1548</v>
+        <v>1392</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>1549</v>
+        <v>1393</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>1550</v>
+        <v>1394</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S67" s="3" t="s">
         <v>148</v>
@@ -29589,256 +29121,256 @@
         <v>149</v>
       </c>
       <c r="AI67" s="3" t="s">
-        <v>1637</v>
+        <v>1481</v>
       </c>
       <c r="AJ67" s="3" t="s">
-        <v>1638</v>
+        <v>1482</v>
       </c>
       <c r="AK67" s="3" t="s">
-        <v>1639</v>
+        <v>1483</v>
       </c>
       <c r="AL67" s="3" t="s">
-        <v>1640</v>
+        <v>1484</v>
       </c>
       <c r="AM67" s="3" t="s">
-        <v>1641</v>
+        <v>1485</v>
       </c>
       <c r="AN67" s="3" t="s">
-        <v>1642</v>
+        <v>1486</v>
       </c>
       <c r="AO67" s="3" t="s">
-        <v>1643</v>
+        <v>1487</v>
       </c>
       <c r="AP67" s="3" t="s">
-        <v>1644</v>
+        <v>1488</v>
       </c>
       <c r="AQ67" s="3" t="s">
-        <v>1645</v>
+        <v>1489</v>
       </c>
       <c r="AR67" s="3" t="s">
-        <v>1646</v>
+        <v>1490</v>
       </c>
       <c r="AS67" s="3" t="s">
-        <v>1647</v>
+        <v>1491</v>
       </c>
       <c r="AT67" s="3" t="s">
-        <v>1648</v>
+        <v>1492</v>
       </c>
       <c r="AU67" s="3" t="s">
-        <v>1649</v>
+        <v>1493</v>
       </c>
       <c r="AV67" s="3" t="s">
-        <v>1650</v>
+        <v>1494</v>
       </c>
       <c r="AW67" s="3" t="s">
-        <v>1651</v>
+        <v>1495</v>
       </c>
       <c r="AX67" s="3" t="s">
-        <v>1652</v>
+        <v>1496</v>
       </c>
       <c r="AY67" s="3" t="s">
-        <v>1653</v>
+        <v>1497</v>
       </c>
       <c r="AZ67" s="3" t="s">
-        <v>1654</v>
+        <v>1498</v>
       </c>
       <c r="BA67" s="3" t="s">
-        <v>1655</v>
+        <v>1499</v>
       </c>
       <c r="BB67" s="3" t="s">
-        <v>1656</v>
+        <v>1500</v>
       </c>
       <c r="BC67" s="3" t="s">
-        <v>1657</v>
+        <v>1501</v>
       </c>
       <c r="BD67" s="3" t="s">
-        <v>1658</v>
+        <v>1502</v>
       </c>
       <c r="BE67" s="3" t="s">
-        <v>1659</v>
+        <v>1503</v>
       </c>
       <c r="BF67" s="3" t="s">
-        <v>1660</v>
+        <v>1504</v>
       </c>
       <c r="BG67" s="3" t="s">
-        <v>1661</v>
+        <v>1505</v>
       </c>
       <c r="BH67" s="3" t="s">
-        <v>1662</v>
+        <v>1506</v>
       </c>
       <c r="BI67" s="3" t="s">
-        <v>1663</v>
+        <v>1507</v>
       </c>
       <c r="BJ67" s="3" t="s">
-        <v>1664</v>
+        <v>1508</v>
       </c>
       <c r="BK67" s="3" t="s">
-        <v>1665</v>
+        <v>1509</v>
       </c>
       <c r="BL67" s="3" t="s">
-        <v>1666</v>
+        <v>1510</v>
       </c>
       <c r="BM67" s="3" t="s">
-        <v>1667</v>
+        <v>1511</v>
       </c>
       <c r="BN67" s="3" t="s">
-        <v>1668</v>
+        <v>1512</v>
       </c>
       <c r="BO67" s="3" t="s">
-        <v>1669</v>
+        <v>1513</v>
       </c>
       <c r="BP67" s="3" t="s">
-        <v>1670</v>
+        <v>1514</v>
       </c>
       <c r="BQ67" s="3" t="s">
-        <v>1671</v>
+        <v>1515</v>
       </c>
       <c r="BR67" s="3" t="s">
-        <v>1672</v>
+        <v>1516</v>
       </c>
       <c r="BS67" s="3" t="s">
-        <v>1673</v>
+        <v>1517</v>
       </c>
       <c r="BT67" s="3" t="s">
-        <v>1674</v>
+        <v>1518</v>
       </c>
       <c r="BU67" s="3" t="s">
-        <v>1675</v>
+        <v>1519</v>
       </c>
       <c r="BV67" s="3" t="s">
-        <v>1676</v>
+        <v>1520</v>
       </c>
       <c r="BW67" s="3" t="s">
-        <v>1677</v>
+        <v>1521</v>
       </c>
       <c r="BX67" s="3" t="s">
-        <v>1678</v>
+        <v>1522</v>
       </c>
       <c r="BY67" s="3" t="s">
-        <v>1679</v>
+        <v>1523</v>
       </c>
       <c r="BZ67" s="3" t="s">
-        <v>1680</v>
+        <v>1524</v>
       </c>
       <c r="CA67" s="3" t="s">
-        <v>1681</v>
+        <v>1525</v>
       </c>
       <c r="CB67" s="3" t="s">
-        <v>1682</v>
+        <v>1526</v>
       </c>
       <c r="CC67" s="3" t="s">
-        <v>1683</v>
+        <v>1527</v>
       </c>
       <c r="CD67" s="3" t="s">
-        <v>1684</v>
+        <v>1528</v>
       </c>
       <c r="CE67" s="3" t="s">
-        <v>1685</v>
+        <v>1529</v>
       </c>
       <c r="CF67" s="3" t="s">
-        <v>1686</v>
+        <v>1530</v>
       </c>
       <c r="CG67" s="3" t="s">
-        <v>1687</v>
+        <v>1531</v>
       </c>
       <c r="CH67" s="3" t="s">
-        <v>1688</v>
+        <v>1532</v>
       </c>
       <c r="CI67" s="3" t="s">
-        <v>1689</v>
+        <v>1533</v>
       </c>
       <c r="CJ67" s="3" t="s">
-        <v>1690</v>
+        <v>1534</v>
       </c>
       <c r="CK67" s="3" t="s">
-        <v>1691</v>
+        <v>1535</v>
       </c>
       <c r="CL67" s="3" t="s">
-        <v>1692</v>
+        <v>1536</v>
       </c>
       <c r="CM67" s="3" t="s">
-        <v>1693</v>
+        <v>1537</v>
       </c>
       <c r="CN67" s="3" t="s">
-        <v>1694</v>
+        <v>1538</v>
       </c>
       <c r="CO67" s="3" t="s">
-        <v>1695</v>
+        <v>1539</v>
       </c>
       <c r="CP67" s="3" t="s">
-        <v>1696</v>
+        <v>1540</v>
       </c>
       <c r="CQ67" s="3" t="s">
-        <v>1697</v>
+        <v>1541</v>
       </c>
       <c r="CR67" s="3" t="s">
-        <v>1698</v>
+        <v>1542</v>
       </c>
       <c r="CS67" s="3" t="s">
-        <v>1699</v>
+        <v>1543</v>
       </c>
       <c r="CT67" s="3" t="s">
-        <v>1700</v>
+        <v>1544</v>
       </c>
       <c r="CU67" s="3" t="s">
-        <v>1701</v>
+        <v>1545</v>
       </c>
       <c r="CV67" s="3" t="s">
-        <v>1702</v>
+        <v>1546</v>
       </c>
       <c r="CW67" s="3" t="s">
-        <v>1703</v>
+        <v>1547</v>
       </c>
       <c r="CX67" s="3" t="s">
-        <v>1704</v>
+        <v>1548</v>
       </c>
       <c r="CY67" s="3" t="s">
-        <v>1705</v>
+        <v>1549</v>
       </c>
       <c r="CZ67" s="3" t="s">
-        <v>1706</v>
+        <v>1550</v>
       </c>
       <c r="DA67" s="3" t="s">
-        <v>1707</v>
+        <v>1551</v>
       </c>
       <c r="DB67" s="3" t="s">
-        <v>1708</v>
+        <v>1552</v>
       </c>
       <c r="DC67" s="3" t="s">
-        <v>1709</v>
+        <v>1553</v>
       </c>
       <c r="DD67" s="3" t="s">
-        <v>1710</v>
+        <v>1554</v>
       </c>
       <c r="DE67" s="3" t="s">
-        <v>1711</v>
+        <v>1555</v>
       </c>
       <c r="DF67" s="3" t="s">
-        <v>1712</v>
+        <v>1556</v>
       </c>
       <c r="DG67" s="3" t="s">
-        <v>1713</v>
+        <v>1557</v>
       </c>
       <c r="DH67" s="3" t="s">
-        <v>1714</v>
+        <v>1558</v>
       </c>
       <c r="DI67" s="3" t="s">
-        <v>1715</v>
+        <v>1559</v>
       </c>
       <c r="DJ67" s="3" t="s">
-        <v>1716</v>
+        <v>1560</v>
       </c>
       <c r="DK67" s="3" t="s">
-        <v>1717</v>
+        <v>1561</v>
       </c>
       <c r="DL67" s="3" t="s">
-        <v>1718</v>
+        <v>1562</v>
       </c>
       <c r="DM67" s="3" t="s">
-        <v>1719</v>
+        <v>1563</v>
       </c>
       <c r="DN67" s="3" t="s">
-        <v>1720</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="68" spans="1:118">
@@ -29846,13 +29378,13 @@
         <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>1723</v>
+        <v>1567</v>
       </c>
       <c r="C68" t="s">
         <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E68" t="s">
         <v>148</v>
@@ -29876,25 +29408,25 @@
         <v>148</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>1547</v>
+        <v>1391</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>1548</v>
+        <v>1392</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>1549</v>
+        <v>1393</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>1550</v>
+        <v>1394</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S68" s="3" t="s">
         <v>148</v>
@@ -29945,256 +29477,256 @@
         <v>149</v>
       </c>
       <c r="AI68" s="3" t="s">
-        <v>1552</v>
+        <v>1396</v>
       </c>
       <c r="AJ68" s="3" t="s">
-        <v>1553</v>
+        <v>1397</v>
       </c>
       <c r="AK68" s="3" t="s">
-        <v>1554</v>
+        <v>1398</v>
       </c>
       <c r="AL68" s="3" t="s">
-        <v>1555</v>
+        <v>1399</v>
       </c>
       <c r="AM68" s="3" t="s">
-        <v>1556</v>
+        <v>1400</v>
       </c>
       <c r="AN68" s="3" t="s">
-        <v>1557</v>
+        <v>1401</v>
       </c>
       <c r="AO68" s="3" t="s">
-        <v>1558</v>
+        <v>1402</v>
       </c>
       <c r="AP68" s="3" t="s">
-        <v>1559</v>
+        <v>1403</v>
       </c>
       <c r="AQ68" s="3" t="s">
-        <v>1560</v>
+        <v>1404</v>
       </c>
       <c r="AR68" s="3" t="s">
-        <v>1561</v>
+        <v>1405</v>
       </c>
       <c r="AS68" s="3" t="s">
-        <v>1562</v>
+        <v>1406</v>
       </c>
       <c r="AT68" s="3" t="s">
-        <v>1563</v>
+        <v>1407</v>
       </c>
       <c r="AU68" s="3" t="s">
-        <v>1564</v>
+        <v>1408</v>
       </c>
       <c r="AV68" s="3" t="s">
-        <v>1565</v>
+        <v>1409</v>
       </c>
       <c r="AW68" s="3" t="s">
-        <v>1566</v>
+        <v>1410</v>
       </c>
       <c r="AX68" s="3" t="s">
-        <v>1567</v>
+        <v>1411</v>
       </c>
       <c r="AY68" s="3" t="s">
-        <v>1568</v>
+        <v>1412</v>
       </c>
       <c r="AZ68" s="3" t="s">
-        <v>1569</v>
+        <v>1413</v>
       </c>
       <c r="BA68" s="3" t="s">
-        <v>1570</v>
+        <v>1414</v>
       </c>
       <c r="BB68" s="3" t="s">
-        <v>1571</v>
+        <v>1415</v>
       </c>
       <c r="BC68" s="3" t="s">
-        <v>1572</v>
+        <v>1416</v>
       </c>
       <c r="BD68" s="3" t="s">
-        <v>1573</v>
+        <v>1417</v>
       </c>
       <c r="BE68" s="3" t="s">
-        <v>1574</v>
+        <v>1418</v>
       </c>
       <c r="BF68" s="3" t="s">
-        <v>1575</v>
+        <v>1419</v>
       </c>
       <c r="BG68" s="3" t="s">
-        <v>1576</v>
+        <v>1420</v>
       </c>
       <c r="BH68" s="3" t="s">
-        <v>1577</v>
+        <v>1421</v>
       </c>
       <c r="BI68" s="3" t="s">
-        <v>1578</v>
+        <v>1422</v>
       </c>
       <c r="BJ68" s="3" t="s">
-        <v>1579</v>
+        <v>1423</v>
       </c>
       <c r="BK68" s="3" t="s">
-        <v>1580</v>
+        <v>1424</v>
       </c>
       <c r="BL68" s="3" t="s">
-        <v>1581</v>
+        <v>1425</v>
       </c>
       <c r="BM68" s="3" t="s">
-        <v>1582</v>
+        <v>1426</v>
       </c>
       <c r="BN68" s="3" t="s">
-        <v>1583</v>
+        <v>1427</v>
       </c>
       <c r="BO68" s="3" t="s">
-        <v>1584</v>
+        <v>1428</v>
       </c>
       <c r="BP68" s="3" t="s">
-        <v>1585</v>
+        <v>1429</v>
       </c>
       <c r="BQ68" s="3" t="s">
-        <v>1586</v>
+        <v>1430</v>
       </c>
       <c r="BR68" s="3" t="s">
-        <v>1587</v>
+        <v>1431</v>
       </c>
       <c r="BS68" s="3" t="s">
-        <v>1588</v>
+        <v>1432</v>
       </c>
       <c r="BT68" s="3" t="s">
-        <v>1589</v>
+        <v>1433</v>
       </c>
       <c r="BU68" s="3" t="s">
-        <v>1590</v>
+        <v>1434</v>
       </c>
       <c r="BV68" s="3" t="s">
-        <v>1591</v>
+        <v>1435</v>
       </c>
       <c r="BW68" s="3" t="s">
-        <v>1592</v>
+        <v>1436</v>
       </c>
       <c r="BX68" s="3" t="s">
-        <v>1593</v>
+        <v>1437</v>
       </c>
       <c r="BY68" s="3" t="s">
-        <v>1594</v>
+        <v>1438</v>
       </c>
       <c r="BZ68" s="3" t="s">
-        <v>1595</v>
+        <v>1439</v>
       </c>
       <c r="CA68" s="3" t="s">
-        <v>1596</v>
+        <v>1440</v>
       </c>
       <c r="CB68" s="3" t="s">
-        <v>1597</v>
+        <v>1441</v>
       </c>
       <c r="CC68" s="3" t="s">
-        <v>1598</v>
+        <v>1442</v>
       </c>
       <c r="CD68" s="3" t="s">
-        <v>1599</v>
+        <v>1443</v>
       </c>
       <c r="CE68" s="3" t="s">
-        <v>1600</v>
+        <v>1444</v>
       </c>
       <c r="CF68" s="3" t="s">
-        <v>1601</v>
+        <v>1445</v>
       </c>
       <c r="CG68" s="3" t="s">
-        <v>1602</v>
+        <v>1446</v>
       </c>
       <c r="CH68" s="3" t="s">
-        <v>1603</v>
+        <v>1447</v>
       </c>
       <c r="CI68" s="3" t="s">
-        <v>1604</v>
+        <v>1448</v>
       </c>
       <c r="CJ68" s="3" t="s">
-        <v>1605</v>
+        <v>1449</v>
       </c>
       <c r="CK68" s="3" t="s">
-        <v>1606</v>
+        <v>1450</v>
       </c>
       <c r="CL68" s="3" t="s">
-        <v>1607</v>
+        <v>1451</v>
       </c>
       <c r="CM68" s="3" t="s">
-        <v>1608</v>
+        <v>1452</v>
       </c>
       <c r="CN68" s="3" t="s">
-        <v>1609</v>
+        <v>1453</v>
       </c>
       <c r="CO68" s="3" t="s">
-        <v>1610</v>
+        <v>1454</v>
       </c>
       <c r="CP68" s="3" t="s">
-        <v>1611</v>
+        <v>1455</v>
       </c>
       <c r="CQ68" s="3" t="s">
-        <v>1612</v>
+        <v>1456</v>
       </c>
       <c r="CR68" s="3" t="s">
-        <v>1613</v>
+        <v>1457</v>
       </c>
       <c r="CS68" s="3" t="s">
-        <v>1614</v>
+        <v>1458</v>
       </c>
       <c r="CT68" s="3" t="s">
-        <v>1615</v>
+        <v>1459</v>
       </c>
       <c r="CU68" s="3" t="s">
-        <v>1616</v>
+        <v>1460</v>
       </c>
       <c r="CV68" s="3" t="s">
-        <v>1617</v>
+        <v>1461</v>
       </c>
       <c r="CW68" s="3" t="s">
-        <v>1618</v>
+        <v>1462</v>
       </c>
       <c r="CX68" s="3" t="s">
-        <v>1619</v>
+        <v>1463</v>
       </c>
       <c r="CY68" s="3" t="s">
-        <v>1620</v>
+        <v>1464</v>
       </c>
       <c r="CZ68" s="3" t="s">
-        <v>1621</v>
+        <v>1465</v>
       </c>
       <c r="DA68" s="3" t="s">
-        <v>1622</v>
+        <v>1466</v>
       </c>
       <c r="DB68" s="3" t="s">
-        <v>1623</v>
+        <v>1467</v>
       </c>
       <c r="DC68" s="3" t="s">
-        <v>1624</v>
+        <v>1468</v>
       </c>
       <c r="DD68" s="3" t="s">
-        <v>1625</v>
+        <v>1469</v>
       </c>
       <c r="DE68" s="3" t="s">
-        <v>1626</v>
+        <v>1470</v>
       </c>
       <c r="DF68" s="3" t="s">
-        <v>1627</v>
+        <v>1471</v>
       </c>
       <c r="DG68" s="3" t="s">
-        <v>1628</v>
+        <v>1472</v>
       </c>
       <c r="DH68" s="3" t="s">
-        <v>1629</v>
+        <v>1473</v>
       </c>
       <c r="DI68" s="3" t="s">
-        <v>1630</v>
+        <v>1474</v>
       </c>
       <c r="DJ68" s="3" t="s">
-        <v>1631</v>
+        <v>1475</v>
       </c>
       <c r="DK68" s="3" t="s">
-        <v>1632</v>
+        <v>1476</v>
       </c>
       <c r="DL68" s="3" t="s">
-        <v>1633</v>
+        <v>1477</v>
       </c>
       <c r="DM68" s="3" t="s">
-        <v>1634</v>
+        <v>1478</v>
       </c>
       <c r="DN68" s="3" t="s">
-        <v>1635</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="69" spans="1:118">
@@ -30202,13 +29734,13 @@
         <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>1724</v>
+        <v>1568</v>
       </c>
       <c r="C69" t="s">
         <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E69" t="s">
         <v>148</v>
@@ -30232,25 +29764,25 @@
         <v>148</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>1547</v>
+        <v>1391</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>1548</v>
+        <v>1392</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>1549</v>
+        <v>1393</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>1550</v>
+        <v>1394</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S69" s="3" t="s">
         <v>148</v>
@@ -30301,256 +29833,256 @@
         <v>149</v>
       </c>
       <c r="AI69" s="3" t="s">
-        <v>1637</v>
+        <v>1481</v>
       </c>
       <c r="AJ69" s="3" t="s">
-        <v>1638</v>
+        <v>1482</v>
       </c>
       <c r="AK69" s="3" t="s">
-        <v>1639</v>
+        <v>1483</v>
       </c>
       <c r="AL69" s="3" t="s">
-        <v>1640</v>
+        <v>1484</v>
       </c>
       <c r="AM69" s="3" t="s">
-        <v>1641</v>
+        <v>1485</v>
       </c>
       <c r="AN69" s="3" t="s">
-        <v>1642</v>
+        <v>1486</v>
       </c>
       <c r="AO69" s="3" t="s">
-        <v>1643</v>
+        <v>1487</v>
       </c>
       <c r="AP69" s="3" t="s">
-        <v>1644</v>
+        <v>1488</v>
       </c>
       <c r="AQ69" s="3" t="s">
-        <v>1645</v>
+        <v>1489</v>
       </c>
       <c r="AR69" s="3" t="s">
-        <v>1646</v>
+        <v>1490</v>
       </c>
       <c r="AS69" s="3" t="s">
-        <v>1647</v>
+        <v>1491</v>
       </c>
       <c r="AT69" s="3" t="s">
-        <v>1648</v>
+        <v>1492</v>
       </c>
       <c r="AU69" s="3" t="s">
-        <v>1649</v>
+        <v>1493</v>
       </c>
       <c r="AV69" s="3" t="s">
-        <v>1650</v>
+        <v>1494</v>
       </c>
       <c r="AW69" s="3" t="s">
-        <v>1651</v>
+        <v>1495</v>
       </c>
       <c r="AX69" s="3" t="s">
-        <v>1652</v>
+        <v>1496</v>
       </c>
       <c r="AY69" s="3" t="s">
-        <v>1653</v>
+        <v>1497</v>
       </c>
       <c r="AZ69" s="3" t="s">
-        <v>1654</v>
+        <v>1498</v>
       </c>
       <c r="BA69" s="3" t="s">
-        <v>1655</v>
+        <v>1499</v>
       </c>
       <c r="BB69" s="3" t="s">
-        <v>1656</v>
+        <v>1500</v>
       </c>
       <c r="BC69" s="3" t="s">
-        <v>1657</v>
+        <v>1501</v>
       </c>
       <c r="BD69" s="3" t="s">
-        <v>1658</v>
+        <v>1502</v>
       </c>
       <c r="BE69" s="3" t="s">
-        <v>1659</v>
+        <v>1503</v>
       </c>
       <c r="BF69" s="3" t="s">
-        <v>1660</v>
+        <v>1504</v>
       </c>
       <c r="BG69" s="3" t="s">
-        <v>1661</v>
+        <v>1505</v>
       </c>
       <c r="BH69" s="3" t="s">
-        <v>1662</v>
+        <v>1506</v>
       </c>
       <c r="BI69" s="3" t="s">
-        <v>1663</v>
+        <v>1507</v>
       </c>
       <c r="BJ69" s="3" t="s">
-        <v>1664</v>
+        <v>1508</v>
       </c>
       <c r="BK69" s="3" t="s">
-        <v>1665</v>
+        <v>1509</v>
       </c>
       <c r="BL69" s="3" t="s">
-        <v>1666</v>
+        <v>1510</v>
       </c>
       <c r="BM69" s="3" t="s">
-        <v>1667</v>
+        <v>1511</v>
       </c>
       <c r="BN69" s="3" t="s">
-        <v>1668</v>
+        <v>1512</v>
       </c>
       <c r="BO69" s="3" t="s">
-        <v>1669</v>
+        <v>1513</v>
       </c>
       <c r="BP69" s="3" t="s">
-        <v>1670</v>
+        <v>1514</v>
       </c>
       <c r="BQ69" s="3" t="s">
-        <v>1671</v>
+        <v>1515</v>
       </c>
       <c r="BR69" s="3" t="s">
-        <v>1672</v>
+        <v>1516</v>
       </c>
       <c r="BS69" s="3" t="s">
-        <v>1673</v>
+        <v>1517</v>
       </c>
       <c r="BT69" s="3" t="s">
-        <v>1674</v>
+        <v>1518</v>
       </c>
       <c r="BU69" s="3" t="s">
-        <v>1675</v>
+        <v>1519</v>
       </c>
       <c r="BV69" s="3" t="s">
-        <v>1676</v>
+        <v>1520</v>
       </c>
       <c r="BW69" s="3" t="s">
-        <v>1677</v>
+        <v>1521</v>
       </c>
       <c r="BX69" s="3" t="s">
-        <v>1678</v>
+        <v>1522</v>
       </c>
       <c r="BY69" s="3" t="s">
-        <v>1679</v>
+        <v>1523</v>
       </c>
       <c r="BZ69" s="3" t="s">
-        <v>1680</v>
+        <v>1524</v>
       </c>
       <c r="CA69" s="3" t="s">
-        <v>1681</v>
+        <v>1525</v>
       </c>
       <c r="CB69" s="3" t="s">
-        <v>1682</v>
+        <v>1526</v>
       </c>
       <c r="CC69" s="3" t="s">
-        <v>1683</v>
+        <v>1527</v>
       </c>
       <c r="CD69" s="3" t="s">
-        <v>1684</v>
+        <v>1528</v>
       </c>
       <c r="CE69" s="3" t="s">
-        <v>1685</v>
+        <v>1529</v>
       </c>
       <c r="CF69" s="3" t="s">
-        <v>1686</v>
+        <v>1530</v>
       </c>
       <c r="CG69" s="3" t="s">
-        <v>1687</v>
+        <v>1531</v>
       </c>
       <c r="CH69" s="3" t="s">
-        <v>1688</v>
+        <v>1532</v>
       </c>
       <c r="CI69" s="3" t="s">
-        <v>1689</v>
+        <v>1533</v>
       </c>
       <c r="CJ69" s="3" t="s">
-        <v>1690</v>
+        <v>1534</v>
       </c>
       <c r="CK69" s="3" t="s">
-        <v>1691</v>
+        <v>1535</v>
       </c>
       <c r="CL69" s="3" t="s">
-        <v>1692</v>
+        <v>1536</v>
       </c>
       <c r="CM69" s="3" t="s">
-        <v>1693</v>
+        <v>1537</v>
       </c>
       <c r="CN69" s="3" t="s">
-        <v>1694</v>
+        <v>1538</v>
       </c>
       <c r="CO69" s="3" t="s">
-        <v>1695</v>
+        <v>1539</v>
       </c>
       <c r="CP69" s="3" t="s">
-        <v>1696</v>
+        <v>1540</v>
       </c>
       <c r="CQ69" s="3" t="s">
-        <v>1697</v>
+        <v>1541</v>
       </c>
       <c r="CR69" s="3" t="s">
-        <v>1698</v>
+        <v>1542</v>
       </c>
       <c r="CS69" s="3" t="s">
-        <v>1699</v>
+        <v>1543</v>
       </c>
       <c r="CT69" s="3" t="s">
-        <v>1700</v>
+        <v>1544</v>
       </c>
       <c r="CU69" s="3" t="s">
-        <v>1701</v>
+        <v>1545</v>
       </c>
       <c r="CV69" s="3" t="s">
-        <v>1702</v>
+        <v>1546</v>
       </c>
       <c r="CW69" s="3" t="s">
-        <v>1703</v>
+        <v>1547</v>
       </c>
       <c r="CX69" s="3" t="s">
-        <v>1704</v>
+        <v>1548</v>
       </c>
       <c r="CY69" s="3" t="s">
-        <v>1705</v>
+        <v>1549</v>
       </c>
       <c r="CZ69" s="3" t="s">
-        <v>1706</v>
+        <v>1550</v>
       </c>
       <c r="DA69" s="3" t="s">
-        <v>1707</v>
+        <v>1551</v>
       </c>
       <c r="DB69" s="3" t="s">
-        <v>1708</v>
+        <v>1552</v>
       </c>
       <c r="DC69" s="3" t="s">
-        <v>1709</v>
+        <v>1553</v>
       </c>
       <c r="DD69" s="3" t="s">
-        <v>1710</v>
+        <v>1554</v>
       </c>
       <c r="DE69" s="3" t="s">
-        <v>1711</v>
+        <v>1555</v>
       </c>
       <c r="DF69" s="3" t="s">
-        <v>1712</v>
+        <v>1556</v>
       </c>
       <c r="DG69" s="3" t="s">
-        <v>1713</v>
+        <v>1557</v>
       </c>
       <c r="DH69" s="3" t="s">
-        <v>1714</v>
+        <v>1558</v>
       </c>
       <c r="DI69" s="3" t="s">
-        <v>1715</v>
+        <v>1559</v>
       </c>
       <c r="DJ69" s="3" t="s">
-        <v>1716</v>
+        <v>1560</v>
       </c>
       <c r="DK69" s="3" t="s">
-        <v>1717</v>
+        <v>1561</v>
       </c>
       <c r="DL69" s="3" t="s">
-        <v>1718</v>
+        <v>1562</v>
       </c>
       <c r="DM69" s="3" t="s">
-        <v>1719</v>
+        <v>1563</v>
       </c>
       <c r="DN69" s="3" t="s">
-        <v>1720</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="70" spans="1:118">
@@ -30558,13 +30090,13 @@
         <v>124</v>
       </c>
       <c r="B70" t="s">
-        <v>1725</v>
+        <v>1569</v>
       </c>
       <c r="C70" t="s">
         <v>148</v>
       </c>
       <c r="D70" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E70" t="s">
         <v>148</v>
@@ -30588,25 +30120,25 @@
         <v>148</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>1547</v>
+        <v>1391</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>1548</v>
+        <v>1392</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>1549</v>
+        <v>1393</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>1550</v>
+        <v>1394</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S70" s="3" t="s">
         <v>148</v>
@@ -30657,256 +30189,256 @@
         <v>149</v>
       </c>
       <c r="AI70" s="3" t="s">
-        <v>1552</v>
+        <v>1396</v>
       </c>
       <c r="AJ70" s="3" t="s">
-        <v>1553</v>
+        <v>1397</v>
       </c>
       <c r="AK70" s="3" t="s">
-        <v>1554</v>
+        <v>1398</v>
       </c>
       <c r="AL70" s="3" t="s">
-        <v>1555</v>
+        <v>1399</v>
       </c>
       <c r="AM70" s="3" t="s">
-        <v>1556</v>
+        <v>1400</v>
       </c>
       <c r="AN70" s="3" t="s">
-        <v>1557</v>
+        <v>1401</v>
       </c>
       <c r="AO70" s="3" t="s">
-        <v>1558</v>
+        <v>1402</v>
       </c>
       <c r="AP70" s="3" t="s">
-        <v>1559</v>
+        <v>1403</v>
       </c>
       <c r="AQ70" s="3" t="s">
-        <v>1560</v>
+        <v>1404</v>
       </c>
       <c r="AR70" s="3" t="s">
-        <v>1561</v>
+        <v>1405</v>
       </c>
       <c r="AS70" s="3" t="s">
-        <v>1562</v>
+        <v>1406</v>
       </c>
       <c r="AT70" s="3" t="s">
-        <v>1563</v>
+        <v>1407</v>
       </c>
       <c r="AU70" s="3" t="s">
-        <v>1564</v>
+        <v>1408</v>
       </c>
       <c r="AV70" s="3" t="s">
-        <v>1565</v>
+        <v>1409</v>
       </c>
       <c r="AW70" s="3" t="s">
-        <v>1566</v>
+        <v>1410</v>
       </c>
       <c r="AX70" s="3" t="s">
-        <v>1567</v>
+        <v>1411</v>
       </c>
       <c r="AY70" s="3" t="s">
-        <v>1568</v>
+        <v>1412</v>
       </c>
       <c r="AZ70" s="3" t="s">
-        <v>1569</v>
+        <v>1413</v>
       </c>
       <c r="BA70" s="3" t="s">
-        <v>1570</v>
+        <v>1414</v>
       </c>
       <c r="BB70" s="3" t="s">
-        <v>1571</v>
+        <v>1415</v>
       </c>
       <c r="BC70" s="3" t="s">
-        <v>1572</v>
+        <v>1416</v>
       </c>
       <c r="BD70" s="3" t="s">
-        <v>1573</v>
+        <v>1417</v>
       </c>
       <c r="BE70" s="3" t="s">
-        <v>1574</v>
+        <v>1418</v>
       </c>
       <c r="BF70" s="3" t="s">
-        <v>1575</v>
+        <v>1419</v>
       </c>
       <c r="BG70" s="3" t="s">
-        <v>1576</v>
+        <v>1420</v>
       </c>
       <c r="BH70" s="3" t="s">
-        <v>1577</v>
+        <v>1421</v>
       </c>
       <c r="BI70" s="3" t="s">
-        <v>1578</v>
+        <v>1422</v>
       </c>
       <c r="BJ70" s="3" t="s">
-        <v>1579</v>
+        <v>1423</v>
       </c>
       <c r="BK70" s="3" t="s">
-        <v>1580</v>
+        <v>1424</v>
       </c>
       <c r="BL70" s="3" t="s">
-        <v>1581</v>
+        <v>1425</v>
       </c>
       <c r="BM70" s="3" t="s">
-        <v>1582</v>
+        <v>1426</v>
       </c>
       <c r="BN70" s="3" t="s">
-        <v>1583</v>
+        <v>1427</v>
       </c>
       <c r="BO70" s="3" t="s">
-        <v>1584</v>
+        <v>1428</v>
       </c>
       <c r="BP70" s="3" t="s">
-        <v>1585</v>
+        <v>1429</v>
       </c>
       <c r="BQ70" s="3" t="s">
-        <v>1586</v>
+        <v>1430</v>
       </c>
       <c r="BR70" s="3" t="s">
-        <v>1587</v>
+        <v>1431</v>
       </c>
       <c r="BS70" s="3" t="s">
-        <v>1588</v>
+        <v>1432</v>
       </c>
       <c r="BT70" s="3" t="s">
-        <v>1589</v>
+        <v>1433</v>
       </c>
       <c r="BU70" s="3" t="s">
-        <v>1590</v>
+        <v>1434</v>
       </c>
       <c r="BV70" s="3" t="s">
-        <v>1591</v>
+        <v>1435</v>
       </c>
       <c r="BW70" s="3" t="s">
-        <v>1592</v>
+        <v>1436</v>
       </c>
       <c r="BX70" s="3" t="s">
-        <v>1593</v>
+        <v>1437</v>
       </c>
       <c r="BY70" s="3" t="s">
-        <v>1594</v>
+        <v>1438</v>
       </c>
       <c r="BZ70" s="3" t="s">
-        <v>1595</v>
+        <v>1439</v>
       </c>
       <c r="CA70" s="3" t="s">
-        <v>1596</v>
+        <v>1440</v>
       </c>
       <c r="CB70" s="3" t="s">
-        <v>1597</v>
+        <v>1441</v>
       </c>
       <c r="CC70" s="3" t="s">
-        <v>1598</v>
+        <v>1442</v>
       </c>
       <c r="CD70" s="3" t="s">
-        <v>1599</v>
+        <v>1443</v>
       </c>
       <c r="CE70" s="3" t="s">
-        <v>1600</v>
+        <v>1444</v>
       </c>
       <c r="CF70" s="3" t="s">
-        <v>1601</v>
+        <v>1445</v>
       </c>
       <c r="CG70" s="3" t="s">
-        <v>1602</v>
+        <v>1446</v>
       </c>
       <c r="CH70" s="3" t="s">
-        <v>1603</v>
+        <v>1447</v>
       </c>
       <c r="CI70" s="3" t="s">
-        <v>1604</v>
+        <v>1448</v>
       </c>
       <c r="CJ70" s="3" t="s">
-        <v>1605</v>
+        <v>1449</v>
       </c>
       <c r="CK70" s="3" t="s">
-        <v>1606</v>
+        <v>1450</v>
       </c>
       <c r="CL70" s="3" t="s">
-        <v>1607</v>
+        <v>1451</v>
       </c>
       <c r="CM70" s="3" t="s">
-        <v>1608</v>
+        <v>1452</v>
       </c>
       <c r="CN70" s="3" t="s">
-        <v>1609</v>
+        <v>1453</v>
       </c>
       <c r="CO70" s="3" t="s">
-        <v>1610</v>
+        <v>1454</v>
       </c>
       <c r="CP70" s="3" t="s">
-        <v>1611</v>
+        <v>1455</v>
       </c>
       <c r="CQ70" s="3" t="s">
-        <v>1612</v>
+        <v>1456</v>
       </c>
       <c r="CR70" s="3" t="s">
-        <v>1613</v>
+        <v>1457</v>
       </c>
       <c r="CS70" s="3" t="s">
-        <v>1614</v>
+        <v>1458</v>
       </c>
       <c r="CT70" s="3" t="s">
-        <v>1615</v>
+        <v>1459</v>
       </c>
       <c r="CU70" s="3" t="s">
-        <v>1616</v>
+        <v>1460</v>
       </c>
       <c r="CV70" s="3" t="s">
-        <v>1617</v>
+        <v>1461</v>
       </c>
       <c r="CW70" s="3" t="s">
-        <v>1618</v>
+        <v>1462</v>
       </c>
       <c r="CX70" s="3" t="s">
-        <v>1619</v>
+        <v>1463</v>
       </c>
       <c r="CY70" s="3" t="s">
-        <v>1620</v>
+        <v>1464</v>
       </c>
       <c r="CZ70" s="3" t="s">
-        <v>1621</v>
+        <v>1465</v>
       </c>
       <c r="DA70" s="3" t="s">
-        <v>1622</v>
+        <v>1466</v>
       </c>
       <c r="DB70" s="3" t="s">
-        <v>1623</v>
+        <v>1467</v>
       </c>
       <c r="DC70" s="3" t="s">
-        <v>1624</v>
+        <v>1468</v>
       </c>
       <c r="DD70" s="3" t="s">
-        <v>1625</v>
+        <v>1469</v>
       </c>
       <c r="DE70" s="3" t="s">
-        <v>1626</v>
+        <v>1470</v>
       </c>
       <c r="DF70" s="3" t="s">
-        <v>1627</v>
+        <v>1471</v>
       </c>
       <c r="DG70" s="3" t="s">
-        <v>1628</v>
+        <v>1472</v>
       </c>
       <c r="DH70" s="3" t="s">
-        <v>1629</v>
+        <v>1473</v>
       </c>
       <c r="DI70" s="3" t="s">
-        <v>1630</v>
+        <v>1474</v>
       </c>
       <c r="DJ70" s="3" t="s">
-        <v>1631</v>
+        <v>1475</v>
       </c>
       <c r="DK70" s="3" t="s">
-        <v>1632</v>
+        <v>1476</v>
       </c>
       <c r="DL70" s="3" t="s">
-        <v>1633</v>
+        <v>1477</v>
       </c>
       <c r="DM70" s="3" t="s">
-        <v>1634</v>
+        <v>1478</v>
       </c>
       <c r="DN70" s="3" t="s">
-        <v>1635</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="71" spans="1:118">
@@ -30914,13 +30446,13 @@
         <v>124</v>
       </c>
       <c r="B71" t="s">
-        <v>1726</v>
+        <v>1570</v>
       </c>
       <c r="C71" t="s">
         <v>148</v>
       </c>
       <c r="D71" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E71" t="s">
         <v>148</v>
@@ -30944,25 +30476,25 @@
         <v>148</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>1547</v>
+        <v>1391</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>1548</v>
+        <v>1392</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>1549</v>
+        <v>1393</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>1550</v>
+        <v>1394</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S71" s="3" t="s">
         <v>148</v>
@@ -31013,256 +30545,256 @@
         <v>149</v>
       </c>
       <c r="AI71" s="3" t="s">
-        <v>1637</v>
+        <v>1481</v>
       </c>
       <c r="AJ71" s="3" t="s">
-        <v>1638</v>
+        <v>1482</v>
       </c>
       <c r="AK71" s="3" t="s">
-        <v>1639</v>
+        <v>1483</v>
       </c>
       <c r="AL71" s="3" t="s">
-        <v>1640</v>
+        <v>1484</v>
       </c>
       <c r="AM71" s="3" t="s">
-        <v>1641</v>
+        <v>1485</v>
       </c>
       <c r="AN71" s="3" t="s">
-        <v>1642</v>
+        <v>1486</v>
       </c>
       <c r="AO71" s="3" t="s">
-        <v>1643</v>
+        <v>1487</v>
       </c>
       <c r="AP71" s="3" t="s">
-        <v>1644</v>
+        <v>1488</v>
       </c>
       <c r="AQ71" s="3" t="s">
-        <v>1645</v>
+        <v>1489</v>
       </c>
       <c r="AR71" s="3" t="s">
-        <v>1646</v>
+        <v>1490</v>
       </c>
       <c r="AS71" s="3" t="s">
-        <v>1647</v>
+        <v>1491</v>
       </c>
       <c r="AT71" s="3" t="s">
-        <v>1648</v>
+        <v>1492</v>
       </c>
       <c r="AU71" s="3" t="s">
-        <v>1649</v>
+        <v>1493</v>
       </c>
       <c r="AV71" s="3" t="s">
-        <v>1650</v>
+        <v>1494</v>
       </c>
       <c r="AW71" s="3" t="s">
-        <v>1651</v>
+        <v>1495</v>
       </c>
       <c r="AX71" s="3" t="s">
-        <v>1652</v>
+        <v>1496</v>
       </c>
       <c r="AY71" s="3" t="s">
-        <v>1653</v>
+        <v>1497</v>
       </c>
       <c r="AZ71" s="3" t="s">
-        <v>1654</v>
+        <v>1498</v>
       </c>
       <c r="BA71" s="3" t="s">
-        <v>1655</v>
+        <v>1499</v>
       </c>
       <c r="BB71" s="3" t="s">
-        <v>1656</v>
+        <v>1500</v>
       </c>
       <c r="BC71" s="3" t="s">
-        <v>1657</v>
+        <v>1501</v>
       </c>
       <c r="BD71" s="3" t="s">
-        <v>1658</v>
+        <v>1502</v>
       </c>
       <c r="BE71" s="3" t="s">
-        <v>1659</v>
+        <v>1503</v>
       </c>
       <c r="BF71" s="3" t="s">
-        <v>1660</v>
+        <v>1504</v>
       </c>
       <c r="BG71" s="3" t="s">
-        <v>1661</v>
+        <v>1505</v>
       </c>
       <c r="BH71" s="3" t="s">
-        <v>1662</v>
+        <v>1506</v>
       </c>
       <c r="BI71" s="3" t="s">
-        <v>1663</v>
+        <v>1507</v>
       </c>
       <c r="BJ71" s="3" t="s">
-        <v>1664</v>
+        <v>1508</v>
       </c>
       <c r="BK71" s="3" t="s">
-        <v>1665</v>
+        <v>1509</v>
       </c>
       <c r="BL71" s="3" t="s">
-        <v>1666</v>
+        <v>1510</v>
       </c>
       <c r="BM71" s="3" t="s">
-        <v>1667</v>
+        <v>1511</v>
       </c>
       <c r="BN71" s="3" t="s">
-        <v>1668</v>
+        <v>1512</v>
       </c>
       <c r="BO71" s="3" t="s">
-        <v>1669</v>
+        <v>1513</v>
       </c>
       <c r="BP71" s="3" t="s">
-        <v>1670</v>
+        <v>1514</v>
       </c>
       <c r="BQ71" s="3" t="s">
-        <v>1671</v>
+        <v>1515</v>
       </c>
       <c r="BR71" s="3" t="s">
-        <v>1672</v>
+        <v>1516</v>
       </c>
       <c r="BS71" s="3" t="s">
-        <v>1673</v>
+        <v>1517</v>
       </c>
       <c r="BT71" s="3" t="s">
-        <v>1674</v>
+        <v>1518</v>
       </c>
       <c r="BU71" s="3" t="s">
-        <v>1675</v>
+        <v>1519</v>
       </c>
       <c r="BV71" s="3" t="s">
-        <v>1676</v>
+        <v>1520</v>
       </c>
       <c r="BW71" s="3" t="s">
-        <v>1677</v>
+        <v>1521</v>
       </c>
       <c r="BX71" s="3" t="s">
-        <v>1678</v>
+        <v>1522</v>
       </c>
       <c r="BY71" s="3" t="s">
-        <v>1679</v>
+        <v>1523</v>
       </c>
       <c r="BZ71" s="3" t="s">
-        <v>1680</v>
+        <v>1524</v>
       </c>
       <c r="CA71" s="3" t="s">
-        <v>1681</v>
+        <v>1525</v>
       </c>
       <c r="CB71" s="3" t="s">
-        <v>1682</v>
+        <v>1526</v>
       </c>
       <c r="CC71" s="3" t="s">
-        <v>1683</v>
+        <v>1527</v>
       </c>
       <c r="CD71" s="3" t="s">
-        <v>1684</v>
+        <v>1528</v>
       </c>
       <c r="CE71" s="3" t="s">
-        <v>1685</v>
+        <v>1529</v>
       </c>
       <c r="CF71" s="3" t="s">
-        <v>1686</v>
+        <v>1530</v>
       </c>
       <c r="CG71" s="3" t="s">
-        <v>1687</v>
+        <v>1531</v>
       </c>
       <c r="CH71" s="3" t="s">
-        <v>1688</v>
+        <v>1532</v>
       </c>
       <c r="CI71" s="3" t="s">
-        <v>1689</v>
+        <v>1533</v>
       </c>
       <c r="CJ71" s="3" t="s">
-        <v>1690</v>
+        <v>1534</v>
       </c>
       <c r="CK71" s="3" t="s">
-        <v>1691</v>
+        <v>1535</v>
       </c>
       <c r="CL71" s="3" t="s">
-        <v>1692</v>
+        <v>1536</v>
       </c>
       <c r="CM71" s="3" t="s">
-        <v>1693</v>
+        <v>1537</v>
       </c>
       <c r="CN71" s="3" t="s">
-        <v>1694</v>
+        <v>1538</v>
       </c>
       <c r="CO71" s="3" t="s">
-        <v>1695</v>
+        <v>1539</v>
       </c>
       <c r="CP71" s="3" t="s">
-        <v>1696</v>
+        <v>1540</v>
       </c>
       <c r="CQ71" s="3" t="s">
-        <v>1697</v>
+        <v>1541</v>
       </c>
       <c r="CR71" s="3" t="s">
-        <v>1698</v>
+        <v>1542</v>
       </c>
       <c r="CS71" s="3" t="s">
-        <v>1699</v>
+        <v>1543</v>
       </c>
       <c r="CT71" s="3" t="s">
-        <v>1700</v>
+        <v>1544</v>
       </c>
       <c r="CU71" s="3" t="s">
-        <v>1701</v>
+        <v>1545</v>
       </c>
       <c r="CV71" s="3" t="s">
-        <v>1702</v>
+        <v>1546</v>
       </c>
       <c r="CW71" s="3" t="s">
-        <v>1703</v>
+        <v>1547</v>
       </c>
       <c r="CX71" s="3" t="s">
-        <v>1704</v>
+        <v>1548</v>
       </c>
       <c r="CY71" s="3" t="s">
-        <v>1705</v>
+        <v>1549</v>
       </c>
       <c r="CZ71" s="3" t="s">
-        <v>1706</v>
+        <v>1550</v>
       </c>
       <c r="DA71" s="3" t="s">
-        <v>1707</v>
+        <v>1551</v>
       </c>
       <c r="DB71" s="3" t="s">
-        <v>1708</v>
+        <v>1552</v>
       </c>
       <c r="DC71" s="3" t="s">
-        <v>1709</v>
+        <v>1553</v>
       </c>
       <c r="DD71" s="3" t="s">
-        <v>1710</v>
+        <v>1554</v>
       </c>
       <c r="DE71" s="3" t="s">
-        <v>1711</v>
+        <v>1555</v>
       </c>
       <c r="DF71" s="3" t="s">
-        <v>1712</v>
+        <v>1556</v>
       </c>
       <c r="DG71" s="3" t="s">
-        <v>1713</v>
+        <v>1557</v>
       </c>
       <c r="DH71" s="3" t="s">
-        <v>1714</v>
+        <v>1558</v>
       </c>
       <c r="DI71" s="3" t="s">
-        <v>1715</v>
+        <v>1559</v>
       </c>
       <c r="DJ71" s="3" t="s">
-        <v>1716</v>
+        <v>1560</v>
       </c>
       <c r="DK71" s="3" t="s">
-        <v>1717</v>
+        <v>1561</v>
       </c>
       <c r="DL71" s="3" t="s">
-        <v>1718</v>
+        <v>1562</v>
       </c>
       <c r="DM71" s="3" t="s">
-        <v>1719</v>
+        <v>1563</v>
       </c>
       <c r="DN71" s="3" t="s">
-        <v>1720</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="72" spans="1:118">
@@ -31270,13 +30802,13 @@
         <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>1727</v>
+        <v>1571</v>
       </c>
       <c r="C72" t="s">
         <v>148</v>
       </c>
       <c r="D72" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E72" t="s">
         <v>148</v>
@@ -31300,25 +30832,25 @@
         <v>148</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>1547</v>
+        <v>1391</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>1548</v>
+        <v>1392</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>1549</v>
+        <v>1393</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>1550</v>
+        <v>1394</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>148</v>
@@ -31369,256 +30901,256 @@
         <v>149</v>
       </c>
       <c r="AI72" s="3" t="s">
-        <v>1552</v>
+        <v>1396</v>
       </c>
       <c r="AJ72" s="3" t="s">
-        <v>1553</v>
+        <v>1397</v>
       </c>
       <c r="AK72" s="3" t="s">
-        <v>1554</v>
+        <v>1398</v>
       </c>
       <c r="AL72" s="3" t="s">
-        <v>1555</v>
+        <v>1399</v>
       </c>
       <c r="AM72" s="3" t="s">
-        <v>1556</v>
+        <v>1400</v>
       </c>
       <c r="AN72" s="3" t="s">
-        <v>1557</v>
+        <v>1401</v>
       </c>
       <c r="AO72" s="3" t="s">
-        <v>1558</v>
+        <v>1402</v>
       </c>
       <c r="AP72" s="3" t="s">
-        <v>1559</v>
+        <v>1403</v>
       </c>
       <c r="AQ72" s="3" t="s">
-        <v>1560</v>
+        <v>1404</v>
       </c>
       <c r="AR72" s="3" t="s">
-        <v>1561</v>
+        <v>1405</v>
       </c>
       <c r="AS72" s="3" t="s">
-        <v>1562</v>
+        <v>1406</v>
       </c>
       <c r="AT72" s="3" t="s">
-        <v>1563</v>
+        <v>1407</v>
       </c>
       <c r="AU72" s="3" t="s">
-        <v>1564</v>
+        <v>1408</v>
       </c>
       <c r="AV72" s="3" t="s">
-        <v>1565</v>
+        <v>1409</v>
       </c>
       <c r="AW72" s="3" t="s">
-        <v>1566</v>
+        <v>1410</v>
       </c>
       <c r="AX72" s="3" t="s">
-        <v>1567</v>
+        <v>1411</v>
       </c>
       <c r="AY72" s="3" t="s">
-        <v>1568</v>
+        <v>1412</v>
       </c>
       <c r="AZ72" s="3" t="s">
-        <v>1569</v>
+        <v>1413</v>
       </c>
       <c r="BA72" s="3" t="s">
-        <v>1570</v>
+        <v>1414</v>
       </c>
       <c r="BB72" s="3" t="s">
-        <v>1571</v>
+        <v>1415</v>
       </c>
       <c r="BC72" s="3" t="s">
-        <v>1572</v>
+        <v>1416</v>
       </c>
       <c r="BD72" s="3" t="s">
-        <v>1573</v>
+        <v>1417</v>
       </c>
       <c r="BE72" s="3" t="s">
-        <v>1574</v>
+        <v>1418</v>
       </c>
       <c r="BF72" s="3" t="s">
-        <v>1575</v>
+        <v>1419</v>
       </c>
       <c r="BG72" s="3" t="s">
-        <v>1576</v>
+        <v>1420</v>
       </c>
       <c r="BH72" s="3" t="s">
-        <v>1577</v>
+        <v>1421</v>
       </c>
       <c r="BI72" s="3" t="s">
-        <v>1578</v>
+        <v>1422</v>
       </c>
       <c r="BJ72" s="3" t="s">
-        <v>1579</v>
+        <v>1423</v>
       </c>
       <c r="BK72" s="3" t="s">
-        <v>1580</v>
+        <v>1424</v>
       </c>
       <c r="BL72" s="3" t="s">
-        <v>1581</v>
+        <v>1425</v>
       </c>
       <c r="BM72" s="3" t="s">
-        <v>1582</v>
+        <v>1426</v>
       </c>
       <c r="BN72" s="3" t="s">
-        <v>1583</v>
+        <v>1427</v>
       </c>
       <c r="BO72" s="3" t="s">
-        <v>1584</v>
+        <v>1428</v>
       </c>
       <c r="BP72" s="3" t="s">
-        <v>1585</v>
+        <v>1429</v>
       </c>
       <c r="BQ72" s="3" t="s">
-        <v>1586</v>
+        <v>1430</v>
       </c>
       <c r="BR72" s="3" t="s">
-        <v>1587</v>
+        <v>1431</v>
       </c>
       <c r="BS72" s="3" t="s">
-        <v>1588</v>
+        <v>1432</v>
       </c>
       <c r="BT72" s="3" t="s">
-        <v>1589</v>
+        <v>1433</v>
       </c>
       <c r="BU72" s="3" t="s">
-        <v>1590</v>
+        <v>1434</v>
       </c>
       <c r="BV72" s="3" t="s">
-        <v>1591</v>
+        <v>1435</v>
       </c>
       <c r="BW72" s="3" t="s">
-        <v>1592</v>
+        <v>1436</v>
       </c>
       <c r="BX72" s="3" t="s">
-        <v>1593</v>
+        <v>1437</v>
       </c>
       <c r="BY72" s="3" t="s">
-        <v>1594</v>
+        <v>1438</v>
       </c>
       <c r="BZ72" s="3" t="s">
-        <v>1595</v>
+        <v>1439</v>
       </c>
       <c r="CA72" s="3" t="s">
-        <v>1596</v>
+        <v>1440</v>
       </c>
       <c r="CB72" s="3" t="s">
-        <v>1597</v>
+        <v>1441</v>
       </c>
       <c r="CC72" s="3" t="s">
-        <v>1598</v>
+        <v>1442</v>
       </c>
       <c r="CD72" s="3" t="s">
-        <v>1599</v>
+        <v>1443</v>
       </c>
       <c r="CE72" s="3" t="s">
-        <v>1600</v>
+        <v>1444</v>
       </c>
       <c r="CF72" s="3" t="s">
-        <v>1601</v>
+        <v>1445</v>
       </c>
       <c r="CG72" s="3" t="s">
-        <v>1602</v>
+        <v>1446</v>
       </c>
       <c r="CH72" s="3" t="s">
-        <v>1603</v>
+        <v>1447</v>
       </c>
       <c r="CI72" s="3" t="s">
-        <v>1604</v>
+        <v>1448</v>
       </c>
       <c r="CJ72" s="3" t="s">
-        <v>1605</v>
+        <v>1449</v>
       </c>
       <c r="CK72" s="3" t="s">
-        <v>1606</v>
+        <v>1450</v>
       </c>
       <c r="CL72" s="3" t="s">
-        <v>1607</v>
+        <v>1451</v>
       </c>
       <c r="CM72" s="3" t="s">
-        <v>1608</v>
+        <v>1452</v>
       </c>
       <c r="CN72" s="3" t="s">
-        <v>1609</v>
+        <v>1453</v>
       </c>
       <c r="CO72" s="3" t="s">
-        <v>1610</v>
+        <v>1454</v>
       </c>
       <c r="CP72" s="3" t="s">
-        <v>1611</v>
+        <v>1455</v>
       </c>
       <c r="CQ72" s="3" t="s">
-        <v>1612</v>
+        <v>1456</v>
       </c>
       <c r="CR72" s="3" t="s">
-        <v>1613</v>
+        <v>1457</v>
       </c>
       <c r="CS72" s="3" t="s">
-        <v>1614</v>
+        <v>1458</v>
       </c>
       <c r="CT72" s="3" t="s">
-        <v>1615</v>
+        <v>1459</v>
       </c>
       <c r="CU72" s="3" t="s">
-        <v>1616</v>
+        <v>1460</v>
       </c>
       <c r="CV72" s="3" t="s">
-        <v>1617</v>
+        <v>1461</v>
       </c>
       <c r="CW72" s="3" t="s">
-        <v>1618</v>
+        <v>1462</v>
       </c>
       <c r="CX72" s="3" t="s">
-        <v>1619</v>
+        <v>1463</v>
       </c>
       <c r="CY72" s="3" t="s">
-        <v>1620</v>
+        <v>1464</v>
       </c>
       <c r="CZ72" s="3" t="s">
-        <v>1621</v>
+        <v>1465</v>
       </c>
       <c r="DA72" s="3" t="s">
-        <v>1622</v>
+        <v>1466</v>
       </c>
       <c r="DB72" s="3" t="s">
-        <v>1623</v>
+        <v>1467</v>
       </c>
       <c r="DC72" s="3" t="s">
-        <v>1624</v>
+        <v>1468</v>
       </c>
       <c r="DD72" s="3" t="s">
-        <v>1625</v>
+        <v>1469</v>
       </c>
       <c r="DE72" s="3" t="s">
-        <v>1626</v>
+        <v>1470</v>
       </c>
       <c r="DF72" s="3" t="s">
-        <v>1627</v>
+        <v>1471</v>
       </c>
       <c r="DG72" s="3" t="s">
-        <v>1628</v>
+        <v>1472</v>
       </c>
       <c r="DH72" s="3" t="s">
-        <v>1629</v>
+        <v>1473</v>
       </c>
       <c r="DI72" s="3" t="s">
-        <v>1630</v>
+        <v>1474</v>
       </c>
       <c r="DJ72" s="3" t="s">
-        <v>1631</v>
+        <v>1475</v>
       </c>
       <c r="DK72" s="3" t="s">
-        <v>1632</v>
+        <v>1476</v>
       </c>
       <c r="DL72" s="3" t="s">
-        <v>1633</v>
+        <v>1477</v>
       </c>
       <c r="DM72" s="3" t="s">
-        <v>1634</v>
+        <v>1478</v>
       </c>
       <c r="DN72" s="3" t="s">
-        <v>1635</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="73" spans="1:118">
@@ -31626,13 +31158,13 @@
         <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>1728</v>
+        <v>1572</v>
       </c>
       <c r="C73" t="s">
         <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E73" t="s">
         <v>148</v>
@@ -31656,25 +31188,25 @@
         <v>148</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>1547</v>
+        <v>1391</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>1548</v>
+        <v>1392</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>1549</v>
+        <v>1393</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>1550</v>
+        <v>1394</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S73" s="3" t="s">
         <v>148</v>
@@ -31725,256 +31257,256 @@
         <v>149</v>
       </c>
       <c r="AI73" s="3" t="s">
-        <v>1637</v>
+        <v>1481</v>
       </c>
       <c r="AJ73" s="3" t="s">
-        <v>1638</v>
+        <v>1482</v>
       </c>
       <c r="AK73" s="3" t="s">
-        <v>1639</v>
+        <v>1483</v>
       </c>
       <c r="AL73" s="3" t="s">
-        <v>1640</v>
+        <v>1484</v>
       </c>
       <c r="AM73" s="3" t="s">
-        <v>1641</v>
+        <v>1485</v>
       </c>
       <c r="AN73" s="3" t="s">
-        <v>1642</v>
+        <v>1486</v>
       </c>
       <c r="AO73" s="3" t="s">
-        <v>1643</v>
+        <v>1487</v>
       </c>
       <c r="AP73" s="3" t="s">
-        <v>1644</v>
+        <v>1488</v>
       </c>
       <c r="AQ73" s="3" t="s">
-        <v>1645</v>
+        <v>1489</v>
       </c>
       <c r="AR73" s="3" t="s">
-        <v>1646</v>
+        <v>1490</v>
       </c>
       <c r="AS73" s="3" t="s">
-        <v>1647</v>
+        <v>1491</v>
       </c>
       <c r="AT73" s="3" t="s">
-        <v>1648</v>
+        <v>1492</v>
       </c>
       <c r="AU73" s="3" t="s">
-        <v>1649</v>
+        <v>1493</v>
       </c>
       <c r="AV73" s="3" t="s">
-        <v>1650</v>
+        <v>1494</v>
       </c>
       <c r="AW73" s="3" t="s">
-        <v>1651</v>
+        <v>1495</v>
       </c>
       <c r="AX73" s="3" t="s">
-        <v>1652</v>
+        <v>1496</v>
       </c>
       <c r="AY73" s="3" t="s">
-        <v>1653</v>
+        <v>1497</v>
       </c>
       <c r="AZ73" s="3" t="s">
-        <v>1654</v>
+        <v>1498</v>
       </c>
       <c r="BA73" s="3" t="s">
-        <v>1655</v>
+        <v>1499</v>
       </c>
       <c r="BB73" s="3" t="s">
-        <v>1656</v>
+        <v>1500</v>
       </c>
       <c r="BC73" s="3" t="s">
-        <v>1657</v>
+        <v>1501</v>
       </c>
       <c r="BD73" s="3" t="s">
-        <v>1658</v>
+        <v>1502</v>
       </c>
       <c r="BE73" s="3" t="s">
-        <v>1659</v>
+        <v>1503</v>
       </c>
       <c r="BF73" s="3" t="s">
-        <v>1660</v>
+        <v>1504</v>
       </c>
       <c r="BG73" s="3" t="s">
-        <v>1661</v>
+        <v>1505</v>
       </c>
       <c r="BH73" s="3" t="s">
-        <v>1662</v>
+        <v>1506</v>
       </c>
       <c r="BI73" s="3" t="s">
-        <v>1663</v>
+        <v>1507</v>
       </c>
       <c r="BJ73" s="3" t="s">
-        <v>1664</v>
+        <v>1508</v>
       </c>
       <c r="BK73" s="3" t="s">
-        <v>1665</v>
+        <v>1509</v>
       </c>
       <c r="BL73" s="3" t="s">
-        <v>1666</v>
+        <v>1510</v>
       </c>
       <c r="BM73" s="3" t="s">
-        <v>1667</v>
+        <v>1511</v>
       </c>
       <c r="BN73" s="3" t="s">
-        <v>1668</v>
+        <v>1512</v>
       </c>
       <c r="BO73" s="3" t="s">
-        <v>1669</v>
+        <v>1513</v>
       </c>
       <c r="BP73" s="3" t="s">
-        <v>1670</v>
+        <v>1514</v>
       </c>
       <c r="BQ73" s="3" t="s">
-        <v>1671</v>
+        <v>1515</v>
       </c>
       <c r="BR73" s="3" t="s">
-        <v>1672</v>
+        <v>1516</v>
       </c>
       <c r="BS73" s="3" t="s">
-        <v>1673</v>
+        <v>1517</v>
       </c>
       <c r="BT73" s="3" t="s">
-        <v>1674</v>
+        <v>1518</v>
       </c>
       <c r="BU73" s="3" t="s">
-        <v>1675</v>
+        <v>1519</v>
       </c>
       <c r="BV73" s="3" t="s">
-        <v>1676</v>
+        <v>1520</v>
       </c>
       <c r="BW73" s="3" t="s">
-        <v>1677</v>
+        <v>1521</v>
       </c>
       <c r="BX73" s="3" t="s">
-        <v>1678</v>
+        <v>1522</v>
       </c>
       <c r="BY73" s="3" t="s">
-        <v>1679</v>
+        <v>1523</v>
       </c>
       <c r="BZ73" s="3" t="s">
-        <v>1680</v>
+        <v>1524</v>
       </c>
       <c r="CA73" s="3" t="s">
-        <v>1681</v>
+        <v>1525</v>
       </c>
       <c r="CB73" s="3" t="s">
-        <v>1682</v>
+        <v>1526</v>
       </c>
       <c r="CC73" s="3" t="s">
-        <v>1683</v>
+        <v>1527</v>
       </c>
       <c r="CD73" s="3" t="s">
-        <v>1684</v>
+        <v>1528</v>
       </c>
       <c r="CE73" s="3" t="s">
-        <v>1685</v>
+        <v>1529</v>
       </c>
       <c r="CF73" s="3" t="s">
-        <v>1686</v>
+        <v>1530</v>
       </c>
       <c r="CG73" s="3" t="s">
-        <v>1687</v>
+        <v>1531</v>
       </c>
       <c r="CH73" s="3" t="s">
-        <v>1688</v>
+        <v>1532</v>
       </c>
       <c r="CI73" s="3" t="s">
-        <v>1689</v>
+        <v>1533</v>
       </c>
       <c r="CJ73" s="3" t="s">
-        <v>1690</v>
+        <v>1534</v>
       </c>
       <c r="CK73" s="3" t="s">
-        <v>1691</v>
+        <v>1535</v>
       </c>
       <c r="CL73" s="3" t="s">
-        <v>1692</v>
+        <v>1536</v>
       </c>
       <c r="CM73" s="3" t="s">
-        <v>1693</v>
+        <v>1537</v>
       </c>
       <c r="CN73" s="3" t="s">
-        <v>1694</v>
+        <v>1538</v>
       </c>
       <c r="CO73" s="3" t="s">
-        <v>1695</v>
+        <v>1539</v>
       </c>
       <c r="CP73" s="3" t="s">
-        <v>1696</v>
+        <v>1540</v>
       </c>
       <c r="CQ73" s="3" t="s">
-        <v>1697</v>
+        <v>1541</v>
       </c>
       <c r="CR73" s="3" t="s">
-        <v>1698</v>
+        <v>1542</v>
       </c>
       <c r="CS73" s="3" t="s">
-        <v>1699</v>
+        <v>1543</v>
       </c>
       <c r="CT73" s="3" t="s">
-        <v>1700</v>
+        <v>1544</v>
       </c>
       <c r="CU73" s="3" t="s">
-        <v>1701</v>
+        <v>1545</v>
       </c>
       <c r="CV73" s="3" t="s">
-        <v>1702</v>
+        <v>1546</v>
       </c>
       <c r="CW73" s="3" t="s">
-        <v>1703</v>
+        <v>1547</v>
       </c>
       <c r="CX73" s="3" t="s">
-        <v>1704</v>
+        <v>1548</v>
       </c>
       <c r="CY73" s="3" t="s">
-        <v>1705</v>
+        <v>1549</v>
       </c>
       <c r="CZ73" s="3" t="s">
-        <v>1706</v>
+        <v>1550</v>
       </c>
       <c r="DA73" s="3" t="s">
-        <v>1707</v>
+        <v>1551</v>
       </c>
       <c r="DB73" s="3" t="s">
-        <v>1708</v>
+        <v>1552</v>
       </c>
       <c r="DC73" s="3" t="s">
-        <v>1709</v>
+        <v>1553</v>
       </c>
       <c r="DD73" s="3" t="s">
-        <v>1710</v>
+        <v>1554</v>
       </c>
       <c r="DE73" s="3" t="s">
-        <v>1711</v>
+        <v>1555</v>
       </c>
       <c r="DF73" s="3" t="s">
-        <v>1712</v>
+        <v>1556</v>
       </c>
       <c r="DG73" s="3" t="s">
-        <v>1713</v>
+        <v>1557</v>
       </c>
       <c r="DH73" s="3" t="s">
-        <v>1714</v>
+        <v>1558</v>
       </c>
       <c r="DI73" s="3" t="s">
-        <v>1715</v>
+        <v>1559</v>
       </c>
       <c r="DJ73" s="3" t="s">
-        <v>1716</v>
+        <v>1560</v>
       </c>
       <c r="DK73" s="3" t="s">
-        <v>1717</v>
+        <v>1561</v>
       </c>
       <c r="DL73" s="3" t="s">
-        <v>1718</v>
+        <v>1562</v>
       </c>
       <c r="DM73" s="3" t="s">
-        <v>1719</v>
+        <v>1563</v>
       </c>
       <c r="DN73" s="3" t="s">
-        <v>1720</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="74" spans="1:118">
@@ -31982,13 +31514,13 @@
         <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>1729</v>
+        <v>1573</v>
       </c>
       <c r="C74" t="s">
         <v>148</v>
       </c>
       <c r="D74" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E74" t="s">
         <v>148</v>
@@ -32012,25 +31544,25 @@
         <v>148</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>1730</v>
+        <v>1574</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>1731</v>
+        <v>1575</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>1732</v>
+        <v>1576</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>1733</v>
+        <v>1577</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S74" s="3" t="s">
         <v>148</v>
@@ -32081,256 +31613,256 @@
         <v>149</v>
       </c>
       <c r="AI74" s="3" t="s">
-        <v>1734</v>
+        <v>1578</v>
       </c>
       <c r="AJ74" s="3" t="s">
-        <v>1735</v>
+        <v>1579</v>
       </c>
       <c r="AK74" s="3" t="s">
-        <v>1736</v>
+        <v>1580</v>
       </c>
       <c r="AL74" s="3" t="s">
-        <v>1737</v>
+        <v>1581</v>
       </c>
       <c r="AM74" s="3" t="s">
-        <v>1738</v>
+        <v>1582</v>
       </c>
       <c r="AN74" s="3" t="s">
-        <v>1739</v>
+        <v>1583</v>
       </c>
       <c r="AO74" s="3" t="s">
-        <v>1740</v>
+        <v>1584</v>
       </c>
       <c r="AP74" s="3" t="s">
-        <v>1741</v>
+        <v>1585</v>
       </c>
       <c r="AQ74" s="3" t="s">
-        <v>1742</v>
+        <v>1586</v>
       </c>
       <c r="AR74" s="3" t="s">
-        <v>1743</v>
+        <v>1587</v>
       </c>
       <c r="AS74" s="3" t="s">
-        <v>1744</v>
+        <v>1588</v>
       </c>
       <c r="AT74" s="3" t="s">
-        <v>1745</v>
+        <v>1589</v>
       </c>
       <c r="AU74" s="3" t="s">
-        <v>1746</v>
+        <v>1590</v>
       </c>
       <c r="AV74" s="3" t="s">
-        <v>1747</v>
+        <v>1591</v>
       </c>
       <c r="AW74" s="3" t="s">
-        <v>1748</v>
+        <v>1592</v>
       </c>
       <c r="AX74" s="3" t="s">
-        <v>1749</v>
+        <v>1593</v>
       </c>
       <c r="AY74" s="3" t="s">
-        <v>1750</v>
+        <v>1594</v>
       </c>
       <c r="AZ74" s="3" t="s">
-        <v>1751</v>
+        <v>1595</v>
       </c>
       <c r="BA74" s="3" t="s">
-        <v>1752</v>
+        <v>1596</v>
       </c>
       <c r="BB74" s="3" t="s">
-        <v>1753</v>
+        <v>1597</v>
       </c>
       <c r="BC74" s="3" t="s">
-        <v>1754</v>
+        <v>1598</v>
       </c>
       <c r="BD74" s="3" t="s">
-        <v>1755</v>
+        <v>1599</v>
       </c>
       <c r="BE74" s="3" t="s">
-        <v>1756</v>
+        <v>1600</v>
       </c>
       <c r="BF74" s="3" t="s">
-        <v>1757</v>
+        <v>1601</v>
       </c>
       <c r="BG74" s="3" t="s">
-        <v>1758</v>
+        <v>1602</v>
       </c>
       <c r="BH74" s="3" t="s">
-        <v>1759</v>
+        <v>1603</v>
       </c>
       <c r="BI74" s="3" t="s">
-        <v>1760</v>
+        <v>1604</v>
       </c>
       <c r="BJ74" s="3" t="s">
-        <v>1761</v>
+        <v>1605</v>
       </c>
       <c r="BK74" s="3" t="s">
-        <v>1762</v>
+        <v>1606</v>
       </c>
       <c r="BL74" s="3" t="s">
-        <v>1763</v>
+        <v>1607</v>
       </c>
       <c r="BM74" s="3" t="s">
-        <v>1764</v>
+        <v>1608</v>
       </c>
       <c r="BN74" s="3" t="s">
-        <v>1765</v>
+        <v>1609</v>
       </c>
       <c r="BO74" s="3" t="s">
-        <v>1766</v>
+        <v>1610</v>
       </c>
       <c r="BP74" s="3" t="s">
-        <v>1767</v>
+        <v>1611</v>
       </c>
       <c r="BQ74" s="3" t="s">
-        <v>1768</v>
+        <v>1612</v>
       </c>
       <c r="BR74" s="3" t="s">
-        <v>1769</v>
+        <v>1613</v>
       </c>
       <c r="BS74" s="3" t="s">
-        <v>1770</v>
+        <v>1614</v>
       </c>
       <c r="BT74" s="3" t="s">
-        <v>1771</v>
+        <v>1615</v>
       </c>
       <c r="BU74" s="3" t="s">
-        <v>1772</v>
+        <v>1616</v>
       </c>
       <c r="BV74" s="3" t="s">
-        <v>1773</v>
+        <v>1617</v>
       </c>
       <c r="BW74" s="3" t="s">
-        <v>1774</v>
+        <v>1618</v>
       </c>
       <c r="BX74" s="3" t="s">
-        <v>1775</v>
+        <v>1619</v>
       </c>
       <c r="BY74" s="3" t="s">
-        <v>1776</v>
+        <v>1620</v>
       </c>
       <c r="BZ74" s="3" t="s">
-        <v>1777</v>
+        <v>1621</v>
       </c>
       <c r="CA74" s="3" t="s">
-        <v>1778</v>
+        <v>1622</v>
       </c>
       <c r="CB74" s="3" t="s">
-        <v>1779</v>
+        <v>1623</v>
       </c>
       <c r="CC74" s="3" t="s">
-        <v>1780</v>
+        <v>1624</v>
       </c>
       <c r="CD74" s="3" t="s">
-        <v>1781</v>
+        <v>1625</v>
       </c>
       <c r="CE74" s="3" t="s">
-        <v>1782</v>
+        <v>1626</v>
       </c>
       <c r="CF74" s="3" t="s">
-        <v>1783</v>
+        <v>1627</v>
       </c>
       <c r="CG74" s="3" t="s">
-        <v>1784</v>
+        <v>1628</v>
       </c>
       <c r="CH74" s="3" t="s">
-        <v>1785</v>
+        <v>1629</v>
       </c>
       <c r="CI74" s="3" t="s">
-        <v>1786</v>
+        <v>1630</v>
       </c>
       <c r="CJ74" s="3" t="s">
-        <v>1787</v>
+        <v>1631</v>
       </c>
       <c r="CK74" s="3" t="s">
-        <v>1788</v>
+        <v>1632</v>
       </c>
       <c r="CL74" s="3" t="s">
-        <v>1789</v>
+        <v>1633</v>
       </c>
       <c r="CM74" s="3" t="s">
-        <v>1790</v>
+        <v>1634</v>
       </c>
       <c r="CN74" s="3" t="s">
-        <v>1791</v>
+        <v>1635</v>
       </c>
       <c r="CO74" s="3" t="s">
-        <v>1792</v>
+        <v>1636</v>
       </c>
       <c r="CP74" s="3" t="s">
-        <v>1793</v>
+        <v>1637</v>
       </c>
       <c r="CQ74" s="3" t="s">
-        <v>1794</v>
+        <v>1638</v>
       </c>
       <c r="CR74" s="3" t="s">
-        <v>1795</v>
+        <v>1639</v>
       </c>
       <c r="CS74" s="3" t="s">
-        <v>1796</v>
+        <v>1640</v>
       </c>
       <c r="CT74" s="3" t="s">
-        <v>1797</v>
+        <v>1641</v>
       </c>
       <c r="CU74" s="3" t="s">
-        <v>1798</v>
+        <v>1642</v>
       </c>
       <c r="CV74" s="3" t="s">
-        <v>1799</v>
+        <v>1643</v>
       </c>
       <c r="CW74" s="3" t="s">
-        <v>1800</v>
+        <v>1644</v>
       </c>
       <c r="CX74" s="3" t="s">
-        <v>1801</v>
+        <v>1645</v>
       </c>
       <c r="CY74" s="3" t="s">
-        <v>1802</v>
+        <v>1646</v>
       </c>
       <c r="CZ74" s="3" t="s">
-        <v>1803</v>
+        <v>1647</v>
       </c>
       <c r="DA74" s="3" t="s">
-        <v>1804</v>
+        <v>1648</v>
       </c>
       <c r="DB74" s="3" t="s">
-        <v>1805</v>
+        <v>1649</v>
       </c>
       <c r="DC74" s="3" t="s">
-        <v>1806</v>
+        <v>1650</v>
       </c>
       <c r="DD74" s="3" t="s">
-        <v>1807</v>
+        <v>1651</v>
       </c>
       <c r="DE74" s="3" t="s">
-        <v>1808</v>
+        <v>1652</v>
       </c>
       <c r="DF74" s="3" t="s">
-        <v>1809</v>
+        <v>1653</v>
       </c>
       <c r="DG74" s="3" t="s">
-        <v>1810</v>
+        <v>1654</v>
       </c>
       <c r="DH74" s="3" t="s">
-        <v>1811</v>
+        <v>1655</v>
       </c>
       <c r="DI74" s="3" t="s">
-        <v>1812</v>
+        <v>1656</v>
       </c>
       <c r="DJ74" s="3" t="s">
-        <v>1813</v>
+        <v>1657</v>
       </c>
       <c r="DK74" s="3" t="s">
-        <v>1814</v>
+        <v>1658</v>
       </c>
       <c r="DL74" s="3" t="s">
-        <v>1815</v>
+        <v>1659</v>
       </c>
       <c r="DM74" s="3" t="s">
-        <v>1816</v>
+        <v>1660</v>
       </c>
       <c r="DN74" s="3" t="s">
-        <v>1817</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="75" spans="1:118">
@@ -32338,13 +31870,13 @@
         <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>1818</v>
+        <v>1662</v>
       </c>
       <c r="C75" t="s">
         <v>148</v>
       </c>
       <c r="D75" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E75" t="s">
         <v>148</v>
@@ -32368,25 +31900,25 @@
         <v>148</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>1730</v>
+        <v>1574</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>1731</v>
+        <v>1575</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>1732</v>
+        <v>1576</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>1733</v>
+        <v>1577</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S75" s="3" t="s">
         <v>148</v>
@@ -32437,256 +31969,256 @@
         <v>149</v>
       </c>
       <c r="AI75" s="3" t="s">
-        <v>1819</v>
+        <v>1663</v>
       </c>
       <c r="AJ75" s="3" t="s">
-        <v>1820</v>
+        <v>1664</v>
       </c>
       <c r="AK75" s="3" t="s">
-        <v>1821</v>
+        <v>1665</v>
       </c>
       <c r="AL75" s="3" t="s">
-        <v>1822</v>
+        <v>1666</v>
       </c>
       <c r="AM75" s="3" t="s">
-        <v>1823</v>
+        <v>1667</v>
       </c>
       <c r="AN75" s="3" t="s">
-        <v>1824</v>
+        <v>1668</v>
       </c>
       <c r="AO75" s="3" t="s">
-        <v>1825</v>
+        <v>1669</v>
       </c>
       <c r="AP75" s="3" t="s">
-        <v>1826</v>
+        <v>1670</v>
       </c>
       <c r="AQ75" s="3" t="s">
-        <v>1827</v>
+        <v>1671</v>
       </c>
       <c r="AR75" s="3" t="s">
-        <v>1828</v>
+        <v>1672</v>
       </c>
       <c r="AS75" s="3" t="s">
-        <v>1829</v>
+        <v>1673</v>
       </c>
       <c r="AT75" s="3" t="s">
-        <v>1830</v>
+        <v>1674</v>
       </c>
       <c r="AU75" s="3" t="s">
-        <v>1831</v>
+        <v>1675</v>
       </c>
       <c r="AV75" s="3" t="s">
-        <v>1832</v>
+        <v>1676</v>
       </c>
       <c r="AW75" s="3" t="s">
-        <v>1833</v>
+        <v>1677</v>
       </c>
       <c r="AX75" s="3" t="s">
-        <v>1834</v>
+        <v>1678</v>
       </c>
       <c r="AY75" s="3" t="s">
-        <v>1835</v>
+        <v>1679</v>
       </c>
       <c r="AZ75" s="3" t="s">
-        <v>1836</v>
+        <v>1680</v>
       </c>
       <c r="BA75" s="3" t="s">
-        <v>1837</v>
+        <v>1681</v>
       </c>
       <c r="BB75" s="3" t="s">
-        <v>1838</v>
+        <v>1682</v>
       </c>
       <c r="BC75" s="3" t="s">
-        <v>1839</v>
+        <v>1683</v>
       </c>
       <c r="BD75" s="3" t="s">
-        <v>1840</v>
+        <v>1684</v>
       </c>
       <c r="BE75" s="3" t="s">
-        <v>1841</v>
+        <v>1685</v>
       </c>
       <c r="BF75" s="3" t="s">
-        <v>1842</v>
+        <v>1686</v>
       </c>
       <c r="BG75" s="3" t="s">
-        <v>1843</v>
+        <v>1687</v>
       </c>
       <c r="BH75" s="3" t="s">
-        <v>1844</v>
+        <v>1688</v>
       </c>
       <c r="BI75" s="3" t="s">
-        <v>1845</v>
+        <v>1689</v>
       </c>
       <c r="BJ75" s="3" t="s">
-        <v>1846</v>
+        <v>1690</v>
       </c>
       <c r="BK75" s="3" t="s">
-        <v>1847</v>
+        <v>1691</v>
       </c>
       <c r="BL75" s="3" t="s">
-        <v>1848</v>
+        <v>1692</v>
       </c>
       <c r="BM75" s="3" t="s">
-        <v>1849</v>
+        <v>1693</v>
       </c>
       <c r="BN75" s="3" t="s">
-        <v>1850</v>
+        <v>1694</v>
       </c>
       <c r="BO75" s="3" t="s">
-        <v>1851</v>
+        <v>1695</v>
       </c>
       <c r="BP75" s="3" t="s">
-        <v>1852</v>
+        <v>1696</v>
       </c>
       <c r="BQ75" s="3" t="s">
-        <v>1853</v>
+        <v>1697</v>
       </c>
       <c r="BR75" s="3" t="s">
-        <v>1854</v>
+        <v>1698</v>
       </c>
       <c r="BS75" s="3" t="s">
-        <v>1855</v>
+        <v>1699</v>
       </c>
       <c r="BT75" s="3" t="s">
-        <v>1856</v>
+        <v>1700</v>
       </c>
       <c r="BU75" s="3" t="s">
-        <v>1857</v>
+        <v>1701</v>
       </c>
       <c r="BV75" s="3" t="s">
-        <v>1858</v>
+        <v>1702</v>
       </c>
       <c r="BW75" s="3" t="s">
-        <v>1859</v>
+        <v>1703</v>
       </c>
       <c r="BX75" s="3" t="s">
-        <v>1860</v>
+        <v>1704</v>
       </c>
       <c r="BY75" s="3" t="s">
-        <v>1861</v>
+        <v>1705</v>
       </c>
       <c r="BZ75" s="3" t="s">
-        <v>1862</v>
+        <v>1706</v>
       </c>
       <c r="CA75" s="3" t="s">
-        <v>1863</v>
+        <v>1707</v>
       </c>
       <c r="CB75" s="3" t="s">
-        <v>1864</v>
+        <v>1708</v>
       </c>
       <c r="CC75" s="3" t="s">
-        <v>1865</v>
+        <v>1709</v>
       </c>
       <c r="CD75" s="3" t="s">
-        <v>1866</v>
+        <v>1710</v>
       </c>
       <c r="CE75" s="3" t="s">
-        <v>1867</v>
+        <v>1711</v>
       </c>
       <c r="CF75" s="3" t="s">
-        <v>1868</v>
+        <v>1712</v>
       </c>
       <c r="CG75" s="3" t="s">
-        <v>1869</v>
+        <v>1713</v>
       </c>
       <c r="CH75" s="3" t="s">
-        <v>1870</v>
+        <v>1714</v>
       </c>
       <c r="CI75" s="3" t="s">
-        <v>1871</v>
+        <v>1715</v>
       </c>
       <c r="CJ75" s="3" t="s">
-        <v>1872</v>
+        <v>1716</v>
       </c>
       <c r="CK75" s="3" t="s">
-        <v>1873</v>
+        <v>1717</v>
       </c>
       <c r="CL75" s="3" t="s">
-        <v>1874</v>
+        <v>1718</v>
       </c>
       <c r="CM75" s="3" t="s">
-        <v>1875</v>
+        <v>1719</v>
       </c>
       <c r="CN75" s="3" t="s">
-        <v>1876</v>
+        <v>1720</v>
       </c>
       <c r="CO75" s="3" t="s">
-        <v>1877</v>
+        <v>1721</v>
       </c>
       <c r="CP75" s="3" t="s">
-        <v>1878</v>
+        <v>1722</v>
       </c>
       <c r="CQ75" s="3" t="s">
-        <v>1879</v>
+        <v>1723</v>
       </c>
       <c r="CR75" s="3" t="s">
-        <v>1880</v>
+        <v>1724</v>
       </c>
       <c r="CS75" s="3" t="s">
-        <v>1881</v>
+        <v>1725</v>
       </c>
       <c r="CT75" s="3" t="s">
-        <v>1882</v>
+        <v>1726</v>
       </c>
       <c r="CU75" s="3" t="s">
-        <v>1883</v>
+        <v>1727</v>
       </c>
       <c r="CV75" s="3" t="s">
-        <v>1884</v>
+        <v>1728</v>
       </c>
       <c r="CW75" s="3" t="s">
-        <v>1885</v>
+        <v>1729</v>
       </c>
       <c r="CX75" s="3" t="s">
-        <v>1886</v>
+        <v>1730</v>
       </c>
       <c r="CY75" s="3" t="s">
-        <v>1887</v>
+        <v>1731</v>
       </c>
       <c r="CZ75" s="3" t="s">
-        <v>1888</v>
+        <v>1732</v>
       </c>
       <c r="DA75" s="3" t="s">
-        <v>1889</v>
+        <v>1733</v>
       </c>
       <c r="DB75" s="3" t="s">
-        <v>1890</v>
+        <v>1734</v>
       </c>
       <c r="DC75" s="3" t="s">
-        <v>1891</v>
+        <v>1735</v>
       </c>
       <c r="DD75" s="3" t="s">
-        <v>1892</v>
+        <v>1736</v>
       </c>
       <c r="DE75" s="3" t="s">
-        <v>1893</v>
+        <v>1737</v>
       </c>
       <c r="DF75" s="3" t="s">
-        <v>1894</v>
+        <v>1738</v>
       </c>
       <c r="DG75" s="3" t="s">
-        <v>1895</v>
+        <v>1739</v>
       </c>
       <c r="DH75" s="3" t="s">
-        <v>1896</v>
+        <v>1740</v>
       </c>
       <c r="DI75" s="3" t="s">
-        <v>1897</v>
+        <v>1741</v>
       </c>
       <c r="DJ75" s="3" t="s">
-        <v>1898</v>
+        <v>1742</v>
       </c>
       <c r="DK75" s="3" t="s">
-        <v>1899</v>
+        <v>1743</v>
       </c>
       <c r="DL75" s="3" t="s">
-        <v>1900</v>
+        <v>1744</v>
       </c>
       <c r="DM75" s="3" t="s">
-        <v>1901</v>
+        <v>1745</v>
       </c>
       <c r="DN75" s="3" t="s">
-        <v>1902</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="76" spans="1:118">
@@ -32694,13 +32226,13 @@
         <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>1903</v>
+        <v>1747</v>
       </c>
       <c r="C76" t="s">
         <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E76" t="s">
         <v>148</v>
@@ -32724,25 +32256,25 @@
         <v>148</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>1730</v>
+        <v>1574</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>1731</v>
+        <v>1575</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>1732</v>
+        <v>1576</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>1733</v>
+        <v>1577</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>148</v>
@@ -32793,256 +32325,256 @@
         <v>149</v>
       </c>
       <c r="AI76" s="3" t="s">
-        <v>1734</v>
+        <v>1578</v>
       </c>
       <c r="AJ76" s="3" t="s">
-        <v>1735</v>
+        <v>1579</v>
       </c>
       <c r="AK76" s="3" t="s">
-        <v>1736</v>
+        <v>1580</v>
       </c>
       <c r="AL76" s="3" t="s">
-        <v>1737</v>
+        <v>1581</v>
       </c>
       <c r="AM76" s="3" t="s">
-        <v>1738</v>
+        <v>1582</v>
       </c>
       <c r="AN76" s="3" t="s">
-        <v>1739</v>
+        <v>1583</v>
       </c>
       <c r="AO76" s="3" t="s">
-        <v>1740</v>
+        <v>1584</v>
       </c>
       <c r="AP76" s="3" t="s">
-        <v>1741</v>
+        <v>1585</v>
       </c>
       <c r="AQ76" s="3" t="s">
-        <v>1742</v>
+        <v>1586</v>
       </c>
       <c r="AR76" s="3" t="s">
-        <v>1743</v>
+        <v>1587</v>
       </c>
       <c r="AS76" s="3" t="s">
-        <v>1744</v>
+        <v>1588</v>
       </c>
       <c r="AT76" s="3" t="s">
-        <v>1745</v>
+        <v>1589</v>
       </c>
       <c r="AU76" s="3" t="s">
-        <v>1746</v>
+        <v>1590</v>
       </c>
       <c r="AV76" s="3" t="s">
-        <v>1747</v>
+        <v>1591</v>
       </c>
       <c r="AW76" s="3" t="s">
-        <v>1748</v>
+        <v>1592</v>
       </c>
       <c r="AX76" s="3" t="s">
-        <v>1749</v>
+        <v>1593</v>
       </c>
       <c r="AY76" s="3" t="s">
-        <v>1750</v>
+        <v>1594</v>
       </c>
       <c r="AZ76" s="3" t="s">
-        <v>1751</v>
+        <v>1595</v>
       </c>
       <c r="BA76" s="3" t="s">
-        <v>1752</v>
+        <v>1596</v>
       </c>
       <c r="BB76" s="3" t="s">
-        <v>1753</v>
+        <v>1597</v>
       </c>
       <c r="BC76" s="3" t="s">
-        <v>1754</v>
+        <v>1598</v>
       </c>
       <c r="BD76" s="3" t="s">
-        <v>1755</v>
+        <v>1599</v>
       </c>
       <c r="BE76" s="3" t="s">
-        <v>1756</v>
+        <v>1600</v>
       </c>
       <c r="BF76" s="3" t="s">
-        <v>1757</v>
+        <v>1601</v>
       </c>
       <c r="BG76" s="3" t="s">
-        <v>1758</v>
+        <v>1602</v>
       </c>
       <c r="BH76" s="3" t="s">
-        <v>1759</v>
+        <v>1603</v>
       </c>
       <c r="BI76" s="3" t="s">
-        <v>1760</v>
+        <v>1604</v>
       </c>
       <c r="BJ76" s="3" t="s">
-        <v>1761</v>
+        <v>1605</v>
       </c>
       <c r="BK76" s="3" t="s">
-        <v>1762</v>
+        <v>1606</v>
       </c>
       <c r="BL76" s="3" t="s">
-        <v>1763</v>
+        <v>1607</v>
       </c>
       <c r="BM76" s="3" t="s">
-        <v>1764</v>
+        <v>1608</v>
       </c>
       <c r="BN76" s="3" t="s">
-        <v>1765</v>
+        <v>1609</v>
       </c>
       <c r="BO76" s="3" t="s">
-        <v>1766</v>
+        <v>1610</v>
       </c>
       <c r="BP76" s="3" t="s">
-        <v>1767</v>
+        <v>1611</v>
       </c>
       <c r="BQ76" s="3" t="s">
-        <v>1768</v>
+        <v>1612</v>
       </c>
       <c r="BR76" s="3" t="s">
-        <v>1769</v>
+        <v>1613</v>
       </c>
       <c r="BS76" s="3" t="s">
-        <v>1770</v>
+        <v>1614</v>
       </c>
       <c r="BT76" s="3" t="s">
-        <v>1771</v>
+        <v>1615</v>
       </c>
       <c r="BU76" s="3" t="s">
-        <v>1772</v>
+        <v>1616</v>
       </c>
       <c r="BV76" s="3" t="s">
-        <v>1773</v>
+        <v>1617</v>
       </c>
       <c r="BW76" s="3" t="s">
-        <v>1774</v>
+        <v>1618</v>
       </c>
       <c r="BX76" s="3" t="s">
-        <v>1775</v>
+        <v>1619</v>
       </c>
       <c r="BY76" s="3" t="s">
-        <v>1776</v>
+        <v>1620</v>
       </c>
       <c r="BZ76" s="3" t="s">
-        <v>1777</v>
+        <v>1621</v>
       </c>
       <c r="CA76" s="3" t="s">
-        <v>1778</v>
+        <v>1622</v>
       </c>
       <c r="CB76" s="3" t="s">
-        <v>1779</v>
+        <v>1623</v>
       </c>
       <c r="CC76" s="3" t="s">
-        <v>1780</v>
+        <v>1624</v>
       </c>
       <c r="CD76" s="3" t="s">
-        <v>1781</v>
+        <v>1625</v>
       </c>
       <c r="CE76" s="3" t="s">
-        <v>1782</v>
+        <v>1626</v>
       </c>
       <c r="CF76" s="3" t="s">
-        <v>1783</v>
+        <v>1627</v>
       </c>
       <c r="CG76" s="3" t="s">
-        <v>1784</v>
+        <v>1628</v>
       </c>
       <c r="CH76" s="3" t="s">
-        <v>1785</v>
+        <v>1629</v>
       </c>
       <c r="CI76" s="3" t="s">
-        <v>1786</v>
+        <v>1630</v>
       </c>
       <c r="CJ76" s="3" t="s">
-        <v>1787</v>
+        <v>1631</v>
       </c>
       <c r="CK76" s="3" t="s">
-        <v>1788</v>
+        <v>1632</v>
       </c>
       <c r="CL76" s="3" t="s">
-        <v>1789</v>
+        <v>1633</v>
       </c>
       <c r="CM76" s="3" t="s">
-        <v>1790</v>
+        <v>1634</v>
       </c>
       <c r="CN76" s="3" t="s">
-        <v>1791</v>
+        <v>1635</v>
       </c>
       <c r="CO76" s="3" t="s">
-        <v>1792</v>
+        <v>1636</v>
       </c>
       <c r="CP76" s="3" t="s">
-        <v>1793</v>
+        <v>1637</v>
       </c>
       <c r="CQ76" s="3" t="s">
-        <v>1794</v>
+        <v>1638</v>
       </c>
       <c r="CR76" s="3" t="s">
-        <v>1795</v>
+        <v>1639</v>
       </c>
       <c r="CS76" s="3" t="s">
-        <v>1796</v>
+        <v>1640</v>
       </c>
       <c r="CT76" s="3" t="s">
-        <v>1797</v>
+        <v>1641</v>
       </c>
       <c r="CU76" s="3" t="s">
-        <v>1798</v>
+        <v>1642</v>
       </c>
       <c r="CV76" s="3" t="s">
-        <v>1799</v>
+        <v>1643</v>
       </c>
       <c r="CW76" s="3" t="s">
-        <v>1800</v>
+        <v>1644</v>
       </c>
       <c r="CX76" s="3" t="s">
-        <v>1801</v>
+        <v>1645</v>
       </c>
       <c r="CY76" s="3" t="s">
-        <v>1802</v>
+        <v>1646</v>
       </c>
       <c r="CZ76" s="3" t="s">
-        <v>1803</v>
+        <v>1647</v>
       </c>
       <c r="DA76" s="3" t="s">
-        <v>1804</v>
+        <v>1648</v>
       </c>
       <c r="DB76" s="3" t="s">
-        <v>1805</v>
+        <v>1649</v>
       </c>
       <c r="DC76" s="3" t="s">
-        <v>1806</v>
+        <v>1650</v>
       </c>
       <c r="DD76" s="3" t="s">
-        <v>1807</v>
+        <v>1651</v>
       </c>
       <c r="DE76" s="3" t="s">
-        <v>1808</v>
+        <v>1652</v>
       </c>
       <c r="DF76" s="3" t="s">
-        <v>1809</v>
+        <v>1653</v>
       </c>
       <c r="DG76" s="3" t="s">
-        <v>1810</v>
+        <v>1654</v>
       </c>
       <c r="DH76" s="3" t="s">
-        <v>1811</v>
+        <v>1655</v>
       </c>
       <c r="DI76" s="3" t="s">
-        <v>1812</v>
+        <v>1656</v>
       </c>
       <c r="DJ76" s="3" t="s">
-        <v>1813</v>
+        <v>1657</v>
       </c>
       <c r="DK76" s="3" t="s">
-        <v>1814</v>
+        <v>1658</v>
       </c>
       <c r="DL76" s="3" t="s">
-        <v>1815</v>
+        <v>1659</v>
       </c>
       <c r="DM76" s="3" t="s">
-        <v>1816</v>
+        <v>1660</v>
       </c>
       <c r="DN76" s="3" t="s">
-        <v>1817</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="77" spans="1:118">
@@ -33050,13 +32582,13 @@
         <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>1904</v>
+        <v>1748</v>
       </c>
       <c r="C77" t="s">
         <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>1193</v>
+        <v>1037</v>
       </c>
       <c r="E77" t="s">
         <v>148</v>
@@ -33080,25 +32612,25 @@
         <v>148</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>1545</v>
+        <v>1389</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>1546</v>
+        <v>1390</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>1730</v>
+        <v>1574</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>1731</v>
+        <v>1575</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>1732</v>
+        <v>1576</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>1733</v>
+        <v>1577</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>1551</v>
+        <v>1395</v>
       </c>
       <c r="S77" s="3" t="s">
         <v>148</v>
@@ -33149,256 +32681,256 @@
         <v>149</v>
       </c>
       <c r="AI77" s="3" t="s">
-        <v>1819</v>
+        <v>1663</v>
       </c>
       <c r="AJ77" s="3" t="s">
-        <v>1820</v>
+        <v>1664</v>
       </c>
       <c r="AK77" s="3" t="s">
-        <v>1821</v>
+        <v>1665</v>
       </c>
       <c r="AL77" s="3" t="s">
-        <v>1822</v>
+        <v>1666</v>
       </c>
       <c r="AM77" s="3" t="s">
-        <v>1823</v>
+        <v>1667</v>
       </c>
       <c r="AN77" s="3" t="s">
-        <v>1824</v>
+        <v>1668</v>
       </c>
       <c r="AO77" s="3" t="s">
-        <v>1825</v>
+        <v>1669</v>
       </c>
       <c r="AP77" s="3" t="s">
-        <v>1826</v>
+        <v>1670</v>
       </c>
       <c r="AQ77" s="3" t="s">
-        <v>1827</v>
+        <v>1671</v>
       </c>
       <c r="AR77" s="3" t="s">
-        <v>1828</v>
+        <v>1672</v>
       </c>
       <c r="AS77" s="3" t="s">
-        <v>1829</v>
+        <v>1673</v>
       </c>
       <c r="AT77" s="3" t="s">
-        <v>1830</v>
+        <v>1674</v>
       </c>
       <c r="AU77" s="3" t="s">
-        <v>1831</v>
+        <v>1675</v>
       </c>
       <c r="AV77" s="3" t="s">
-        <v>1832</v>
+        <v>1676</v>
       </c>
       <c r="AW77" s="3" t="s">
-        <v>1833</v>
+        <v>1677</v>
       </c>
       <c r="AX77" s="3" t="s">
-        <v>1834</v>
+        <v>1678</v>
       </c>
       <c r="AY77" s="3" t="s">
-        <v>1835</v>
+        <v>1679</v>
       </c>
       <c r="AZ77" s="3" t="s">
-        <v>1836</v>
+        <v>1680</v>
       </c>
       <c r="BA77" s="3" t="s">
-        <v>1837</v>
+        <v>1681</v>
       </c>
       <c r="BB77" s="3" t="s">
-        <v>1838</v>
+        <v>1682</v>
       </c>
       <c r="BC77" s="3" t="s">
-        <v>1839</v>
+        <v>1683</v>
       </c>
       <c r="BD77" s="3" t="s">
-        <v>1840</v>
+        <v>1684</v>
       </c>
       <c r="BE77" s="3" t="s">
-        <v>1841</v>
+        <v>1685</v>
       </c>
       <c r="BF77" s="3" t="s">
-        <v>1842</v>
+        <v>1686</v>
       </c>
       <c r="BG77" s="3" t="s">
-        <v>1843</v>
+        <v>1687</v>
       </c>
       <c r="BH77" s="3" t="s">
-        <v>1844</v>
+        <v>1688</v>
       </c>
       <c r="BI77" s="3" t="s">
-        <v>1845</v>
+        <v>1689</v>
       </c>
       <c r="BJ77" s="3" t="s">
-        <v>1846</v>
+        <v>1690</v>
       </c>
       <c r="BK77" s="3" t="s">
-        <v>1847</v>
+        <v>1691</v>
       </c>
       <c r="BL77" s="3" t="s">
-        <v>1848</v>
+        <v>1692</v>
       </c>
       <c r="BM77" s="3" t="s">
-        <v>1849</v>
+        <v>1693</v>
       </c>
       <c r="BN77" s="3" t="s">
-        <v>1850</v>
+        <v>1694</v>
       </c>
       <c r="BO77" s="3" t="s">
-        <v>1851</v>
+        <v>1695</v>
       </c>
       <c r="BP77" s="3" t="s">
-        <v>1852</v>
+        <v>1696</v>
       </c>
       <c r="BQ77" s="3" t="s">
-        <v>1853</v>
+        <v>1697</v>
       </c>
       <c r="BR77" s="3" t="s">
-        <v>1854</v>
+        <v>1698</v>
       </c>
       <c r="BS77" s="3" t="s">
-        <v>1855</v>
+        <v>1699</v>
       </c>
       <c r="BT77" s="3" t="s">
-        <v>1856</v>
+        <v>1700</v>
       </c>
       <c r="BU77" s="3" t="s">
-        <v>1857</v>
+        <v>1701</v>
       </c>
       <c r="BV77" s="3" t="s">
-        <v>1858</v>
+        <v>1702</v>
       </c>
       <c r="BW77" s="3" t="s">
-        <v>1859</v>
+        <v>1703</v>
       </c>
       <c r="BX77" s="3" t="s">
-        <v>1860</v>
+        <v>1704</v>
       </c>
       <c r="BY77" s="3" t="s">
-        <v>1861</v>
+        <v>1705</v>
       </c>
       <c r="BZ77" s="3" t="s">
-        <v>1862</v>
+        <v>1706</v>
       </c>
       <c r="CA77" s="3" t="s">
-        <v>1863</v>
+        <v>1707</v>
       </c>
       <c r="CB77" s="3" t="s">
-        <v>1864</v>
+        <v>1708</v>
       </c>
       <c r="CC77" s="3" t="s">
-        <v>1865</v>
+        <v>1709</v>
       </c>
       <c r="CD77" s="3" t="s">
-        <v>1866</v>
+        <v>1710</v>
       </c>
       <c r="CE77" s="3" t="s">
-        <v>1867</v>
+        <v>1711</v>
       </c>
       <c r="CF77" s="3" t="s">
-        <v>1868</v>
+        <v>1712</v>
       </c>
       <c r="CG77" s="3" t="s">
-        <v>1869</v>
+        <v>1713</v>
       </c>
       <c r="CH77" s="3" t="s">
-        <v>1870</v>
+        <v>1714</v>
       </c>
       <c r="CI77" s="3" t="s">
-        <v>1871</v>
+        <v>1715</v>
       </c>
       <c r="CJ77" s="3" t="s">
-        <v>1872</v>
+        <v>1716</v>
       </c>
       <c r="CK77" s="3" t="s">
-        <v>1873</v>
+        <v>1717</v>
       </c>
       <c r="CL77" s="3" t="s">
-        <v>1874</v>
+        <v>1718</v>
       </c>
       <c r="CM77" s="3" t="s">
-        <v>1875</v>
+        <v>1719</v>
       </c>
       <c r="CN77" s="3" t="s">
-        <v>1876</v>
+        <v>1720</v>
       </c>
       <c r="CO77" s="3" t="s">
-        <v>1877</v>
+        <v>1721</v>
       </c>
       <c r="CP77" s="3" t="s">
-        <v>1878</v>
+        <v>1722</v>
       </c>
       <c r="CQ77" s="3" t="s">
-        <v>1879</v>
+        <v>1723</v>
       </c>
       <c r="CR77" s="3" t="s">
-        <v>1880</v>
+        <v>1724</v>
       </c>
       <c r="CS77" s="3" t="s">
-        <v>1881</v>
+        <v>1725</v>
       </c>
       <c r="CT77" s="3" t="s">
-        <v>1882</v>
+        <v>1726</v>
       </c>
       <c r="CU77" s="3" t="s">
-        <v>1883</v>
+        <v>1727</v>
       </c>
       <c r="CV77" s="3" t="s">
-        <v>1884</v>
+        <v>1728</v>
       </c>
       <c r="CW77" s="3" t="s">
-        <v>1885</v>
+        <v>1729</v>
       </c>
       <c r="CX77" s="3" t="s">
-        <v>1886</v>
+        <v>1730</v>
       </c>
       <c r="CY77" s="3" t="s">
-        <v>1887</v>
+        <v>1731</v>
       </c>
       <c r="CZ77" s="3" t="s">
-        <v>1888</v>
+        <v>1732</v>
       </c>
       <c r="DA77" s="3" t="s">
-        <v>1889</v>
+        <v>1733</v>
       </c>
       <c r="DB77" s="3" t="s">
-        <v>1890</v>
+        <v>1734</v>
       </c>
       <c r="DC77" s="3" t="s">
-        <v>1891</v>
+        <v>1735</v>
       </c>
       <c r="DD77" s="3" t="s">
-        <v>1892</v>
+        <v>1736</v>
       </c>
       <c r="DE77" s="3" t="s">
-        <v>1893</v>
+        <v>1737</v>
       </c>
       <c r="DF77" s="3" t="s">
-        <v>1894</v>
+        <v>1738</v>
       </c>
       <c r="DG77" s="3" t="s">
-        <v>1895</v>
+        <v>1739</v>
       </c>
       <c r="DH77" s="3" t="s">
-        <v>1896</v>
+        <v>1740</v>
       </c>
       <c r="DI77" s="3" t="s">
-        <v>1897</v>
+        <v>1741</v>
       </c>
       <c r="DJ77" s="3" t="s">
-        <v>1898</v>
+        <v>1742</v>
       </c>
       <c r="DK77" s="3" t="s">
-        <v>1899</v>
+        <v>1743</v>
       </c>
       <c r="DL77" s="3" t="s">
-        <v>1900</v>
+        <v>1744</v>
       </c>
       <c r="DM77" s="3" t="s">
-        <v>1901</v>
+        <v>1745</v>
       </c>
       <c r="DN77" s="3" t="s">
-        <v>1902</v>
+        <v>1746</v>
       </c>
     </row>
   </sheetData>

--- a/pysiaf/pre_delivery_data/NIRSpec/NIRSpec_SIAF.xlsx
+++ b/pysiaf/pre_delivery_data/NIRSpec/NIRSpec_SIAF.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1753">
   <si>
     <t>Aperture Basic Info</t>
   </si>
@@ -3002,6 +3002,9 @@
     <t>-432.2531433105469</t>
   </si>
   <si>
+    <t>138.80963134765625</t>
+  </si>
+  <si>
     <t>0.09922201931476593</t>
   </si>
   <si>
@@ -3035,6 +3038,9 @@
     <t>-565.3275146484375</t>
   </si>
   <si>
+    <t>138.89077758789062</t>
+  </si>
+  <si>
     <t>0.10031996667385101</t>
   </si>
   <si>
@@ -3068,6 +3074,9 @@
     <t>-432.9581298828125</t>
   </si>
   <si>
+    <t>138.1222381591797</t>
+  </si>
+  <si>
     <t>0.10025506466627121</t>
   </si>
   <si>
@@ -3099,6 +3108,9 @@
   </si>
   <si>
     <t>-306.1568298339844</t>
+  </si>
+  <si>
+    <t>138.22549438476562</t>
   </si>
   <si>
     <t>0.09788499027490616</t>
@@ -25154,7 +25166,7 @@
         <v>994</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>135</v>
+        <v>995</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>236</v>
@@ -25172,28 +25184,28 @@
         <v>148</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="Z56" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AA56" s="3" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AB56" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="AC56" s="3" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AD56" s="3" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="AE56" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="AF56" s="3" t="s">
         <v>147</v>
@@ -25462,7 +25474,7 @@
         <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C57" t="s">
         <v>126</v>
@@ -25504,13 +25516,13 @@
         <v>148</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>135</v>
+        <v>1007</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>236</v>
@@ -25528,28 +25540,28 @@
         <v>148</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="Y57" s="3" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="Z57" s="3" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="AA57" s="3" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="AB57" s="3" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="AC57" s="3" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="AD57" s="3" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="AE57" s="3" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="AF57" s="3" t="s">
         <v>147</v>
@@ -25818,7 +25830,7 @@
         <v>124</v>
       </c>
       <c r="B58" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="C58" t="s">
         <v>242</v>
@@ -25860,13 +25872,13 @@
         <v>148</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>342</v>
+        <v>1019</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>236</v>
@@ -25884,28 +25896,28 @@
         <v>148</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="Y58" s="3" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="Z58" s="3" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="AA58" s="3" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="AB58" s="3" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="AC58" s="3" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="AD58" s="3" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="AE58" s="3" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="AF58" s="3" t="s">
         <v>147</v>
@@ -26174,7 +26186,7 @@
         <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="C59" t="s">
         <v>242</v>
@@ -26216,13 +26228,13 @@
         <v>148</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>342</v>
+        <v>1031</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>236</v>
@@ -26240,28 +26252,28 @@
         <v>148</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="Y59" s="3" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="Z59" s="3" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="AA59" s="3" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="AB59" s="3" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="AC59" s="3" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="AD59" s="3" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="AE59" s="3" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="AF59" s="3" t="s">
         <v>147</v>
@@ -26530,13 +26542,13 @@
         <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="C60" t="s">
         <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E60" t="s">
         <v>148</v>
@@ -26560,16 +26572,16 @@
         <v>148</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>148</v>
@@ -26629,256 +26641,256 @@
         <v>149</v>
       </c>
       <c r="AI60" s="3" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="AJ60" s="3" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="AK60" s="3" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="AL60" s="3" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="AM60" s="3" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="AN60" s="3" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="AO60" s="3" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="AP60" s="3" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="AQ60" s="3" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="AR60" s="3" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="AS60" s="3" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="AT60" s="3" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="AU60" s="3" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="AV60" s="3" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="AW60" s="3" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="AX60" s="3" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="AY60" s="3" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="AZ60" s="3" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="BA60" s="3" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="BB60" s="3" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="BC60" s="3" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="BD60" s="3" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="BE60" s="3" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="BF60" s="3" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="BG60" s="3" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="BH60" s="3" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="BI60" s="3" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="BJ60" s="3" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="BK60" s="3" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="BL60" s="3" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="BM60" s="3" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="BN60" s="3" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="BO60" s="3" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="BP60" s="3" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="BQ60" s="3" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="BR60" s="3" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="BS60" s="3" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="BT60" s="3" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="BU60" s="3" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="BV60" s="3" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="BW60" s="3" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="BX60" s="3" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="BY60" s="3" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="BZ60" s="3" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="CA60" s="3" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="CB60" s="3" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="CC60" s="3" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="CD60" s="3" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="CE60" s="3" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="CF60" s="3" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="CG60" s="3" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="CH60" s="3" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="CI60" s="3" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="CJ60" s="3" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="CK60" s="3" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="CL60" s="3" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="CM60" s="3" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="CN60" s="3" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="CO60" s="3" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="CP60" s="3" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="CQ60" s="3" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="CR60" s="3" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="CS60" s="3" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="CT60" s="3" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="CU60" s="3" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="CV60" s="3" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="CW60" s="3" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="CX60" s="3" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="CY60" s="3" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="CZ60" s="3" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="DA60" s="3" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="DB60" s="3" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="DC60" s="3" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="DD60" s="3" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="DE60" s="3" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="DF60" s="3" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="DG60" s="3" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="DH60" s="3" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="DI60" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="DJ60" s="3" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="DK60" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="DL60" s="3" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="DM60" s="3" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="DN60" s="3" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="61" spans="1:118">
@@ -26886,13 +26898,13 @@
         <v>124</v>
       </c>
       <c r="B61" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="C61" t="s">
         <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E61" t="s">
         <v>148</v>
@@ -26916,16 +26928,16 @@
         <v>148</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>148</v>
@@ -26985,256 +26997,256 @@
         <v>149</v>
       </c>
       <c r="AI61" s="3" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="AJ61" s="3" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="AK61" s="3" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="AL61" s="3" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="AM61" s="3" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="AN61" s="3" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="AO61" s="3" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="AP61" s="3" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="AQ61" s="3" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="AR61" s="3" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="AS61" s="3" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="AT61" s="3" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="AU61" s="3" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="AV61" s="3" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="AW61" s="3" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="AX61" s="3" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="AY61" s="3" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="AZ61" s="3" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="BA61" s="3" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="BB61" s="3" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="BC61" s="3" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="BD61" s="3" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="BE61" s="3" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="BF61" s="3" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="BG61" s="3" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="BH61" s="3" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="BI61" s="3" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="BJ61" s="3" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="BK61" s="3" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="BL61" s="3" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="BM61" s="3" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="BN61" s="3" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="BO61" s="3" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="BP61" s="3" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="BQ61" s="3" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="BR61" s="3" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="BS61" s="3" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="BT61" s="3" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="BU61" s="3" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="BV61" s="3" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="BW61" s="3" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="BX61" s="3" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="BY61" s="3" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="BZ61" s="3" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="CA61" s="3" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="CB61" s="3" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="CC61" s="3" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="CD61" s="3" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="CE61" s="3" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="CF61" s="3" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="CG61" s="3" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="CH61" s="3" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="CI61" s="3" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="CJ61" s="3" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="CK61" s="3" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="CL61" s="3" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="CM61" s="3" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="CN61" s="3" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="CO61" s="3" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="CP61" s="3" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="CQ61" s="3" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="CR61" s="3" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="CS61" s="3" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="CT61" s="3" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="CU61" s="3" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="CV61" s="3" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="CW61" s="3" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="CX61" s="3" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="CY61" s="3" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="CZ61" s="3" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="DA61" s="3" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="DB61" s="3" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="DC61" s="3" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="DD61" s="3" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="DE61" s="3" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="DF61" s="3" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="DG61" s="3" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="DH61" s="3" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="DI61" s="3" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="DJ61" s="3" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="DK61" s="3" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="DL61" s="3" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="DM61" s="3" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="DN61" s="3" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="62" spans="1:118">
@@ -27242,13 +27254,13 @@
         <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="C62" t="s">
         <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E62" t="s">
         <v>148</v>
@@ -27272,16 +27284,16 @@
         <v>148</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>148</v>
@@ -27341,256 +27353,256 @@
         <v>149</v>
       </c>
       <c r="AI62" s="3" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="AJ62" s="3" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="AK62" s="3" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="AL62" s="3" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="AM62" s="3" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="AN62" s="3" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="AO62" s="3" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="AP62" s="3" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="AQ62" s="3" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="AR62" s="3" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="AS62" s="3" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="AT62" s="3" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="AU62" s="3" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="AV62" s="3" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="AW62" s="3" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="AX62" s="3" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="AY62" s="3" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="AZ62" s="3" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="BA62" s="3" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="BB62" s="3" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="BC62" s="3" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="BD62" s="3" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="BE62" s="3" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="BF62" s="3" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="BG62" s="3" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="BH62" s="3" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="BI62" s="3" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="BJ62" s="3" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="BK62" s="3" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="BL62" s="3" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="BM62" s="3" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="BN62" s="3" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="BO62" s="3" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="BP62" s="3" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="BQ62" s="3" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="BR62" s="3" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="BS62" s="3" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="BT62" s="3" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="BU62" s="3" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="BV62" s="3" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="BW62" s="3" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="BX62" s="3" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="BY62" s="3" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="BZ62" s="3" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="CA62" s="3" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="CB62" s="3" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
       <c r="CC62" s="3" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="CD62" s="3" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="CE62" s="3" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="CF62" s="3" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="CG62" s="3" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="CH62" s="3" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="CI62" s="3" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="CJ62" s="3" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="CK62" s="3" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="CL62" s="3" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="CM62" s="3" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="CN62" s="3" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="CO62" s="3" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="CP62" s="3" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="CQ62" s="3" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="CR62" s="3" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="CS62" s="3" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="CT62" s="3" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="CU62" s="3" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="CV62" s="3" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="CW62" s="3" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="CX62" s="3" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="CY62" s="3" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="CZ62" s="3" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="DA62" s="3" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="DB62" s="3" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="DC62" s="3" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="DD62" s="3" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="DE62" s="3" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="DF62" s="3" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="DG62" s="3" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="DH62" s="3" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="DI62" s="3" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
       <c r="DJ62" s="3" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="DK62" s="3" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="DL62" s="3" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="DM62" s="3" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="DN62" s="3" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="63" spans="1:118">
@@ -27598,13 +27610,13 @@
         <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="C63" t="s">
         <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E63" t="s">
         <v>148</v>
@@ -27628,25 +27640,25 @@
         <v>148</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="S63" s="3" t="s">
         <v>148</v>
@@ -27697,256 +27709,256 @@
         <v>149</v>
       </c>
       <c r="AI63" s="3" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="AJ63" s="3" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="AK63" s="3" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="AL63" s="3" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="AN63" s="3" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="AO63" s="3" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="AP63" s="3" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="AQ63" s="3" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="AR63" s="3" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="AS63" s="3" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="AT63" s="3" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="AU63" s="3" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="AV63" s="3" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="AW63" s="3" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="AX63" s="3" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="AY63" s="3" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="AZ63" s="3" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="BA63" s="3" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="BB63" s="3" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="BC63" s="3" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="BD63" s="3" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="BE63" s="3" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="BF63" s="3" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="BG63" s="3" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="BH63" s="3" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="BI63" s="3" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="BJ63" s="3" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="BK63" s="3" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="BL63" s="3" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="BM63" s="3" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="BN63" s="3" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="BO63" s="3" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="BP63" s="3" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="BQ63" s="3" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="BR63" s="3" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="BS63" s="3" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="BT63" s="3" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="BU63" s="3" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="BV63" s="3" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="BW63" s="3" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="BX63" s="3" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="BY63" s="3" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="BZ63" s="3" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="CA63" s="3" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="CB63" s="3" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="CC63" s="3" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="CD63" s="3" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="CE63" s="3" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="CF63" s="3" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="CG63" s="3" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="CH63" s="3" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="CI63" s="3" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="CJ63" s="3" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="CK63" s="3" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="CL63" s="3" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="CM63" s="3" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="CN63" s="3" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="CO63" s="3" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="CP63" s="3" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="CQ63" s="3" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="CR63" s="3" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="CS63" s="3" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="CT63" s="3" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="CU63" s="3" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="CV63" s="3" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="CW63" s="3" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="CX63" s="3" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="CY63" s="3" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="CZ63" s="3" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="DA63" s="3" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="DB63" s="3" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="DC63" s="3" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="DD63" s="3" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="DE63" s="3" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="DF63" s="3" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="DG63" s="3" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="DH63" s="3" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="DI63" s="3" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="DJ63" s="3" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="DK63" s="3" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="DL63" s="3" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="DM63" s="3" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="DN63" s="3" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="64" spans="1:118">
@@ -27954,13 +27966,13 @@
         <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="C64" t="s">
         <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E64" t="s">
         <v>148</v>
@@ -27984,25 +27996,25 @@
         <v>148</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S64" s="3" t="s">
         <v>148</v>
@@ -28053,256 +28065,256 @@
         <v>149</v>
       </c>
       <c r="AI64" s="3" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="AJ64" s="3" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="AK64" s="3" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="AL64" s="3" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="AM64" s="3" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="AN64" s="3" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="AO64" s="3" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="AP64" s="3" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="AQ64" s="3" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="AR64" s="3" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="AS64" s="3" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="AT64" s="3" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="AU64" s="3" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="AV64" s="3" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="AW64" s="3" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="AX64" s="3" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="AY64" s="3" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="AZ64" s="3" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="BA64" s="3" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="BB64" s="3" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="BC64" s="3" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="BD64" s="3" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="BE64" s="3" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="BF64" s="3" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="BG64" s="3" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="BH64" s="3" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="BI64" s="3" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="BJ64" s="3" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="BK64" s="3" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="BL64" s="3" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="BM64" s="3" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="BN64" s="3" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="BO64" s="3" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="BP64" s="3" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="BQ64" s="3" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="BR64" s="3" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="BS64" s="3" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="BT64" s="3" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="BU64" s="3" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="BV64" s="3" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="BW64" s="3" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="BX64" s="3" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="BY64" s="3" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="BZ64" s="3" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="CA64" s="3" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="CB64" s="3" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="CC64" s="3" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="CD64" s="3" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="CE64" s="3" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="CF64" s="3" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="CG64" s="3" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="CH64" s="3" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="CI64" s="3" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="CJ64" s="3" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="CK64" s="3" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="CL64" s="3" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="CM64" s="3" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="CN64" s="3" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="CO64" s="3" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="CP64" s="3" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="CQ64" s="3" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="CR64" s="3" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="CS64" s="3" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="CT64" s="3" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="CU64" s="3" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="CV64" s="3" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="CW64" s="3" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="CX64" s="3" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="CY64" s="3" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="CZ64" s="3" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="DA64" s="3" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="DB64" s="3" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="DC64" s="3" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="DD64" s="3" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="DE64" s="3" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="DF64" s="3" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="DG64" s="3" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="DH64" s="3" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="DI64" s="3" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="DJ64" s="3" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="DK64" s="3" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="DL64" s="3" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="DM64" s="3" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="DN64" s="3" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="65" spans="1:118">
@@ -28310,13 +28322,13 @@
         <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="C65" t="s">
         <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E65" t="s">
         <v>148</v>
@@ -28340,25 +28352,25 @@
         <v>148</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="R65" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S65" s="3" t="s">
         <v>148</v>
@@ -28409,256 +28421,256 @@
         <v>149</v>
       </c>
       <c r="AI65" s="3" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="AJ65" s="3" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="AK65" s="3" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="AL65" s="3" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="AM65" s="3" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="AN65" s="3" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="AO65" s="3" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="AP65" s="3" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="AQ65" s="3" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="AR65" s="3" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="AS65" s="3" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="AT65" s="3" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="AU65" s="3" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="AV65" s="3" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="AW65" s="3" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="AX65" s="3" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="AY65" s="3" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="AZ65" s="3" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="BA65" s="3" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="BB65" s="3" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="BC65" s="3" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="BD65" s="3" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="BE65" s="3" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="BF65" s="3" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="BG65" s="3" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="BH65" s="3" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="BI65" s="3" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="BJ65" s="3" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="BK65" s="3" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="BL65" s="3" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="BM65" s="3" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="BN65" s="3" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="BO65" s="3" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="BP65" s="3" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="BQ65" s="3" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="BR65" s="3" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="BS65" s="3" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="BT65" s="3" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="BU65" s="3" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="BV65" s="3" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="BW65" s="3" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="BX65" s="3" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="BY65" s="3" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="BZ65" s="3" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="CA65" s="3" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="CB65" s="3" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="CC65" s="3" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="CD65" s="3" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="CE65" s="3" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="CF65" s="3" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="CG65" s="3" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="CH65" s="3" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="CI65" s="3" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="CJ65" s="3" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="CK65" s="3" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="CL65" s="3" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="CM65" s="3" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="CN65" s="3" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="CO65" s="3" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="CP65" s="3" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="CQ65" s="3" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="CR65" s="3" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="CS65" s="3" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="CT65" s="3" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="CU65" s="3" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="CV65" s="3" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="CW65" s="3" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="CX65" s="3" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="CY65" s="3" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="CZ65" s="3" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="DA65" s="3" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="DB65" s="3" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="DC65" s="3" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="DD65" s="3" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="DE65" s="3" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="DF65" s="3" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="DG65" s="3" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="DH65" s="3" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="DI65" s="3" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="DJ65" s="3" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="DK65" s="3" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="DL65" s="3" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="DM65" s="3" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="DN65" s="3" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="66" spans="1:118">
@@ -28666,13 +28678,13 @@
         <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="C66" t="s">
         <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E66" t="s">
         <v>148</v>
@@ -28696,25 +28708,25 @@
         <v>148</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>148</v>
@@ -28765,256 +28777,256 @@
         <v>149</v>
       </c>
       <c r="AI66" s="3" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="AJ66" s="3" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="AK66" s="3" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="AL66" s="3" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="AM66" s="3" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="AN66" s="3" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="AO66" s="3" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="AP66" s="3" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="AQ66" s="3" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="AR66" s="3" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="AS66" s="3" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="AT66" s="3" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="AU66" s="3" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="AV66" s="3" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="AW66" s="3" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="AX66" s="3" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="AY66" s="3" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="AZ66" s="3" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="BA66" s="3" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="BB66" s="3" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="BC66" s="3" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="BD66" s="3" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="BE66" s="3" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="BF66" s="3" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="BG66" s="3" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="BH66" s="3" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="BI66" s="3" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="BJ66" s="3" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="BK66" s="3" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="BL66" s="3" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="BM66" s="3" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="BN66" s="3" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="BO66" s="3" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="BP66" s="3" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="BQ66" s="3" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="BR66" s="3" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="BS66" s="3" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="BT66" s="3" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="BU66" s="3" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="BV66" s="3" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="BW66" s="3" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="BX66" s="3" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="BY66" s="3" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="BZ66" s="3" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="CA66" s="3" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="CB66" s="3" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="CC66" s="3" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="CD66" s="3" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="CE66" s="3" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="CF66" s="3" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="CG66" s="3" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="CH66" s="3" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="CI66" s="3" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="CJ66" s="3" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="CK66" s="3" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="CL66" s="3" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="CM66" s="3" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="CN66" s="3" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="CO66" s="3" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="CP66" s="3" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="CQ66" s="3" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="CR66" s="3" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="CS66" s="3" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="CT66" s="3" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="CU66" s="3" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="CV66" s="3" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="CW66" s="3" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="CX66" s="3" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="CY66" s="3" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="CZ66" s="3" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="DA66" s="3" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="DB66" s="3" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="DC66" s="3" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="DD66" s="3" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="DE66" s="3" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="DF66" s="3" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="DG66" s="3" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="DH66" s="3" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="DI66" s="3" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="DJ66" s="3" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="DK66" s="3" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="DL66" s="3" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="DM66" s="3" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="DN66" s="3" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="67" spans="1:118">
@@ -29022,13 +29034,13 @@
         <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="C67" t="s">
         <v>148</v>
       </c>
       <c r="D67" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E67" t="s">
         <v>148</v>
@@ -29052,25 +29064,25 @@
         <v>148</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S67" s="3" t="s">
         <v>148</v>
@@ -29121,256 +29133,256 @@
         <v>149</v>
       </c>
       <c r="AI67" s="3" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="AJ67" s="3" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="AK67" s="3" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="AL67" s="3" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="AM67" s="3" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="AN67" s="3" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="AO67" s="3" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="AP67" s="3" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="AQ67" s="3" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="AR67" s="3" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="AS67" s="3" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="AT67" s="3" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="AU67" s="3" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="AV67" s="3" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="AW67" s="3" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="AX67" s="3" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="AY67" s="3" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="AZ67" s="3" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="BA67" s="3" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="BB67" s="3" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="BC67" s="3" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="BD67" s="3" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="BE67" s="3" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="BF67" s="3" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="BG67" s="3" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="BH67" s="3" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="BI67" s="3" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="BJ67" s="3" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="BK67" s="3" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="BL67" s="3" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="BM67" s="3" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="BN67" s="3" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="BO67" s="3" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="BP67" s="3" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="BQ67" s="3" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="BR67" s="3" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="BS67" s="3" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="BT67" s="3" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="BU67" s="3" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="BV67" s="3" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="BW67" s="3" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="BX67" s="3" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="BY67" s="3" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="BZ67" s="3" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="CA67" s="3" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="CB67" s="3" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="CC67" s="3" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="CD67" s="3" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="CE67" s="3" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="CF67" s="3" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="CG67" s="3" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="CH67" s="3" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="CI67" s="3" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="CJ67" s="3" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="CK67" s="3" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="CL67" s="3" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="CM67" s="3" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="CN67" s="3" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="CO67" s="3" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="CP67" s="3" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="CQ67" s="3" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="CR67" s="3" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="CS67" s="3" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="CT67" s="3" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="CU67" s="3" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="CV67" s="3" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="CW67" s="3" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="CX67" s="3" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="CY67" s="3" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="CZ67" s="3" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="DA67" s="3" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="DB67" s="3" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="DC67" s="3" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="DD67" s="3" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="DE67" s="3" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="DF67" s="3" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="DG67" s="3" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="DH67" s="3" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="DI67" s="3" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="DJ67" s="3" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="DK67" s="3" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="DL67" s="3" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="DM67" s="3" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="DN67" s="3" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="68" spans="1:118">
@@ -29378,13 +29390,13 @@
         <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="C68" t="s">
         <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E68" t="s">
         <v>148</v>
@@ -29408,25 +29420,25 @@
         <v>148</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S68" s="3" t="s">
         <v>148</v>
@@ -29477,256 +29489,256 @@
         <v>149</v>
       </c>
       <c r="AI68" s="3" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="AJ68" s="3" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="AK68" s="3" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="AL68" s="3" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="AM68" s="3" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="AN68" s="3" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="AO68" s="3" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="AP68" s="3" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="AQ68" s="3" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="AR68" s="3" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="AS68" s="3" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="AT68" s="3" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="AU68" s="3" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="AV68" s="3" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="AW68" s="3" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="AX68" s="3" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="AY68" s="3" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="AZ68" s="3" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="BA68" s="3" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="BB68" s="3" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="BC68" s="3" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="BD68" s="3" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="BE68" s="3" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="BF68" s="3" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="BG68" s="3" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="BH68" s="3" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="BI68" s="3" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="BJ68" s="3" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="BK68" s="3" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="BL68" s="3" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="BM68" s="3" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="BN68" s="3" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="BO68" s="3" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="BP68" s="3" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="BQ68" s="3" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="BR68" s="3" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="BS68" s="3" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="BT68" s="3" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="BU68" s="3" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="BV68" s="3" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="BW68" s="3" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="BX68" s="3" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="BY68" s="3" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="BZ68" s="3" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="CA68" s="3" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="CB68" s="3" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="CC68" s="3" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="CD68" s="3" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="CE68" s="3" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="CF68" s="3" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="CG68" s="3" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="CH68" s="3" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="CI68" s="3" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="CJ68" s="3" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="CK68" s="3" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="CL68" s="3" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="CM68" s="3" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="CN68" s="3" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="CO68" s="3" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="CP68" s="3" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="CQ68" s="3" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="CR68" s="3" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="CS68" s="3" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="CT68" s="3" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="CU68" s="3" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="CV68" s="3" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="CW68" s="3" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="CX68" s="3" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="CY68" s="3" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="CZ68" s="3" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="DA68" s="3" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="DB68" s="3" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="DC68" s="3" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="DD68" s="3" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="DE68" s="3" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="DF68" s="3" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="DG68" s="3" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="DH68" s="3" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="DI68" s="3" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="DJ68" s="3" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="DK68" s="3" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="DL68" s="3" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="DM68" s="3" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="DN68" s="3" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="69" spans="1:118">
@@ -29734,13 +29746,13 @@
         <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="C69" t="s">
         <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E69" t="s">
         <v>148</v>
@@ -29764,25 +29776,25 @@
         <v>148</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="P69" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="Q69" s="3" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S69" s="3" t="s">
         <v>148</v>
@@ -29833,256 +29845,256 @@
         <v>149</v>
       </c>
       <c r="AI69" s="3" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="AJ69" s="3" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="AK69" s="3" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="AL69" s="3" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="AM69" s="3" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="AN69" s="3" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="AO69" s="3" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="AP69" s="3" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="AQ69" s="3" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="AR69" s="3" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="AS69" s="3" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="AT69" s="3" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="AU69" s="3" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="AV69" s="3" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="AW69" s="3" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="AX69" s="3" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="AY69" s="3" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="AZ69" s="3" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="BA69" s="3" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="BB69" s="3" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="BC69" s="3" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="BD69" s="3" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="BE69" s="3" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="BF69" s="3" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="BG69" s="3" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="BH69" s="3" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="BI69" s="3" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="BJ69" s="3" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="BK69" s="3" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="BL69" s="3" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="BM69" s="3" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="BN69" s="3" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="BO69" s="3" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="BP69" s="3" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="BQ69" s="3" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="BR69" s="3" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="BS69" s="3" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="BT69" s="3" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="BU69" s="3" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="BV69" s="3" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="BW69" s="3" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="BX69" s="3" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="BY69" s="3" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="BZ69" s="3" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="CA69" s="3" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="CB69" s="3" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="CC69" s="3" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="CD69" s="3" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="CE69" s="3" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="CF69" s="3" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="CG69" s="3" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="CH69" s="3" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="CI69" s="3" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="CJ69" s="3" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="CK69" s="3" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="CL69" s="3" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="CM69" s="3" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="CN69" s="3" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="CO69" s="3" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="CP69" s="3" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="CQ69" s="3" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="CR69" s="3" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="CS69" s="3" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="CT69" s="3" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="CU69" s="3" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="CV69" s="3" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="CW69" s="3" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="CX69" s="3" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="CY69" s="3" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="CZ69" s="3" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="DA69" s="3" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="DB69" s="3" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="DC69" s="3" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="DD69" s="3" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="DE69" s="3" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="DF69" s="3" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="DG69" s="3" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="DH69" s="3" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="DI69" s="3" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="DJ69" s="3" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="DK69" s="3" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="DL69" s="3" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="DM69" s="3" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="DN69" s="3" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="70" spans="1:118">
@@ -30090,13 +30102,13 @@
         <v>124</v>
       </c>
       <c r="B70" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="C70" t="s">
         <v>148</v>
       </c>
       <c r="D70" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E70" t="s">
         <v>148</v>
@@ -30120,25 +30132,25 @@
         <v>148</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="P70" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="Q70" s="3" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S70" s="3" t="s">
         <v>148</v>
@@ -30189,256 +30201,256 @@
         <v>149</v>
       </c>
       <c r="AI70" s="3" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="AJ70" s="3" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="AK70" s="3" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="AL70" s="3" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="AM70" s="3" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="AN70" s="3" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="AO70" s="3" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="AP70" s="3" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="AQ70" s="3" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="AR70" s="3" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="AS70" s="3" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="AT70" s="3" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="AU70" s="3" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="AV70" s="3" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="AW70" s="3" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="AX70" s="3" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="AY70" s="3" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="AZ70" s="3" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="BA70" s="3" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="BB70" s="3" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="BC70" s="3" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="BD70" s="3" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="BE70" s="3" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="BF70" s="3" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="BG70" s="3" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="BH70" s="3" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="BI70" s="3" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="BJ70" s="3" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="BK70" s="3" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="BL70" s="3" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="BM70" s="3" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="BN70" s="3" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="BO70" s="3" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="BP70" s="3" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="BQ70" s="3" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="BR70" s="3" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="BS70" s="3" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="BT70" s="3" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="BU70" s="3" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="BV70" s="3" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="BW70" s="3" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="BX70" s="3" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="BY70" s="3" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="BZ70" s="3" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="CA70" s="3" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="CB70" s="3" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="CC70" s="3" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="CD70" s="3" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="CE70" s="3" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="CF70" s="3" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="CG70" s="3" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="CH70" s="3" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="CI70" s="3" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="CJ70" s="3" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="CK70" s="3" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="CL70" s="3" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="CM70" s="3" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="CN70" s="3" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="CO70" s="3" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="CP70" s="3" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="CQ70" s="3" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="CR70" s="3" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="CS70" s="3" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="CT70" s="3" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="CU70" s="3" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="CV70" s="3" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="CW70" s="3" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="CX70" s="3" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="CY70" s="3" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="CZ70" s="3" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="DA70" s="3" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="DB70" s="3" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="DC70" s="3" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="DD70" s="3" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="DE70" s="3" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="DF70" s="3" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="DG70" s="3" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="DH70" s="3" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="DI70" s="3" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="DJ70" s="3" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="DK70" s="3" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="DL70" s="3" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="DM70" s="3" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="DN70" s="3" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="71" spans="1:118">
@@ -30446,13 +30458,13 @@
         <v>124</v>
       </c>
       <c r="B71" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="C71" t="s">
         <v>148</v>
       </c>
       <c r="D71" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E71" t="s">
         <v>148</v>
@@ -30476,25 +30488,25 @@
         <v>148</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="Q71" s="3" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S71" s="3" t="s">
         <v>148</v>
@@ -30545,256 +30557,256 @@
         <v>149</v>
       </c>
       <c r="AI71" s="3" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="AJ71" s="3" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="AK71" s="3" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="AL71" s="3" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="AM71" s="3" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="AN71" s="3" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="AO71" s="3" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="AP71" s="3" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="AQ71" s="3" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="AR71" s="3" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="AS71" s="3" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="AT71" s="3" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="AU71" s="3" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="AV71" s="3" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="AW71" s="3" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="AX71" s="3" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="AY71" s="3" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="AZ71" s="3" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="BA71" s="3" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="BB71" s="3" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="BC71" s="3" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="BD71" s="3" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="BE71" s="3" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="BF71" s="3" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="BG71" s="3" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="BH71" s="3" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="BI71" s="3" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="BJ71" s="3" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="BK71" s="3" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="BL71" s="3" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="BM71" s="3" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="BN71" s="3" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="BO71" s="3" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="BP71" s="3" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="BQ71" s="3" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="BR71" s="3" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="BS71" s="3" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="BT71" s="3" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="BU71" s="3" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="BV71" s="3" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="BW71" s="3" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="BX71" s="3" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="BY71" s="3" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="BZ71" s="3" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="CA71" s="3" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="CB71" s="3" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="CC71" s="3" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="CD71" s="3" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="CE71" s="3" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="CF71" s="3" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="CG71" s="3" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="CH71" s="3" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="CI71" s="3" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="CJ71" s="3" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="CK71" s="3" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="CL71" s="3" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="CM71" s="3" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="CN71" s="3" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="CO71" s="3" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="CP71" s="3" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="CQ71" s="3" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="CR71" s="3" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="CS71" s="3" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="CT71" s="3" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="CU71" s="3" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="CV71" s="3" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="CW71" s="3" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="CX71" s="3" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="CY71" s="3" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="CZ71" s="3" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="DA71" s="3" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="DB71" s="3" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="DC71" s="3" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="DD71" s="3" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="DE71" s="3" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="DF71" s="3" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="DG71" s="3" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="DH71" s="3" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="DI71" s="3" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="DJ71" s="3" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="DK71" s="3" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="DL71" s="3" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="DM71" s="3" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="DN71" s="3" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="72" spans="1:118">
@@ -30802,13 +30814,13 @@
         <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="C72" t="s">
         <v>148</v>
       </c>
       <c r="D72" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E72" t="s">
         <v>148</v>
@@ -30832,25 +30844,25 @@
         <v>148</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="Q72" s="3" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="R72" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>148</v>
@@ -30901,256 +30913,256 @@
         <v>149</v>
       </c>
       <c r="AI72" s="3" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="AJ72" s="3" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="AK72" s="3" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="AL72" s="3" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="AM72" s="3" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="AN72" s="3" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="AO72" s="3" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="AP72" s="3" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="AQ72" s="3" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="AR72" s="3" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="AS72" s="3" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="AT72" s="3" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="AU72" s="3" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="AV72" s="3" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="AW72" s="3" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="AX72" s="3" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="AY72" s="3" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="AZ72" s="3" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="BA72" s="3" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="BB72" s="3" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="BC72" s="3" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="BD72" s="3" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="BE72" s="3" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="BF72" s="3" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="BG72" s="3" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="BH72" s="3" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="BI72" s="3" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="BJ72" s="3" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="BK72" s="3" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="BL72" s="3" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="BM72" s="3" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="BN72" s="3" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="BO72" s="3" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="BP72" s="3" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="BQ72" s="3" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="BR72" s="3" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="BS72" s="3" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="BT72" s="3" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="BU72" s="3" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="BV72" s="3" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="BW72" s="3" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="BX72" s="3" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="BY72" s="3" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="BZ72" s="3" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="CA72" s="3" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="CB72" s="3" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="CC72" s="3" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="CD72" s="3" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="CE72" s="3" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="CF72" s="3" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="CG72" s="3" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="CH72" s="3" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="CI72" s="3" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="CJ72" s="3" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="CK72" s="3" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="CL72" s="3" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="CM72" s="3" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="CN72" s="3" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="CO72" s="3" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="CP72" s="3" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="CQ72" s="3" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="CR72" s="3" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="CS72" s="3" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="CT72" s="3" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="CU72" s="3" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="CV72" s="3" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="CW72" s="3" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="CX72" s="3" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="CY72" s="3" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="CZ72" s="3" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="DA72" s="3" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="DB72" s="3" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="DC72" s="3" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="DD72" s="3" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="DE72" s="3" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="DF72" s="3" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="DG72" s="3" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="DH72" s="3" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="DI72" s="3" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="DJ72" s="3" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="DK72" s="3" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="DL72" s="3" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="DM72" s="3" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="DN72" s="3" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="73" spans="1:118">
@@ -31158,13 +31170,13 @@
         <v>124</v>
       </c>
       <c r="B73" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="C73" t="s">
         <v>148</v>
       </c>
       <c r="D73" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E73" t="s">
         <v>148</v>
@@ -31188,25 +31200,25 @@
         <v>148</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="Q73" s="3" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S73" s="3" t="s">
         <v>148</v>
@@ -31257,256 +31269,256 @@
         <v>149</v>
       </c>
       <c r="AI73" s="3" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="AJ73" s="3" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="AK73" s="3" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="AL73" s="3" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="AM73" s="3" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="AN73" s="3" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="AO73" s="3" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="AP73" s="3" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="AQ73" s="3" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="AR73" s="3" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="AS73" s="3" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="AT73" s="3" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="AU73" s="3" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="AV73" s="3" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="AW73" s="3" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="AX73" s="3" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="AY73" s="3" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="AZ73" s="3" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="BA73" s="3" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="BB73" s="3" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="BC73" s="3" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="BD73" s="3" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="BE73" s="3" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="BF73" s="3" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="BG73" s="3" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="BH73" s="3" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="BI73" s="3" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="BJ73" s="3" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="BK73" s="3" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="BL73" s="3" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="BM73" s="3" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="BN73" s="3" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="BO73" s="3" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="BP73" s="3" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="BQ73" s="3" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="BR73" s="3" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="BS73" s="3" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="BT73" s="3" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="BU73" s="3" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="BV73" s="3" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="BW73" s="3" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="BX73" s="3" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="BY73" s="3" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="BZ73" s="3" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="CA73" s="3" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="CB73" s="3" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="CC73" s="3" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="CD73" s="3" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="CE73" s="3" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="CF73" s="3" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="CG73" s="3" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="CH73" s="3" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="CI73" s="3" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="CJ73" s="3" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="CK73" s="3" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="CL73" s="3" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="CM73" s="3" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="CN73" s="3" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="CO73" s="3" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="CP73" s="3" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="CQ73" s="3" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="CR73" s="3" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="CS73" s="3" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="CT73" s="3" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="CU73" s="3" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="CV73" s="3" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="CW73" s="3" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="CX73" s="3" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="CY73" s="3" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="CZ73" s="3" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="DA73" s="3" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="DB73" s="3" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="DC73" s="3" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="DD73" s="3" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="DE73" s="3" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="DF73" s="3" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="DG73" s="3" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="DH73" s="3" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="DI73" s="3" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
       <c r="DJ73" s="3" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="DK73" s="3" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
       <c r="DL73" s="3" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="DM73" s="3" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="DN73" s="3" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="74" spans="1:118">
@@ -31514,13 +31526,13 @@
         <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="C74" t="s">
         <v>148</v>
       </c>
       <c r="D74" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E74" t="s">
         <v>148</v>
@@ -31544,25 +31556,25 @@
         <v>148</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S74" s="3" t="s">
         <v>148</v>
@@ -31613,256 +31625,256 @@
         <v>149</v>
       </c>
       <c r="AI74" s="3" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="AJ74" s="3" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="AK74" s="3" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="AL74" s="3" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="AM74" s="3" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="AN74" s="3" t="s">
-        <v>1583</v>
+        <v>1587</v>
       </c>
       <c r="AO74" s="3" t="s">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="AP74" s="3" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="AQ74" s="3" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="AR74" s="3" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="AS74" s="3" t="s">
-        <v>1588</v>
+        <v>1592</v>
       </c>
       <c r="AT74" s="3" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="AU74" s="3" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="AV74" s="3" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="AW74" s="3" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="AX74" s="3" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="AY74" s="3" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="AZ74" s="3" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="BA74" s="3" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="BB74" s="3" t="s">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="BC74" s="3" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="BD74" s="3" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="BE74" s="3" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="BF74" s="3" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="BG74" s="3" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="BH74" s="3" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="BI74" s="3" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="BJ74" s="3" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="BK74" s="3" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="BL74" s="3" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="BM74" s="3" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="BN74" s="3" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="BO74" s="3" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="BP74" s="3" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="BQ74" s="3" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="BR74" s="3" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="BS74" s="3" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="BT74" s="3" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="BU74" s="3" t="s">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="BV74" s="3" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="BW74" s="3" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="BX74" s="3" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="BY74" s="3" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="BZ74" s="3" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="CA74" s="3" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="CB74" s="3" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="CC74" s="3" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="CD74" s="3" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="CE74" s="3" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="CF74" s="3" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="CG74" s="3" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="CH74" s="3" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="CI74" s="3" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="CJ74" s="3" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="CK74" s="3" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="CL74" s="3" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="CM74" s="3" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="CN74" s="3" t="s">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="CO74" s="3" t="s">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="CP74" s="3" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="CQ74" s="3" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="CR74" s="3" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="CS74" s="3" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="CT74" s="3" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="CU74" s="3" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="CV74" s="3" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="CW74" s="3" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="CX74" s="3" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="CY74" s="3" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="CZ74" s="3" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="DA74" s="3" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="DB74" s="3" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="DC74" s="3" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="DD74" s="3" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="DE74" s="3" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="DF74" s="3" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="DG74" s="3" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="DH74" s="3" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="DI74" s="3" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="DJ74" s="3" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="DK74" s="3" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="DL74" s="3" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="DM74" s="3" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="DN74" s="3" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="75" spans="1:118">
@@ -31870,13 +31882,13 @@
         <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="C75" t="s">
         <v>148</v>
       </c>
       <c r="D75" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E75" t="s">
         <v>148</v>
@@ -31900,25 +31912,25 @@
         <v>148</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="Q75" s="3" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S75" s="3" t="s">
         <v>148</v>
@@ -31969,256 +31981,256 @@
         <v>149</v>
       </c>
       <c r="AI75" s="3" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="AJ75" s="3" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="AK75" s="3" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="AL75" s="3" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="AM75" s="3" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="AN75" s="3" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="AO75" s="3" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="AP75" s="3" t="s">
-        <v>1670</v>
+        <v>1674</v>
       </c>
       <c r="AQ75" s="3" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="AR75" s="3" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="AS75" s="3" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="AT75" s="3" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="AU75" s="3" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="AV75" s="3" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="AW75" s="3" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="AX75" s="3" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="AY75" s="3" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="AZ75" s="3" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="BA75" s="3" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="BB75" s="3" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="BC75" s="3" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="BD75" s="3" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="BE75" s="3" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="BF75" s="3" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="BG75" s="3" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="BH75" s="3" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="BI75" s="3" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="BJ75" s="3" t="s">
-        <v>1690</v>
+        <v>1694</v>
       </c>
       <c r="BK75" s="3" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="BL75" s="3" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="BM75" s="3" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="BN75" s="3" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="BO75" s="3" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="BP75" s="3" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="BQ75" s="3" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="BR75" s="3" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="BS75" s="3" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="BT75" s="3" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="BU75" s="3" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="BV75" s="3" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="BW75" s="3" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="BX75" s="3" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="BY75" s="3" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="BZ75" s="3" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="CA75" s="3" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="CB75" s="3" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="CC75" s="3" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="CD75" s="3" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="CE75" s="3" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="CF75" s="3" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="CG75" s="3" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="CH75" s="3" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="CI75" s="3" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="CJ75" s="3" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="CK75" s="3" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="CL75" s="3" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="CM75" s="3" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="CN75" s="3" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="CO75" s="3" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="CP75" s="3" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="CQ75" s="3" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="CR75" s="3" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="CS75" s="3" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="CT75" s="3" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="CU75" s="3" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="CV75" s="3" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="CW75" s="3" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="CX75" s="3" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="CY75" s="3" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="CZ75" s="3" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="DA75" s="3" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="DB75" s="3" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="DC75" s="3" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="DD75" s="3" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="DE75" s="3" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="DF75" s="3" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="DG75" s="3" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="DH75" s="3" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="DI75" s="3" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="DJ75" s="3" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="DK75" s="3" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="DL75" s="3" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="DM75" s="3" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="DN75" s="3" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="76" spans="1:118">
@@ -32226,13 +32238,13 @@
         <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="C76" t="s">
         <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E76" t="s">
         <v>148</v>
@@ -32256,25 +32268,25 @@
         <v>148</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="R76" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>148</v>
@@ -32325,256 +32337,256 @@
         <v>149</v>
       </c>
       <c r="AI76" s="3" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="AJ76" s="3" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="AK76" s="3" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="AL76" s="3" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="AM76" s="3" t="s">
-        <v>1582</v>
+        <v>1586</v>
       </c>
       <c r="AN76" s="3" t="s">
-        <v>1583</v>
+        <v>1587</v>
       </c>
       <c r="AO76" s="3" t="s">
-        <v>1584</v>
+        <v>1588</v>
       </c>
       <c r="AP76" s="3" t="s">
-        <v>1585</v>
+        <v>1589</v>
       </c>
       <c r="AQ76" s="3" t="s">
-        <v>1586</v>
+        <v>1590</v>
       </c>
       <c r="AR76" s="3" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="AS76" s="3" t="s">
-        <v>1588</v>
+        <v>1592</v>
       </c>
       <c r="AT76" s="3" t="s">
-        <v>1589</v>
+        <v>1593</v>
       </c>
       <c r="AU76" s="3" t="s">
-        <v>1590</v>
+        <v>1594</v>
       </c>
       <c r="AV76" s="3" t="s">
-        <v>1591</v>
+        <v>1595</v>
       </c>
       <c r="AW76" s="3" t="s">
-        <v>1592</v>
+        <v>1596</v>
       </c>
       <c r="AX76" s="3" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="AY76" s="3" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="AZ76" s="3" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="BA76" s="3" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="BB76" s="3" t="s">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="BC76" s="3" t="s">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="BD76" s="3" t="s">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="BE76" s="3" t="s">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="BF76" s="3" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="BG76" s="3" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="BH76" s="3" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="BI76" s="3" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="BJ76" s="3" t="s">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="BK76" s="3" t="s">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="BL76" s="3" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="BM76" s="3" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="BN76" s="3" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
       <c r="BO76" s="3" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="BP76" s="3" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="BQ76" s="3" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="BR76" s="3" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="BS76" s="3" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="BT76" s="3" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="BU76" s="3" t="s">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="BV76" s="3" t="s">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="BW76" s="3" t="s">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="BX76" s="3" t="s">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="BY76" s="3" t="s">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="BZ76" s="3" t="s">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="CA76" s="3" t="s">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="CB76" s="3" t="s">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="CC76" s="3" t="s">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="CD76" s="3" t="s">
-        <v>1625</v>
+        <v>1629</v>
       </c>
       <c r="CE76" s="3" t="s">
-        <v>1626</v>
+        <v>1630</v>
       </c>
       <c r="CF76" s="3" t="s">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="CG76" s="3" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="CH76" s="3" t="s">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="CI76" s="3" t="s">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="CJ76" s="3" t="s">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="CK76" s="3" t="s">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="CL76" s="3" t="s">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="CM76" s="3" t="s">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="CN76" s="3" t="s">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="CO76" s="3" t="s">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="CP76" s="3" t="s">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="CQ76" s="3" t="s">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="CR76" s="3" t="s">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="CS76" s="3" t="s">
-        <v>1640</v>
+        <v>1644</v>
       </c>
       <c r="CT76" s="3" t="s">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="CU76" s="3" t="s">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="CV76" s="3" t="s">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="CW76" s="3" t="s">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="CX76" s="3" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="CY76" s="3" t="s">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="CZ76" s="3" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="DA76" s="3" t="s">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="DB76" s="3" t="s">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="DC76" s="3" t="s">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="DD76" s="3" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="DE76" s="3" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="DF76" s="3" t="s">
-        <v>1653</v>
+        <v>1657</v>
       </c>
       <c r="DG76" s="3" t="s">
-        <v>1654</v>
+        <v>1658</v>
       </c>
       <c r="DH76" s="3" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="DI76" s="3" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="DJ76" s="3" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="DK76" s="3" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="DL76" s="3" t="s">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="DM76" s="3" t="s">
-        <v>1660</v>
+        <v>1664</v>
       </c>
       <c r="DN76" s="3" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="77" spans="1:118">
@@ -32582,13 +32594,13 @@
         <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>1748</v>
+        <v>1752</v>
       </c>
       <c r="C77" t="s">
         <v>148</v>
       </c>
       <c r="D77" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="E77" t="s">
         <v>148</v>
@@ -32612,25 +32624,25 @@
         <v>148</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="S77" s="3" t="s">
         <v>148</v>
@@ -32681,256 +32693,256 @@
         <v>149</v>
       </c>
       <c r="AI77" s="3" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="AJ77" s="3" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="AK77" s="3" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="AL77" s="3" t="s">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="AM77" s="3" t="s">
-        <v>1667</v>
+        <v>1671</v>
       </c>
       <c r="AN77" s="3" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="AO77" s="3" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="AP77" s="3" t="s">
-        <v>1670</v>
+        <v>1674</v>
       </c>
       <c r="AQ77" s="3" t="s">
-        <v>1671</v>
+        <v>1675</v>
       </c>
       <c r="AR77" s="3" t="s">
-        <v>1672</v>
+        <v>1676</v>
       </c>
       <c r="AS77" s="3" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="AT77" s="3" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="AU77" s="3" t="s">
-        <v>1675</v>
+        <v>1679</v>
       </c>
       <c r="AV77" s="3" t="s">
-        <v>1676</v>
+        <v>1680</v>
       </c>
       <c r="AW77" s="3" t="s">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="AX77" s="3" t="s">
-        <v>1678</v>
+        <v>1682</v>
       </c>
       <c r="AY77" s="3" t="s">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="AZ77" s="3" t="s">
-        <v>1680</v>
+        <v>1684</v>
       </c>
       <c r="BA77" s="3" t="s">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="BB77" s="3" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="BC77" s="3" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="BD77" s="3" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="BE77" s="3" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="BF77" s="3" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="BG77" s="3" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="BH77" s="3" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="BI77" s="3" t="s">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="BJ77" s="3" t="s">
-        <v>1690</v>
+        <v>1694</v>
       </c>
       <c r="BK77" s="3" t="s">
-        <v>1691</v>
+        <v>1695</v>
       </c>
       <c r="BL77" s="3" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="BM77" s="3" t="s">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="BN77" s="3" t="s">
-        <v>1694</v>
+        <v>1698</v>
       </c>
       <c r="BO77" s="3" t="s">
-        <v>1695</v>
+        <v>1699</v>
       </c>
       <c r="BP77" s="3" t="s">
-        <v>1696</v>
+        <v>1700</v>
       </c>
       <c r="BQ77" s="3" t="s">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="BR77" s="3" t="s">
-        <v>1698</v>
+        <v>1702</v>
       </c>
       <c r="BS77" s="3" t="s">
-        <v>1699</v>
+        <v>1703</v>
       </c>
       <c r="BT77" s="3" t="s">
-        <v>1700</v>
+        <v>1704</v>
       </c>
       <c r="BU77" s="3" t="s">
-        <v>1701</v>
+        <v>1705</v>
       </c>
       <c r="BV77" s="3" t="s">
-        <v>1702</v>
+        <v>1706</v>
       </c>
       <c r="BW77" s="3" t="s">
-        <v>1703</v>
+        <v>1707</v>
       </c>
       <c r="BX77" s="3" t="s">
-        <v>1704</v>
+        <v>1708</v>
       </c>
       <c r="BY77" s="3" t="s">
-        <v>1705</v>
+        <v>1709</v>
       </c>
       <c r="BZ77" s="3" t="s">
-        <v>1706</v>
+        <v>1710</v>
       </c>
       <c r="CA77" s="3" t="s">
-        <v>1707</v>
+        <v>1711</v>
       </c>
       <c r="CB77" s="3" t="s">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="CC77" s="3" t="s">
-        <v>1709</v>
+        <v>1713</v>
       </c>
       <c r="CD77" s="3" t="s">
-        <v>1710</v>
+        <v>1714</v>
       </c>
       <c r="CE77" s="3" t="s">
-        <v>1711</v>
+        <v>1715</v>
       </c>
       <c r="CF77" s="3" t="s">
-        <v>1712</v>
+        <v>1716</v>
       </c>
       <c r="CG77" s="3" t="s">
-        <v>1713</v>
+        <v>1717</v>
       </c>
       <c r="CH77" s="3" t="s">
-        <v>1714</v>
+        <v>1718</v>
       </c>
       <c r="CI77" s="3" t="s">
-        <v>1715</v>
+        <v>1719</v>
       </c>
       <c r="CJ77" s="3" t="s">
-        <v>1716</v>
+        <v>1720</v>
       </c>
       <c r="CK77" s="3" t="s">
-        <v>1717</v>
+        <v>1721</v>
       </c>
       <c r="CL77" s="3" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="CM77" s="3" t="s">
-        <v>1719</v>
+        <v>1723</v>
       </c>
       <c r="CN77" s="3" t="s">
-        <v>1720</v>
+        <v>1724</v>
       </c>
       <c r="CO77" s="3" t="s">
-        <v>1721</v>
+        <v>1725</v>
       </c>
       <c r="CP77" s="3" t="s">
-        <v>1722</v>
+        <v>1726</v>
       </c>
       <c r="CQ77" s="3" t="s">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="CR77" s="3" t="s">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="CS77" s="3" t="s">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="CT77" s="3" t="s">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="CU77" s="3" t="s">
-        <v>1727</v>
+        <v>1731</v>
       </c>
       <c r="CV77" s="3" t="s">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="CW77" s="3" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="CX77" s="3" t="s">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="CY77" s="3" t="s">
-        <v>1731</v>
+        <v>1735</v>
       </c>
       <c r="CZ77" s="3" t="s">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="DA77" s="3" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="DB77" s="3" t="s">
-        <v>1734</v>
+        <v>1738</v>
       </c>
       <c r="DC77" s="3" t="s">
-        <v>1735</v>
+        <v>1739</v>
       </c>
       <c r="DD77" s="3" t="s">
-        <v>1736</v>
+        <v>1740</v>
       </c>
       <c r="DE77" s="3" t="s">
-        <v>1737</v>
+        <v>1741</v>
       </c>
       <c r="DF77" s="3" t="s">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="DG77" s="3" t="s">
-        <v>1739</v>
+        <v>1743</v>
       </c>
       <c r="DH77" s="3" t="s">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="DI77" s="3" t="s">
-        <v>1741</v>
+        <v>1745</v>
       </c>
       <c r="DJ77" s="3" t="s">
-        <v>1742</v>
+        <v>1746</v>
       </c>
       <c r="DK77" s="3" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="DL77" s="3" t="s">
-        <v>1744</v>
+        <v>1748</v>
       </c>
       <c r="DM77" s="3" t="s">
-        <v>1745</v>
+        <v>1749</v>
       </c>
       <c r="DN77" s="3" t="s">
-        <v>1746</v>
+        <v>1750</v>
       </c>
     </row>
   </sheetData>

--- a/pysiaf/pre_delivery_data/NIRSpec/NIRSpec_SIAF.xlsx
+++ b/pysiaf/pre_delivery_data/NIRSpec/NIRSpec_SIAF.xlsx
@@ -6703,17 +6703,17 @@
       </c>
       <c r="P12" s="3" t="inlineStr">
         <is>
-          <t>299.8354797363281</t>
+          <t>300.00927734375</t>
         </is>
       </c>
       <c r="Q12" s="3" t="inlineStr">
         <is>
-          <t>-498.2568054199219</t>
+          <t>-498.0792541503906</t>
         </is>
       </c>
       <c r="R12" s="3" t="inlineStr">
         <is>
-          <t>138.9725341796875</t>
+          <t>138.97164916992188</t>
         </is>
       </c>
       <c r="S12" s="3" t="inlineStr">
@@ -6743,42 +6743,42 @@
       </c>
       <c r="X12" s="3" t="inlineStr">
         <is>
-          <t>1.4861502647399902</t>
+          <t>1.4861249923706055</t>
         </is>
       </c>
       <c r="Y12" s="3" t="inlineStr">
         <is>
-          <t>1.4858390092849731</t>
+          <t>1.4858232736587524</t>
         </is>
       </c>
       <c r="Z12" s="3" t="inlineStr">
         <is>
-          <t>-1.6110278367996216</t>
+          <t>-1.61100435256958</t>
         </is>
       </c>
       <c r="AA12" s="3" t="inlineStr">
         <is>
-          <t>-1.6113126277923584</t>
+          <t>-1.6112955808639526</t>
         </is>
       </c>
       <c r="AB12" s="3" t="inlineStr">
         <is>
-          <t>1.6356580257415771</t>
+          <t>1.6356810331344604</t>
         </is>
       </c>
       <c r="AC12" s="3" t="inlineStr">
         <is>
-          <t>-1.5640443563461304</t>
+          <t>-1.56397545337677</t>
         </is>
       </c>
       <c r="AD12" s="3" t="inlineStr">
         <is>
-          <t>-1.526963472366333</t>
+          <t>-1.5269883871078491</t>
         </is>
       </c>
       <c r="AE12" s="3" t="inlineStr">
         <is>
-          <t>1.6731914281845093</t>
+          <t>1.6731635332107544</t>
         </is>
       </c>
       <c r="AF12" s="3" t="inlineStr">
@@ -7295,17 +7295,17 @@
       </c>
       <c r="P13" s="3" t="inlineStr">
         <is>
-          <t>299.7933654785156</t>
+          <t>299.9671630859375</t>
         </is>
       </c>
       <c r="Q13" s="3" t="inlineStr">
         <is>
-          <t>-498.365966796875</t>
+          <t>-498.1883850097656</t>
         </is>
       </c>
       <c r="R13" s="3" t="inlineStr">
         <is>
-          <t>138.97267150878906</t>
+          <t>138.97178649902344</t>
         </is>
       </c>
       <c r="S13" s="3" t="inlineStr">
@@ -7335,42 +7335,42 @@
       </c>
       <c r="X13" s="3" t="inlineStr">
         <is>
-          <t>0.048907458782196045</t>
+          <t>0.04886263608932495</t>
         </is>
       </c>
       <c r="Y13" s="3" t="inlineStr">
         <is>
-          <t>0.048874735832214355</t>
+          <t>0.04885953664779663</t>
         </is>
       </c>
       <c r="Z13" s="3" t="inlineStr">
         <is>
-          <t>-0.05452162027359009</t>
+          <t>-0.05455988645553589</t>
         </is>
       </c>
       <c r="AA13" s="3" t="inlineStr">
         <is>
-          <t>-0.05455499887466431</t>
+          <t>-0.054556846618652344</t>
         </is>
       </c>
       <c r="AB13" s="3" t="inlineStr">
         <is>
-          <t>1.602219820022583</t>
+          <t>1.6022435426712036</t>
         </is>
       </c>
       <c r="AC13" s="3" t="inlineStr">
         <is>
-          <t>-1.6030187606811523</t>
+          <t>-1.6029717922210693</t>
         </is>
       </c>
       <c r="AD13" s="3" t="inlineStr">
         <is>
-          <t>-1.6017649173736572</t>
+          <t>-1.6017398834228516</t>
         </is>
       </c>
       <c r="AE13" s="3" t="inlineStr">
         <is>
-          <t>1.6034563779830933</t>
+          <t>1.603475570678711</t>
         </is>
       </c>
       <c r="AF13" s="3" t="inlineStr">
@@ -7887,17 +7887,17 @@
       </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>299.8705749511719</t>
+          <t>300.04437255859375</t>
         </is>
       </c>
       <c r="Q14" s="3" t="inlineStr">
         <is>
-          <t>-498.297119140625</t>
+          <t>-498.11956787109375</t>
         </is>
       </c>
       <c r="R14" s="3" t="inlineStr">
         <is>
-          <t>138.97232055664062</t>
+          <t>138.971435546875</t>
         </is>
       </c>
       <c r="S14" s="3" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="X14" s="3" t="inlineStr">
         <is>
-          <t>0.04878842830657959</t>
+          <t>0.04880702495574951</t>
         </is>
       </c>
       <c r="Y14" s="3" t="inlineStr">
         <is>
-          <t>0.048778533935546875</t>
+          <t>0.04878300428390503</t>
         </is>
       </c>
       <c r="Z14" s="3" t="inlineStr">
         <is>
-          <t>-0.054554760456085205</t>
+          <t>-0.054550349712371826</t>
         </is>
       </c>
       <c r="AA14" s="3" t="inlineStr">
         <is>
-          <t>-0.05454188585281372</t>
+          <t>-0.054566383361816406</t>
         </is>
       </c>
       <c r="AB14" s="3" t="inlineStr">
         <is>
-          <t>1.6022059917449951</t>
+          <t>1.602203607559204</t>
         </is>
       </c>
       <c r="AC14" s="3" t="inlineStr">
         <is>
-          <t>-1.6029894351959229</t>
+          <t>-1.6029655933380127</t>
         </is>
       </c>
       <c r="AD14" s="3" t="inlineStr">
         <is>
-          <t>-1.601762294769287</t>
+          <t>-1.6017401218414307</t>
         </is>
       </c>
       <c r="AE14" s="3" t="inlineStr">
         <is>
-          <t>1.6034760475158691</t>
+          <t>1.6034750938415527</t>
         </is>
       </c>
       <c r="AF14" s="3" t="inlineStr">
@@ -8479,17 +8479,17 @@
       </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>299.7160949707031</t>
+          <t>299.889892578125</t>
         </is>
       </c>
       <c r="Q15" s="3" t="inlineStr">
         <is>
-          <t>-498.4348449707031</t>
+          <t>-498.2572937011719</t>
         </is>
       </c>
       <c r="R15" s="3" t="inlineStr">
         <is>
-          <t>138.97303771972656</t>
+          <t>138.97215270996094</t>
         </is>
       </c>
       <c r="S15" s="3" t="inlineStr">
@@ -8519,42 +8519,42 @@
       </c>
       <c r="X15" s="3" t="inlineStr">
         <is>
-          <t>0.04896080493927002</t>
+          <t>0.048979103565216064</t>
         </is>
       </c>
       <c r="Y15" s="3" t="inlineStr">
         <is>
-          <t>0.04897361993789673</t>
+          <t>0.04895538091659546</t>
         </is>
       </c>
       <c r="Z15" s="3" t="inlineStr">
         <is>
-          <t>-0.05450892448425293</t>
+          <t>-0.0545041561126709</t>
         </is>
       </c>
       <c r="AA15" s="3" t="inlineStr">
         <is>
-          <t>-0.05452471971511841</t>
+          <t>-0.05450642108917236</t>
         </is>
       </c>
       <c r="AB15" s="3" t="inlineStr">
         <is>
-          <t>1.602216362953186</t>
+          <t>1.6022142171859741</t>
         </is>
       </c>
       <c r="AC15" s="3" t="inlineStr">
         <is>
-          <t>-1.603004813194275</t>
+          <t>-1.6030011177062988</t>
         </is>
       </c>
       <c r="AD15" s="3" t="inlineStr">
         <is>
-          <t>-1.601744532585144</t>
+          <t>-1.6017223596572876</t>
         </is>
       </c>
       <c r="AE15" s="3" t="inlineStr">
         <is>
-          <t>1.603433609008789</t>
+          <t>1.6034297943115234</t>
         </is>
       </c>
       <c r="AF15" s="3" t="inlineStr">
@@ -9071,17 +9071,17 @@
       </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>299.9477233886719</t>
+          <t>300.12152099609375</t>
         </is>
       </c>
       <c r="Q16" s="3" t="inlineStr">
         <is>
-          <t>-498.22833251953125</t>
+          <t>-498.05078125</t>
         </is>
       </c>
       <c r="R16" s="3" t="inlineStr">
         <is>
-          <t>138.9719696044922</t>
+          <t>138.97108459472656</t>
         </is>
       </c>
       <c r="S16" s="3" t="inlineStr">
@@ -9111,42 +9111,42 @@
       </c>
       <c r="X16" s="3" t="inlineStr">
         <is>
-          <t>0.04873281717300415</t>
+          <t>0.04870796203613281</t>
         </is>
       </c>
       <c r="Y16" s="3" t="inlineStr">
         <is>
-          <t>0.04870504140853882</t>
+          <t>0.04870980978012085</t>
         </is>
       </c>
       <c r="Z16" s="3" t="inlineStr">
         <is>
-          <t>-0.0545651912689209</t>
+          <t>-0.05456042289733887</t>
         </is>
       </c>
       <c r="AA16" s="3" t="inlineStr">
         <is>
-          <t>-0.054574549198150635</t>
+          <t>-0.05455636978149414</t>
         </is>
       </c>
       <c r="AB16" s="3" t="inlineStr">
         <is>
-          <t>1.6021661758422852</t>
+          <t>1.6021668910980225</t>
         </is>
       </c>
       <c r="AC16" s="3" t="inlineStr">
         <is>
-          <t>-1.6029400825500488</t>
+          <t>-1.6029162406921387</t>
         </is>
       </c>
       <c r="AD16" s="3" t="inlineStr">
         <is>
-          <t>-1.6017396450042725</t>
+          <t>-1.601717472076416</t>
         </is>
       </c>
       <c r="AE16" s="3" t="inlineStr">
         <is>
-          <t>1.6034557819366455</t>
+          <t>1.6034518480300903</t>
         </is>
       </c>
       <c r="AF16" s="3" t="inlineStr">
@@ -9663,17 +9663,17 @@
       </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>299.6387939453125</t>
+          <t>299.8125915527344</t>
         </is>
       </c>
       <c r="Q17" s="3" t="inlineStr">
         <is>
-          <t>-498.5037536621094</t>
+          <t>-498.3262023925781</t>
         </is>
       </c>
       <c r="R17" s="3" t="inlineStr">
         <is>
-          <t>138.973388671875</t>
+          <t>138.97250366210938</t>
         </is>
       </c>
       <c r="S17" s="3" t="inlineStr">
@@ -9703,42 +9703,42 @@
       </c>
       <c r="X17" s="3" t="inlineStr">
         <is>
-          <t>0.04903346300125122</t>
+          <t>0.04905205965042114</t>
         </is>
       </c>
       <c r="Y17" s="3" t="inlineStr">
         <is>
-          <t>0.049030184745788574</t>
+          <t>0.04903453588485718</t>
         </is>
       </c>
       <c r="Z17" s="3" t="inlineStr">
         <is>
-          <t>-0.05453544855117798</t>
+          <t>-0.054511070251464844</t>
         </is>
       </c>
       <c r="AA17" s="3" t="inlineStr">
         <is>
-          <t>-0.05451810359954834</t>
+          <t>-0.05452251434326172</t>
         </is>
       </c>
       <c r="AB17" s="3" t="inlineStr">
         <is>
-          <t>1.6021900177001953</t>
+          <t>1.6021878719329834</t>
         </is>
       </c>
       <c r="AC17" s="3" t="inlineStr">
         <is>
-          <t>-1.6029881238937378</t>
+          <t>-1.6029644012451172</t>
         </is>
       </c>
       <c r="AD17" s="3" t="inlineStr">
         <is>
-          <t>-1.6016781330108643</t>
+          <t>-1.6016790866851807</t>
         </is>
       </c>
       <c r="AE17" s="3" t="inlineStr">
         <is>
-          <t>1.6033909320831299</t>
+          <t>1.6033670902252197</t>
         </is>
       </c>
       <c r="AF17" s="3" t="inlineStr">
@@ -10255,17 +10255,17 @@
       </c>
       <c r="P18" s="3" t="inlineStr">
         <is>
-          <t>300.02484130859375</t>
+          <t>300.1986389160156</t>
         </is>
       </c>
       <c r="Q18" s="3" t="inlineStr">
         <is>
-          <t>-498.15960693359375</t>
+          <t>-497.9820556640625</t>
         </is>
       </c>
       <c r="R18" s="3" t="inlineStr">
         <is>
-          <t>138.9716033935547</t>
+          <t>138.97071838378906</t>
         </is>
       </c>
       <c r="S18" s="3" t="inlineStr">
@@ -10295,42 +10295,42 @@
       </c>
       <c r="X18" s="3" t="inlineStr">
         <is>
-          <t>0.048630475997924805</t>
+          <t>0.04862862825393677</t>
         </is>
       </c>
       <c r="Y18" s="3" t="inlineStr">
         <is>
-          <t>0.04863220453262329</t>
+          <t>0.04861396551132202</t>
         </is>
       </c>
       <c r="Z18" s="3" t="inlineStr">
         <is>
-          <t>-0.05457496643066406</t>
+          <t>-0.05457019805908203</t>
         </is>
       </c>
       <c r="AA18" s="3" t="inlineStr">
         <is>
-          <t>-0.05456775426864624</t>
+          <t>-0.05459260940551758</t>
         </is>
       </c>
       <c r="AB18" s="3" t="inlineStr">
         <is>
-          <t>1.6020863056182861</t>
+          <t>1.6021071672439575</t>
         </is>
       </c>
       <c r="AC18" s="3" t="inlineStr">
         <is>
-          <t>-1.6028907299041748</t>
+          <t>-1.6028869152069092</t>
         </is>
       </c>
       <c r="AD18" s="3" t="inlineStr">
         <is>
-          <t>-1.6017169952392578</t>
+          <t>-1.6016947031021118</t>
         </is>
       </c>
       <c r="AE18" s="3" t="inlineStr">
         <is>
-          <t>1.6033892631530762</t>
+          <t>1.6033883094787598</t>
         </is>
       </c>
       <c r="AF18" s="3" t="inlineStr">
@@ -10847,17 +10847,17 @@
       </c>
       <c r="P19" s="3" t="inlineStr">
         <is>
-          <t>299.5614318847656</t>
+          <t>299.7352294921875</t>
         </is>
       </c>
       <c r="Q19" s="3" t="inlineStr">
         <is>
-          <t>-498.5727233886719</t>
+          <t>-498.3951721191406</t>
         </is>
       </c>
       <c r="R19" s="3" t="inlineStr">
         <is>
-          <t>138.9737548828125</t>
+          <t>138.97286987304688</t>
         </is>
       </c>
       <c r="S19" s="3" t="inlineStr">
@@ -10887,42 +10887,42 @@
       </c>
       <c r="X19" s="3" t="inlineStr">
         <is>
-          <t>0.04912692308425903</t>
+          <t>0.049122512340545654</t>
         </is>
       </c>
       <c r="Y19" s="3" t="inlineStr">
         <is>
-          <t>0.04908883571624756</t>
+          <t>0.049113333225250244</t>
         </is>
       </c>
       <c r="Z19" s="3" t="inlineStr">
         <is>
-          <t>-0.05449676513671875</t>
+          <t>-0.054472386837005615</t>
         </is>
       </c>
       <c r="AA19" s="3" t="inlineStr">
         <is>
-          <t>-0.054513752460479736</t>
+          <t>-0.05449509620666504</t>
         </is>
       </c>
       <c r="AB19" s="3" t="inlineStr">
         <is>
-          <t>1.6021406650543213</t>
+          <t>1.6021184921264648</t>
         </is>
       </c>
       <c r="AC19" s="3" t="inlineStr">
         <is>
-          <t>-1.6029282808303833</t>
+          <t>-1.602927565574646</t>
         </is>
       </c>
       <c r="AD19" s="3" t="inlineStr">
         <is>
-          <t>-1.6015946865081787</t>
+          <t>-1.6015955209732056</t>
         </is>
       </c>
       <c r="AE19" s="3" t="inlineStr">
         <is>
-          <t>1.6033051013946533</t>
+          <t>1.6033012866973877</t>
         </is>
       </c>
       <c r="AF19" s="3" t="inlineStr">
@@ -11439,17 +11439,17 @@
       </c>
       <c r="P20" s="3" t="inlineStr">
         <is>
-          <t>300.10186767578125</t>
+          <t>300.2756652832031</t>
         </is>
       </c>
       <c r="Q20" s="3" t="inlineStr">
         <is>
-          <t>-498.0909118652344</t>
+          <t>-497.9133605957031</t>
         </is>
       </c>
       <c r="R20" s="3" t="inlineStr">
         <is>
-          <t>138.97125244140625</t>
+          <t>138.97036743164062</t>
         </is>
       </c>
       <c r="S20" s="3" t="inlineStr">
@@ -11479,42 +11479,42 @@
       </c>
       <c r="X20" s="3" t="inlineStr">
         <is>
-          <t>0.04855144023895264</t>
+          <t>0.0485265851020813</t>
         </is>
       </c>
       <c r="Y20" s="3" t="inlineStr">
         <is>
-          <t>0.048542022705078125</t>
+          <t>0.048523783683776855</t>
         </is>
       </c>
       <c r="Z20" s="3" t="inlineStr">
         <is>
-          <t>-0.05455905199050903</t>
+          <t>-0.05457723140716553</t>
         </is>
       </c>
       <c r="AA20" s="3" t="inlineStr">
         <is>
-          <t>-0.054580748081207275</t>
+          <t>-0.05458259582519531</t>
         </is>
       </c>
       <c r="AB20" s="3" t="inlineStr">
         <is>
-          <t>1.6020267009735107</t>
+          <t>1.602027416229248</t>
         </is>
       </c>
       <c r="AC20" s="3" t="inlineStr">
         <is>
-          <t>-1.6027753353118896</t>
+          <t>-1.602771520614624</t>
         </is>
       </c>
       <c r="AD20" s="3" t="inlineStr">
         <is>
-          <t>-1.6016311645507812</t>
+          <t>-1.6016290187835693</t>
         </is>
       </c>
       <c r="AE20" s="3" t="inlineStr">
         <is>
-          <t>1.6033458709716797</t>
+          <t>1.6033650636672974</t>
         </is>
       </c>
       <c r="AF20" s="3" t="inlineStr">
@@ -12031,17 +12031,17 @@
       </c>
       <c r="P21" s="3" t="inlineStr">
         <is>
-          <t>299.4840087890625</t>
+          <t>299.6578369140625</t>
         </is>
       </c>
       <c r="Q21" s="3" t="inlineStr">
         <is>
-          <t>-498.6417541503906</t>
+          <t>-498.46417236328125</t>
         </is>
       </c>
       <c r="R21" s="3" t="inlineStr">
         <is>
-          <t>138.97410583496094</t>
+          <t>138.9732208251953</t>
         </is>
       </c>
       <c r="S21" s="3" t="inlineStr">
@@ -12071,42 +12071,42 @@
       </c>
       <c r="X21" s="3" t="inlineStr">
         <is>
-          <t>0.04921692609786987</t>
+          <t>0.049192190170288086</t>
         </is>
       </c>
       <c r="Y21" s="3" t="inlineStr">
         <is>
-          <t>0.04921412467956543</t>
+          <t>0.049195826053619385</t>
         </is>
       </c>
       <c r="Z21" s="3" t="inlineStr">
         <is>
-          <t>-0.054457664489746094</t>
+          <t>-0.05447590351104736</t>
         </is>
       </c>
       <c r="AA21" s="3" t="inlineStr">
         <is>
-          <t>-0.05446678400039673</t>
+          <t>-0.05449157953262329</t>
         </is>
       </c>
       <c r="AB21" s="3" t="inlineStr">
         <is>
-          <t>1.602048397064209</t>
+          <t>1.6020491123199463</t>
         </is>
       </c>
       <c r="AC21" s="3" t="inlineStr">
         <is>
-          <t>-1.6028515100479126</t>
+          <t>-1.6028478145599365</t>
         </is>
       </c>
       <c r="AD21" s="3" t="inlineStr">
         <is>
-          <t>-1.6015112400054932</t>
+          <t>-1.6015090942382812</t>
         </is>
       </c>
       <c r="AE21" s="3" t="inlineStr">
         <is>
-          <t>1.6032164096832275</t>
+          <t>1.6032156944274902</t>
         </is>
       </c>
       <c r="AF21" s="3" t="inlineStr">
@@ -12623,17 +12623,17 @@
       </c>
       <c r="P22" s="3" t="inlineStr">
         <is>
-          <t>300.1788635253906</t>
+          <t>300.3526611328125</t>
         </is>
       </c>
       <c r="Q22" s="3" t="inlineStr">
         <is>
-          <t>-498.02227783203125</t>
+          <t>-497.8447570800781</t>
         </is>
       </c>
       <c r="R22" s="3" t="inlineStr">
         <is>
-          <t>138.97088623046875</t>
+          <t>138.97000122070312</t>
         </is>
       </c>
       <c r="S22" s="3" t="inlineStr">
@@ -12663,42 +12663,42 @@
       </c>
       <c r="X22" s="3" t="inlineStr">
         <is>
-          <t>0.04844599962234497</t>
+          <t>0.04844164848327637</t>
         </is>
       </c>
       <c r="Y22" s="3" t="inlineStr">
         <is>
-          <t>0.048409104347229004</t>
+          <t>0.04843348264694214</t>
         </is>
       </c>
       <c r="Z22" s="3" t="inlineStr">
         <is>
-          <t>-0.054585814476013184</t>
+          <t>-0.05458444356918335</t>
         </is>
       </c>
       <c r="AA22" s="3" t="inlineStr">
         <is>
-          <t>-0.05459696054458618</t>
+          <t>-0.054601430892944336</t>
         </is>
       </c>
       <c r="AB22" s="3" t="inlineStr">
         <is>
-          <t>1.6019036769866943</t>
+          <t>1.601881504058838</t>
         </is>
       </c>
       <c r="AC22" s="3" t="inlineStr">
         <is>
-          <t>-1.6026568412780762</t>
+          <t>-1.6026561260223389</t>
         </is>
       </c>
       <c r="AD22" s="3" t="inlineStr">
         <is>
-          <t>-1.6015424728393555</t>
+          <t>-1.6015632152557373</t>
         </is>
       </c>
       <c r="AE22" s="3" t="inlineStr">
         <is>
-          <t>1.6032593250274658</t>
+          <t>1.6032356023788452</t>
         </is>
       </c>
       <c r="AF22" s="3" t="inlineStr">
@@ -13215,17 +13215,17 @@
       </c>
       <c r="P23" s="3" t="inlineStr">
         <is>
-          <t>299.4065856933594</t>
+          <t>299.58038330078125</t>
         </is>
       </c>
       <c r="Q23" s="3" t="inlineStr">
         <is>
-          <t>-498.7107849121094</t>
+          <t>-498.5332336425781</t>
         </is>
       </c>
       <c r="R23" s="3" t="inlineStr">
         <is>
-          <t>138.97447204589844</t>
+          <t>138.9735870361328</t>
         </is>
       </c>
       <c r="S23" s="3" t="inlineStr">
@@ -13255,42 +13255,42 @@
       </c>
       <c r="X23" s="3" t="inlineStr">
         <is>
-          <t>0.049264371395111084</t>
+          <t>0.04928255081176758</t>
         </is>
       </c>
       <c r="Y23" s="3" t="inlineStr">
         <is>
-          <t>0.04925274848937988</t>
+          <t>0.049277663230895996</t>
         </is>
       </c>
       <c r="Z23" s="3" t="inlineStr">
         <is>
-          <t>-0.05445903539657593</t>
+          <t>-0.05443418025970459</t>
         </is>
       </c>
       <c r="AA23" s="3" t="inlineStr">
         <is>
-          <t>-0.05446535348892212</t>
+          <t>-0.054447174072265625</t>
         </is>
       </c>
       <c r="AB23" s="3" t="inlineStr">
         <is>
-          <t>1.6019588708877563</t>
+          <t>1.601956844329834</t>
         </is>
       </c>
       <c r="AC23" s="3" t="inlineStr">
         <is>
-          <t>-1.6027686595916748</t>
+          <t>-1.6027679443359375</t>
         </is>
       </c>
       <c r="AD23" s="3" t="inlineStr">
         <is>
-          <t>-1.6013816595077515</t>
+          <t>-1.6013826131820679</t>
         </is>
       </c>
       <c r="AE23" s="3" t="inlineStr">
         <is>
-          <t>1.6030875444412231</t>
+          <t>1.603083848953247</t>
         </is>
       </c>
       <c r="AF23" s="3" t="inlineStr">
@@ -13807,17 +13807,17 @@
       </c>
       <c r="P24" s="3" t="inlineStr">
         <is>
-          <t>300.2557678222656</t>
+          <t>300.4295654296875</t>
         </is>
       </c>
       <c r="Q24" s="3" t="inlineStr">
         <is>
-          <t>-497.9537353515625</t>
+          <t>-497.77618408203125</t>
         </is>
       </c>
       <c r="R24" s="3" t="inlineStr">
         <is>
-          <t>138.9705352783203</t>
+          <t>138.9696502685547</t>
         </is>
       </c>
       <c r="S24" s="3" t="inlineStr">
@@ -13847,42 +13847,42 @@
       </c>
       <c r="X24" s="3" t="inlineStr">
         <is>
-          <t>0.04836142063140869</t>
+          <t>0.04833662509918213</t>
         </is>
       </c>
       <c r="Y24" s="3" t="inlineStr">
         <is>
-          <t>0.048341453075408936</t>
+          <t>0.04832327365875244</t>
         </is>
       </c>
       <c r="Z24" s="3" t="inlineStr">
         <is>
-          <t>-0.05459034442901611</t>
+          <t>-0.05458557605743408</t>
         </is>
       </c>
       <c r="AA24" s="3" t="inlineStr">
         <is>
-          <t>-0.05457240343093872</t>
+          <t>-0.054597318172454834</t>
         </is>
       </c>
       <c r="AB24" s="3" t="inlineStr">
         <is>
-          <t>1.6017577648162842</t>
+          <t>1.601758599281311</t>
         </is>
       </c>
       <c r="AC24" s="3" t="inlineStr">
         <is>
-          <t>-1.6025214195251465</t>
+          <t>-1.6025177240371704</t>
         </is>
       </c>
       <c r="AD24" s="3" t="inlineStr">
         <is>
-          <t>-1.601433515548706</t>
+          <t>-1.6014115810394287</t>
         </is>
       </c>
       <c r="AE24" s="3" t="inlineStr">
         <is>
-          <t>1.603126883506775</t>
+          <t>1.6031261682510376</t>
         </is>
       </c>
       <c r="AF24" s="3" t="inlineStr">
@@ -14399,17 +14399,17 @@
       </c>
       <c r="P25" s="3" t="inlineStr">
         <is>
-          <t>299.3291015625</t>
+          <t>299.5028991699219</t>
         </is>
       </c>
       <c r="Q25" s="3" t="inlineStr">
         <is>
-          <t>-498.7798767089844</t>
+          <t>-498.602294921875</t>
         </is>
       </c>
       <c r="R25" s="3" t="inlineStr">
         <is>
-          <t>138.97482299804688</t>
+          <t>138.97393798828125</t>
         </is>
       </c>
       <c r="S25" s="3" t="inlineStr">
@@ -14439,42 +14439,42 @@
       </c>
       <c r="X25" s="3" t="inlineStr">
         <is>
-          <t>0.0493510365486145</t>
+          <t>0.04934960603713989</t>
         </is>
       </c>
       <c r="Y25" s="3" t="inlineStr">
         <is>
-          <t>0.049338340759277344</t>
+          <t>0.04934275150299072</t>
         </is>
       </c>
       <c r="Z25" s="3" t="inlineStr">
         <is>
-          <t>-0.054416537284851074</t>
+          <t>-0.054412126541137695</t>
         </is>
       </c>
       <c r="AA25" s="3" t="inlineStr">
         <is>
-          <t>-0.05442178249359131</t>
+          <t>-0.05444622039794922</t>
         </is>
       </c>
       <c r="AB25" s="3" t="inlineStr">
         <is>
-          <t>1.6018235683441162</t>
+          <t>1.601844310760498</t>
         </is>
       </c>
       <c r="AC25" s="3" t="inlineStr">
         <is>
-          <t>-1.6026458740234375</t>
+          <t>-1.6026220321655273</t>
         </is>
       </c>
       <c r="AD25" s="3" t="inlineStr">
         <is>
-          <t>-1.601255178451538</t>
+          <t>-1.6012330055236816</t>
         </is>
       </c>
       <c r="AE25" s="3" t="inlineStr">
         <is>
-          <t>1.6029558181762695</t>
+          <t>1.6029548645019531</t>
         </is>
       </c>
       <c r="AF25" s="3" t="inlineStr">
@@ -14991,17 +14991,17 @@
       </c>
       <c r="P26" s="3" t="inlineStr">
         <is>
-          <t>300.3326110839844</t>
+          <t>300.50640869140625</t>
         </is>
       </c>
       <c r="Q26" s="3" t="inlineStr">
         <is>
-          <t>-497.8852233886719</t>
+          <t>-497.70770263671875</t>
         </is>
       </c>
       <c r="R26" s="3" t="inlineStr">
         <is>
-          <t>138.97018432617188</t>
+          <t>138.96929931640625</t>
         </is>
       </c>
       <c r="S26" s="3" t="inlineStr">
@@ -15031,42 +15031,42 @@
       </c>
       <c r="X26" s="3" t="inlineStr">
         <is>
-          <t>0.04825347661972046</t>
+          <t>0.04824864864349365</t>
         </is>
       </c>
       <c r="Y26" s="3" t="inlineStr">
         <is>
-          <t>0.04823124408721924</t>
+          <t>0.048236072063446045</t>
         </is>
       </c>
       <c r="Z26" s="3" t="inlineStr">
         <is>
-          <t>-0.054591476917266846</t>
+          <t>-0.054589688777923584</t>
         </is>
       </c>
       <c r="AA26" s="3" t="inlineStr">
         <is>
-          <t>-0.054591357707977295</t>
+          <t>-0.0545961856842041</t>
         </is>
       </c>
       <c r="AB26" s="3" t="inlineStr">
         <is>
-          <t>1.6015918254852295</t>
+          <t>1.6015695333480835</t>
         </is>
       </c>
       <c r="AC26" s="3" t="inlineStr">
         <is>
-          <t>-1.6023828983306885</t>
+          <t>-1.6023592948913574</t>
         </is>
       </c>
       <c r="AD26" s="3" t="inlineStr">
         <is>
-          <t>-1.601281762123108</t>
+          <t>-1.6013026237487793</t>
         </is>
       </c>
       <c r="AE26" s="3" t="inlineStr">
         <is>
-          <t>1.6029975414276123</t>
+          <t>1.6029735803604126</t>
         </is>
       </c>
       <c r="AF26" s="3" t="inlineStr">
@@ -15583,17 +15583,17 @@
       </c>
       <c r="P27" s="3" t="inlineStr">
         <is>
-          <t>299.2515869140625</t>
+          <t>299.4253845214844</t>
         </is>
       </c>
       <c r="Q27" s="3" t="inlineStr">
         <is>
-          <t>-498.8489685058594</t>
+          <t>-498.6714172363281</t>
         </is>
       </c>
       <c r="R27" s="3" t="inlineStr">
         <is>
-          <t>138.97518920898438</t>
+          <t>138.97430419921875</t>
         </is>
       </c>
       <c r="S27" s="3" t="inlineStr">
@@ -15623,42 +15623,42 @@
       </c>
       <c r="X27" s="3" t="inlineStr">
         <is>
-          <t>0.049418509006500244</t>
+          <t>0.04941403865814209</t>
         </is>
       </c>
       <c r="Y27" s="3" t="inlineStr">
         <is>
-          <t>0.04940301179885864</t>
+          <t>0.04942750930786133</t>
         </is>
       </c>
       <c r="Z27" s="3" t="inlineStr">
         <is>
-          <t>-0.05439192056655884</t>
+          <t>-0.05436736345291138</t>
         </is>
       </c>
       <c r="AA27" s="3" t="inlineStr">
         <is>
-          <t>-0.05440032482147217</t>
+          <t>-0.0544048547744751</t>
         </is>
       </c>
       <c r="AB27" s="3" t="inlineStr">
         <is>
-          <t>1.6017110347747803</t>
+          <t>1.6016888618469238</t>
         </is>
       </c>
       <c r="AC27" s="3" t="inlineStr">
         <is>
-          <t>-1.6024999618530273</t>
+          <t>-1.60249924659729</t>
         </is>
       </c>
       <c r="AD27" s="3" t="inlineStr">
         <is>
-          <t>-1.6010626554489136</t>
+          <t>-1.6010634899139404</t>
         </is>
       </c>
       <c r="AE27" s="3" t="inlineStr">
         <is>
-          <t>1.6028039455413818</t>
+          <t>1.6027801036834717</t>
         </is>
       </c>
       <c r="AF27" s="3" t="inlineStr">
@@ -16175,17 +16175,17 @@
       </c>
       <c r="P28" s="3" t="inlineStr">
         <is>
-          <t>300.40936279296875</t>
+          <t>300.5831604003906</t>
         </is>
       </c>
       <c r="Q28" s="3" t="inlineStr">
         <is>
-          <t>-497.8168029785156</t>
+          <t>-497.6392517089844</t>
         </is>
       </c>
       <c r="R28" s="3" t="inlineStr">
         <is>
-          <t>138.96981811523438</t>
+          <t>138.96893310546875</t>
         </is>
       </c>
       <c r="S28" s="3" t="inlineStr">
@@ -16215,42 +16215,42 @@
       </c>
       <c r="X28" s="3" t="inlineStr">
         <is>
-          <t>0.048188209533691406</t>
+          <t>0.04816335439682007</t>
         </is>
       </c>
       <c r="Y28" s="3" t="inlineStr">
         <is>
-          <t>0.04814726114273071</t>
+          <t>0.04815208911895752</t>
         </is>
       </c>
       <c r="Z28" s="3" t="inlineStr">
         <is>
-          <t>-0.054572224617004395</t>
+          <t>-0.05458742380142212</t>
         </is>
       </c>
       <c r="AA28" s="3" t="inlineStr">
         <is>
-          <t>-0.054570555686950684</t>
+          <t>-0.05459541082382202</t>
         </is>
       </c>
       <c r="AB28" s="3" t="inlineStr">
         <is>
-          <t>1.601422905921936</t>
+          <t>1.6014236211776733</t>
         </is>
       </c>
       <c r="AC28" s="3" t="inlineStr">
         <is>
-          <t>-1.6021814346313477</t>
+          <t>-1.6021575927734375</t>
         </is>
       </c>
       <c r="AD28" s="3" t="inlineStr">
         <is>
-          <t>-1.6011528968811035</t>
+          <t>-1.6011077165603638</t>
         </is>
       </c>
       <c r="AE28" s="3" t="inlineStr">
         <is>
-          <t>1.6028218269348145</t>
+          <t>1.602820873260498</t>
         </is>
       </c>
       <c r="AF28" s="3" t="inlineStr">
@@ -16767,17 +16767,17 @@
       </c>
       <c r="P29" s="3" t="inlineStr">
         <is>
-          <t>299.1740417480469</t>
+          <t>299.34783935546875</t>
         </is>
       </c>
       <c r="Q29" s="3" t="inlineStr">
         <is>
-          <t>-498.9181213378906</t>
+          <t>-498.74053955078125</t>
         </is>
       </c>
       <c r="R29" s="3" t="inlineStr">
         <is>
-          <t>138.97555541992188</t>
+          <t>138.97467041015625</t>
         </is>
       </c>
       <c r="S29" s="3" t="inlineStr">
@@ -16807,42 +16807,42 @@
       </c>
       <c r="X29" s="3" t="inlineStr">
         <is>
-          <t>0.04950296878814697</t>
+          <t>0.04947805404663086</t>
         </is>
       </c>
       <c r="Y29" s="3" t="inlineStr">
         <is>
-          <t>0.04949080944061279</t>
+          <t>0.0494956374168396</t>
         </is>
       </c>
       <c r="Z29" s="3" t="inlineStr">
         <is>
-          <t>-0.05436718463897705</t>
+          <t>-0.054362356662750244</t>
         </is>
       </c>
       <c r="AA29" s="3" t="inlineStr">
         <is>
-          <t>-0.054361939430236816</t>
+          <t>-0.054363787174224854</t>
         </is>
       </c>
       <c r="AB29" s="3" t="inlineStr">
         <is>
-          <t>1.6015325784683228</t>
+          <t>1.60153329372406</t>
         </is>
       </c>
       <c r="AC29" s="3" t="inlineStr">
         <is>
-          <t>-1.6023340225219727</t>
+          <t>-1.6023101806640625</t>
         </is>
       </c>
       <c r="AD29" s="3" t="inlineStr">
         <is>
-          <t>-1.600870132446289</t>
+          <t>-1.600847840309143</t>
         </is>
       </c>
       <c r="AE29" s="3" t="inlineStr">
         <is>
-          <t>1.602586030960083</t>
+          <t>1.6026052236557007</t>
         </is>
       </c>
       <c r="AF29" s="3" t="inlineStr">
@@ -17359,17 +17359,17 @@
       </c>
       <c r="P30" s="3" t="inlineStr">
         <is>
-          <t>300.4860534667969</t>
+          <t>300.65985107421875</t>
         </is>
       </c>
       <c r="Q30" s="3" t="inlineStr">
         <is>
-          <t>-497.7484130859375</t>
+          <t>-497.5708923339844</t>
         </is>
       </c>
       <c r="R30" s="3" t="inlineStr">
         <is>
-          <t>138.96946716308594</t>
+          <t>138.9685821533203</t>
         </is>
       </c>
       <c r="S30" s="3" t="inlineStr">
@@ -17399,42 +17399,42 @@
       </c>
       <c r="X30" s="3" t="inlineStr">
         <is>
-          <t>0.04805713891983032</t>
+          <t>0.04805272817611694</t>
         </is>
       </c>
       <c r="Y30" s="3" t="inlineStr">
         <is>
-          <t>0.04804307222366333</t>
+          <t>0.04806751012802124</t>
         </is>
       </c>
       <c r="Z30" s="3" t="inlineStr">
         <is>
-          <t>-0.05459040403366089</t>
+          <t>-0.054566025733947754</t>
         </is>
       </c>
       <c r="AA30" s="3" t="inlineStr">
         <is>
-          <t>-0.05456948280334473</t>
+          <t>-0.054573893547058105</t>
         </is>
       </c>
       <c r="AB30" s="3" t="inlineStr">
         <is>
-          <t>1.6012370586395264</t>
+          <t>1.6012146472930908</t>
         </is>
       </c>
       <c r="AC30" s="3" t="inlineStr">
         <is>
-          <t>-1.6019569635391235</t>
+          <t>-1.6019561290740967</t>
         </is>
       </c>
       <c r="AD30" s="3" t="inlineStr">
         <is>
-          <t>-1.6009351015090942</t>
+          <t>-1.600935935974121</t>
         </is>
       </c>
       <c r="AE30" s="3" t="inlineStr">
         <is>
-          <t>1.6026694774627686</t>
+          <t>1.6026455163955688</t>
         </is>
       </c>
       <c r="AF30" s="3" t="inlineStr">
@@ -17951,17 +17951,17 @@
       </c>
       <c r="P31" s="3" t="inlineStr">
         <is>
-          <t>299.0964660644531</t>
+          <t>299.270263671875</t>
         </is>
       </c>
       <c r="Q31" s="3" t="inlineStr">
         <is>
-          <t>-498.9872741699219</t>
+          <t>-498.8097229003906</t>
         </is>
       </c>
       <c r="R31" s="3" t="inlineStr">
         <is>
-          <t>138.9759063720703</t>
+          <t>138.9750213623047</t>
         </is>
       </c>
       <c r="S31" s="3" t="inlineStr">
@@ -17991,42 +17991,42 @@
       </c>
       <c r="X31" s="3" t="inlineStr">
         <is>
-          <t>0.0495639443397522</t>
+          <t>0.04958212375640869</t>
         </is>
       </c>
       <c r="Y31" s="3" t="inlineStr">
         <is>
-          <t>0.04953891038894653</t>
+          <t>0.049563825130462646</t>
         </is>
       </c>
       <c r="Z31" s="3" t="inlineStr">
         <is>
-          <t>-0.054319024085998535</t>
+          <t>-0.05429422855377197</t>
         </is>
       </c>
       <c r="AA31" s="3" t="inlineStr">
         <is>
-          <t>-0.054343998432159424</t>
+          <t>-0.05430573225021362</t>
         </is>
       </c>
       <c r="AB31" s="3" t="inlineStr">
         <is>
-          <t>1.6013340950012207</t>
+          <t>1.6013317108154297</t>
         </is>
       </c>
       <c r="AC31" s="3" t="inlineStr">
         <is>
-          <t>-1.6021220684051514</t>
+          <t>-1.602121353149414</t>
         </is>
       </c>
       <c r="AD31" s="3" t="inlineStr">
         <is>
-          <t>-1.6006574630737305</t>
+          <t>-1.6006581783294678</t>
         </is>
       </c>
       <c r="AE31" s="3" t="inlineStr">
         <is>
-          <t>1.602391242980957</t>
+          <t>1.6023643016815186</t>
         </is>
       </c>
       <c r="AF31" s="3" t="inlineStr">
@@ -18543,17 +18543,17 @@
       </c>
       <c r="P32" s="3" t="inlineStr">
         <is>
-          <t>300.56268310546875</t>
+          <t>300.7364807128906</t>
         </is>
       </c>
       <c r="Q32" s="3" t="inlineStr">
         <is>
-          <t>-497.68011474609375</t>
+          <t>-497.5025939941406</t>
         </is>
       </c>
       <c r="R32" s="3" t="inlineStr">
         <is>
-          <t>138.9691162109375</t>
+          <t>138.96823120117188</t>
         </is>
       </c>
       <c r="S32" s="3" t="inlineStr">
@@ -18583,42 +18583,42 @@
       </c>
       <c r="X32" s="3" t="inlineStr">
         <is>
-          <t>0.04794353246688843</t>
+          <t>0.04796183109283447</t>
         </is>
       </c>
       <c r="Y32" s="3" t="inlineStr">
         <is>
-          <t>0.04793834686279297</t>
+          <t>0.047943174839019775</t>
         </is>
       </c>
       <c r="Z32" s="3" t="inlineStr">
         <is>
-          <t>-0.05458897352218628</t>
+          <t>-0.05456411838531494</t>
         </is>
       </c>
       <c r="AA32" s="3" t="inlineStr">
         <is>
-          <t>-0.05459392070770264</t>
+          <t>-0.05459874868392944</t>
         </is>
       </c>
       <c r="AB32" s="3" t="inlineStr">
         <is>
-          <t>1.600984811782837</t>
+          <t>1.600982666015625</t>
         </is>
       </c>
       <c r="AC32" s="3" t="inlineStr">
         <is>
-          <t>-1.6017322540283203</t>
+          <t>-1.6017085313796997</t>
         </is>
       </c>
       <c r="AD32" s="3" t="inlineStr">
         <is>
-          <t>-1.6007400751113892</t>
+          <t>-1.600740909576416</t>
         </is>
       </c>
       <c r="AE32" s="3" t="inlineStr">
         <is>
-          <t>1.6024537086486816</t>
+          <t>1.6024298667907715</t>
         </is>
       </c>
       <c r="AF32" s="3" t="inlineStr">
@@ -19135,17 +19135,17 @@
       </c>
       <c r="P33" s="3" t="inlineStr">
         <is>
-          <t>299.01885986328125</t>
+          <t>299.19268798828125</t>
         </is>
       </c>
       <c r="Q33" s="3" t="inlineStr">
         <is>
-          <t>-499.05645751953125</t>
+          <t>-498.87890625</t>
         </is>
       </c>
       <c r="R33" s="3" t="inlineStr">
         <is>
-          <t>138.9762725830078</t>
+          <t>138.9753875732422</t>
         </is>
       </c>
       <c r="S33" s="3" t="inlineStr">
@@ -19175,42 +19175,42 @@
       </c>
       <c r="X33" s="3" t="inlineStr">
         <is>
-          <t>0.049625396728515625</t>
+          <t>0.04964059591293335</t>
         </is>
       </c>
       <c r="Y33" s="3" t="inlineStr">
         <is>
-          <t>0.04962962865829468</t>
+          <t>0.049631476402282715</t>
         </is>
       </c>
       <c r="Z33" s="3" t="inlineStr">
         <is>
-          <t>-0.054291367530822754</t>
+          <t>-0.05428957939147949</t>
         </is>
       </c>
       <c r="AA33" s="3" t="inlineStr">
         <is>
-          <t>-0.054285526275634766</t>
+          <t>-0.05431336164474487</t>
         </is>
       </c>
       <c r="AB33" s="3" t="inlineStr">
         <is>
-          <t>1.601135492324829</t>
+          <t>1.6010901927947998</t>
         </is>
       </c>
       <c r="AC33" s="3" t="inlineStr">
         <is>
-          <t>-1.6019132137298584</t>
+          <t>-1.6019322872161865</t>
         </is>
       </c>
       <c r="AD33" s="3" t="inlineStr">
         <is>
-          <t>-1.600421667098999</t>
+          <t>-1.60044264793396</t>
         </is>
       </c>
       <c r="AE33" s="3" t="inlineStr">
         <is>
-          <t>1.6021502017974854</t>
+          <t>1.6021063327789307</t>
         </is>
       </c>
       <c r="AF33" s="3" t="inlineStr">
@@ -19727,17 +19727,17 @@
       </c>
       <c r="P34" s="3" t="inlineStr">
         <is>
-          <t>300.63922119140625</t>
+          <t>300.8130187988281</t>
         </is>
       </c>
       <c r="Q34" s="3" t="inlineStr">
         <is>
-          <t>-497.6119079589844</t>
+          <t>-497.43438720703125</t>
         </is>
       </c>
       <c r="R34" s="3" t="inlineStr">
         <is>
-          <t>138.96875</t>
+          <t>138.96786499023438</t>
         </is>
       </c>
       <c r="S34" s="3" t="inlineStr">
@@ -19767,42 +19767,42 @@
       </c>
       <c r="X34" s="3" t="inlineStr">
         <is>
-          <t>0.047849178314208984</t>
+          <t>0.04786747694015503</t>
         </is>
       </c>
       <c r="Y34" s="3" t="inlineStr">
         <is>
-          <t>0.047857463359832764</t>
+          <t>0.04783928394317627</t>
         </is>
       </c>
       <c r="Z34" s="3" t="inlineStr">
         <is>
-          <t>-0.05456364154815674</t>
+          <t>-0.05455893278121948</t>
         </is>
       </c>
       <c r="AA34" s="3" t="inlineStr">
         <is>
-          <t>-0.054579198360443115</t>
+          <t>-0.05456089973449707</t>
         </is>
       </c>
       <c r="AB34" s="3" t="inlineStr">
         <is>
-          <t>1.6007099151611328</t>
+          <t>1.6007075309753418</t>
         </is>
       </c>
       <c r="AC34" s="3" t="inlineStr">
         <is>
-          <t>-1.6014878749847412</t>
+          <t>-1.6014840602874756</t>
         </is>
       </c>
       <c r="AD34" s="3" t="inlineStr">
         <is>
-          <t>-1.600525140762329</t>
+          <t>-1.6005029678344727</t>
         </is>
       </c>
       <c r="AE34" s="3" t="inlineStr">
         <is>
-          <t>1.6021920442581177</t>
+          <t>1.602188229560852</t>
         </is>
       </c>
       <c r="AF34" s="3" t="inlineStr">
@@ -20319,17 +20319,17 @@
       </c>
       <c r="P35" s="3" t="inlineStr">
         <is>
-          <t>298.9412536621094</t>
+          <t>299.11505126953125</t>
         </is>
       </c>
       <c r="Q35" s="3" t="inlineStr">
         <is>
-          <t>-499.12567138671875</t>
+          <t>-498.9480895996094</t>
         </is>
       </c>
       <c r="R35" s="3" t="inlineStr">
         <is>
-          <t>138.97662353515625</t>
+          <t>138.97573852539062</t>
         </is>
       </c>
       <c r="S35" s="3" t="inlineStr">
@@ -20359,42 +20359,42 @@
       </c>
       <c r="X35" s="3" t="inlineStr">
         <is>
-          <t>0.049703001976013184</t>
+          <t>0.04967862367630005</t>
         </is>
       </c>
       <c r="Y35" s="3" t="inlineStr">
         <is>
-          <t>0.04967820644378662</t>
+          <t>0.049682557582855225</t>
         </is>
       </c>
       <c r="Z35" s="3" t="inlineStr">
         <is>
-          <t>-0.05425983667373657</t>
+          <t>-0.054255545139312744</t>
         </is>
       </c>
       <c r="AA35" s="3" t="inlineStr">
         <is>
-          <t>-0.05427396297454834</t>
+          <t>-0.05425524711608887</t>
         </is>
       </c>
       <c r="AB35" s="3" t="inlineStr">
         <is>
-          <t>1.6008708477020264</t>
+          <t>1.6008715629577637</t>
         </is>
       </c>
       <c r="AC35" s="3" t="inlineStr">
         <is>
-          <t>-1.601701021194458</t>
+          <t>-1.601677417755127</t>
         </is>
       </c>
       <c r="AD35" s="3" t="inlineStr">
         <is>
-          <t>-1.6001430749893188</t>
+          <t>-1.600121021270752</t>
         </is>
       </c>
       <c r="AE35" s="3" t="inlineStr">
         <is>
-          <t>1.6018691062927246</t>
+          <t>1.6018654108047485</t>
         </is>
       </c>
       <c r="AF35" s="3" t="inlineStr">
@@ -20911,17 +20911,17 @@
       </c>
       <c r="P36" s="3" t="inlineStr">
         <is>
-          <t>300.7156677246094</t>
+          <t>300.88946533203125</t>
         </is>
       </c>
       <c r="Q36" s="3" t="inlineStr">
         <is>
-          <t>-497.54376220703125</t>
+          <t>-497.3662414550781</t>
         </is>
       </c>
       <c r="R36" s="3" t="inlineStr">
         <is>
-          <t>138.96839904785156</t>
+          <t>138.96751403808594</t>
         </is>
       </c>
       <c r="S36" s="3" t="inlineStr">
@@ -20951,42 +20951,42 @@
       </c>
       <c r="X36" s="3" t="inlineStr">
         <is>
-          <t>0.04773533344268799</t>
+          <t>0.04775357246398926</t>
         </is>
       </c>
       <c r="Y36" s="3" t="inlineStr">
         <is>
-          <t>0.04773610830307007</t>
+          <t>0.04773789644241333</t>
         </is>
       </c>
       <c r="Z36" s="3" t="inlineStr">
         <is>
-          <t>-0.054535865783691406</t>
+          <t>-0.054554104804992676</t>
         </is>
       </c>
       <c r="AA36" s="3" t="inlineStr">
         <is>
-          <t>-0.05456387996673584</t>
+          <t>-0.054545700550079346</t>
         </is>
       </c>
       <c r="AB36" s="3" t="inlineStr">
         <is>
-          <t>1.600457787513733</t>
+          <t>1.6004555225372314</t>
         </is>
       </c>
       <c r="AC36" s="3" t="inlineStr">
         <is>
-          <t>-1.6011972427368164</t>
+          <t>-1.601216435432434</t>
         </is>
       </c>
       <c r="AD36" s="3" t="inlineStr">
         <is>
-          <t>-1.6002671718597412</t>
+          <t>-1.6002650260925293</t>
         </is>
       </c>
       <c r="AE36" s="3" t="inlineStr">
         <is>
-          <t>1.6019303798675537</t>
+          <t>1.601926565170288</t>
         </is>
       </c>
       <c r="AF36" s="3" t="inlineStr">
@@ -21503,17 +21503,17 @@
       </c>
       <c r="P37" s="3" t="inlineStr">
         <is>
-          <t>298.8636169433594</t>
+          <t>299.03741455078125</t>
         </is>
       </c>
       <c r="Q37" s="3" t="inlineStr">
         <is>
-          <t>-499.19488525390625</t>
+          <t>-499.017333984375</t>
         </is>
       </c>
       <c r="R37" s="3" t="inlineStr">
         <is>
-          <t>138.97698974609375</t>
+          <t>138.97610473632812</t>
         </is>
       </c>
       <c r="S37" s="3" t="inlineStr">
@@ -21543,42 +21543,42 @@
       </c>
       <c r="X37" s="3" t="inlineStr">
         <is>
-          <t>0.049738526344299316</t>
+          <t>0.04977679252624512</t>
         </is>
       </c>
       <c r="Y37" s="3" t="inlineStr">
         <is>
-          <t>0.0497317910194397</t>
+          <t>0.04975658655166626</t>
         </is>
       </c>
       <c r="Z37" s="3" t="inlineStr">
         <is>
-          <t>-0.05422931909561157</t>
+          <t>-0.05420452356338501</t>
         </is>
       </c>
       <c r="AA37" s="3" t="inlineStr">
         <is>
-          <t>-0.05423849821090698</t>
+          <t>-0.05420023202896118</t>
         </is>
       </c>
       <c r="AB37" s="3" t="inlineStr">
         <is>
-          <t>1.600609302520752</t>
+          <t>1.6005840301513672</t>
         </is>
       </c>
       <c r="AC37" s="3" t="inlineStr">
         <is>
-          <t>-1.6014031171798706</t>
+          <t>-1.6014022827148438</t>
         </is>
       </c>
       <c r="AD37" s="3" t="inlineStr">
         <is>
-          <t>-1.5998643636703491</t>
+          <t>-1.599865198135376</t>
         </is>
       </c>
       <c r="AE37" s="3" t="inlineStr">
         <is>
-          <t>1.6016082763671875</t>
+          <t>1.601581335067749</t>
         </is>
       </c>
       <c r="AF37" s="3" t="inlineStr">
@@ -22095,17 +22095,17 @@
       </c>
       <c r="P38" s="3" t="inlineStr">
         <is>
-          <t>300.7920227050781</t>
+          <t>300.9658203125</t>
         </is>
       </c>
       <c r="Q38" s="3" t="inlineStr">
         <is>
-          <t>-497.4756774902344</t>
+          <t>-497.29815673828125</t>
         </is>
       </c>
       <c r="R38" s="3" t="inlineStr">
         <is>
-          <t>138.96804809570312</t>
+          <t>138.9671630859375</t>
         </is>
       </c>
       <c r="S38" s="3" t="inlineStr">
@@ -22135,42 +22135,42 @@
       </c>
       <c r="X38" s="3" t="inlineStr">
         <is>
-          <t>0.04764169454574585</t>
+          <t>0.04763692617416382</t>
         </is>
       </c>
       <c r="Y38" s="3" t="inlineStr">
         <is>
-          <t>0.0476374626159668</t>
+          <t>0.04761922359466553</t>
         </is>
       </c>
       <c r="Z38" s="3" t="inlineStr">
         <is>
-          <t>-0.05454838275909424</t>
+          <t>-0.05454665422439575</t>
         </is>
       </c>
       <c r="AA38" s="3" t="inlineStr">
         <is>
-          <t>-0.05456840991973877</t>
+          <t>-0.054550230503082275</t>
         </is>
       </c>
       <c r="AB38" s="3" t="inlineStr">
         <is>
-          <t>1.6001826524734497</t>
+          <t>1.6001603603363037</t>
         </is>
       </c>
       <c r="AC38" s="3" t="inlineStr">
         <is>
-          <t>-1.600886583328247</t>
+          <t>-1.6008827686309814</t>
         </is>
       </c>
       <c r="AD38" s="3" t="inlineStr">
         <is>
-          <t>-1.5999631881713867</t>
+          <t>-1.5999839305877686</t>
         </is>
       </c>
       <c r="AE38" s="3" t="inlineStr">
         <is>
-          <t>1.6016918420791626</t>
+          <t>1.6016879081726074</t>
         </is>
       </c>
       <c r="AF38" s="3" t="inlineStr">
@@ -22687,17 +22687,17 @@
       </c>
       <c r="P39" s="3" t="inlineStr">
         <is>
-          <t>298.78594970703125</t>
+          <t>298.95977783203125</t>
         </is>
       </c>
       <c r="Q39" s="3" t="inlineStr">
         <is>
-          <t>-499.2641296386719</t>
+          <t>-499.0865478515625</t>
         </is>
       </c>
       <c r="R39" s="3" t="inlineStr">
         <is>
-          <t>138.97735595703125</t>
+          <t>138.97647094726562</t>
         </is>
       </c>
       <c r="S39" s="3" t="inlineStr">
@@ -22727,42 +22727,42 @@
       </c>
       <c r="X39" s="3" t="inlineStr">
         <is>
-          <t>0.049816906452178955</t>
+          <t>0.049812138080596924</t>
         </is>
       </c>
       <c r="Y39" s="3" t="inlineStr">
         <is>
-          <t>0.04980558156967163</t>
+          <t>0.049787282943725586</t>
         </is>
       </c>
       <c r="Z39" s="3" t="inlineStr">
         <is>
-          <t>-0.054172515869140625</t>
+          <t>-0.05417078733444214</t>
         </is>
       </c>
       <c r="AA39" s="3" t="inlineStr">
         <is>
-          <t>-0.05418616533279419</t>
+          <t>-0.05419081449508667</t>
         </is>
       </c>
       <c r="AB39" s="3" t="inlineStr">
         <is>
-          <t>1.6003445386886597</t>
+          <t>1.6003223657608032</t>
         </is>
       </c>
       <c r="AC39" s="3" t="inlineStr">
         <is>
-          <t>-1.6011279821395874</t>
+          <t>-1.6011242866516113</t>
         </is>
       </c>
       <c r="AD39" s="3" t="inlineStr">
         <is>
-          <t>-1.599522590637207</t>
+          <t>-1.5995434522628784</t>
         </is>
       </c>
       <c r="AE39" s="3" t="inlineStr">
         <is>
-          <t>1.6012811660766602</t>
+          <t>1.60125732421875</t>
         </is>
       </c>
       <c r="AF39" s="3" t="inlineStr">
@@ -23279,17 +23279,17 @@
       </c>
       <c r="P40" s="3" t="inlineStr">
         <is>
-          <t>300.8682861328125</t>
+          <t>301.0420837402344</t>
         </is>
       </c>
       <c r="Q40" s="3" t="inlineStr">
         <is>
-          <t>-497.4076843261719</t>
+          <t>-497.23016357421875</t>
         </is>
       </c>
       <c r="R40" s="3" t="inlineStr">
         <is>
-          <t>138.9676971435547</t>
+          <t>138.96681213378906</t>
         </is>
       </c>
       <c r="S40" s="3" t="inlineStr">
@@ -23319,42 +23319,42 @@
       </c>
       <c r="X40" s="3" t="inlineStr">
         <is>
-          <t>0.04754483699798584</t>
+          <t>0.047540128231048584</t>
         </is>
       </c>
       <c r="Y40" s="3" t="inlineStr">
         <is>
-          <t>0.047519028186798096</t>
+          <t>0.04752379655838013</t>
         </is>
       </c>
       <c r="Z40" s="3" t="inlineStr">
         <is>
-          <t>-0.05451768636703491</t>
+          <t>-0.054535865783691406</t>
         </is>
       </c>
       <c r="AA40" s="3" t="inlineStr">
         <is>
-          <t>-0.05453312397003174</t>
+          <t>-0.054537951946258545</t>
         </is>
       </c>
       <c r="AB40" s="3" t="inlineStr">
         <is>
-          <t>1.5998644828796387</t>
+          <t>1.5998423099517822</t>
         </is>
       </c>
       <c r="AC40" s="3" t="inlineStr">
         <is>
-          <t>-1.6005529165267944</t>
+          <t>-1.6005290746688843</t>
         </is>
       </c>
       <c r="AD40" s="3" t="inlineStr">
         <is>
-          <t>-1.5996620655059814</t>
+          <t>-1.5996599197387695</t>
         </is>
       </c>
       <c r="AE40" s="3" t="inlineStr">
         <is>
-          <t>1.6014070510864258</t>
+          <t>1.6013832092285156</t>
         </is>
       </c>
       <c r="AF40" s="3" t="inlineStr">
@@ -23871,17 +23871,17 @@
       </c>
       <c r="P41" s="3" t="inlineStr">
         <is>
-          <t>298.7082824707031</t>
+          <t>298.8821105957031</t>
         </is>
       </c>
       <c r="Q41" s="3" t="inlineStr">
         <is>
-          <t>-499.3333740234375</t>
+          <t>-499.1557922363281</t>
         </is>
       </c>
       <c r="R41" s="3" t="inlineStr">
         <is>
-          <t>138.97772216796875</t>
+          <t>138.97683715820312</t>
         </is>
       </c>
       <c r="S41" s="3" t="inlineStr">
@@ -23911,42 +23911,42 @@
       </c>
       <c r="X41" s="3" t="inlineStr">
         <is>
-          <t>0.04986929893493652</t>
+          <t>0.04986464977264404</t>
         </is>
       </c>
       <c r="Y41" s="3" t="inlineStr">
         <is>
-          <t>0.04986226558685303</t>
+          <t>0.049863994121551514</t>
         </is>
       </c>
       <c r="Z41" s="3" t="inlineStr">
         <is>
-          <t>-0.05413883924484253</t>
+          <t>-0.05415719747543335</t>
         </is>
       </c>
       <c r="AA41" s="3" t="inlineStr">
         <is>
-          <t>-0.05413365364074707</t>
+          <t>-0.05415838956832886</t>
         </is>
       </c>
       <c r="AB41" s="3" t="inlineStr">
         <is>
-          <t>1.6000168323516846</t>
+          <t>1.5999946594238281</t>
         </is>
       </c>
       <c r="AC41" s="3" t="inlineStr">
         <is>
-          <t>-1.600786805152893</t>
+          <t>-1.6008062362670898</t>
         </is>
       </c>
       <c r="AD41" s="3" t="inlineStr">
         <is>
-          <t>-1.59920072555542</t>
+          <t>-1.599198579788208</t>
         </is>
       </c>
       <c r="AE41" s="3" t="inlineStr">
         <is>
-          <t>1.6009540557861328</t>
+          <t>1.6009533405303955</t>
         </is>
       </c>
       <c r="AF41" s="3" t="inlineStr">
@@ -24463,17 +24463,17 @@
       </c>
       <c r="P42" s="3" t="inlineStr">
         <is>
-          <t>300.9444885253906</t>
+          <t>301.1182861328125</t>
         </is>
       </c>
       <c r="Q42" s="3" t="inlineStr">
         <is>
-          <t>-497.33978271484375</t>
+          <t>-497.1622619628906</t>
         </is>
       </c>
       <c r="R42" s="3" t="inlineStr">
         <is>
-          <t>138.96734619140625</t>
+          <t>138.96644592285156</t>
         </is>
       </c>
       <c r="S42" s="3" t="inlineStr">
@@ -24503,42 +24503,42 @@
       </c>
       <c r="X42" s="3" t="inlineStr">
         <is>
-          <t>0.04742187261581421</t>
+          <t>0.047416746616363525</t>
         </is>
       </c>
       <c r="Y42" s="3" t="inlineStr">
         <is>
-          <t>0.04740077257156372</t>
+          <t>0.04740583896636963</t>
         </is>
       </c>
       <c r="Z42" s="3" t="inlineStr">
         <is>
-          <t>-0.054529786109924316</t>
+          <t>-0.05452471971511841</t>
         </is>
       </c>
       <c r="AA42" s="3" t="inlineStr">
         <is>
-          <t>-0.05452394485473633</t>
+          <t>-0.05452907085418701</t>
         </is>
       </c>
       <c r="AB42" s="3" t="inlineStr">
         <is>
-          <t>1.5994832515716553</t>
+          <t>1.5994610786437988</t>
         </is>
       </c>
       <c r="AC42" s="3" t="inlineStr">
         <is>
-          <t>-1.6002192497253418</t>
+          <t>-1.6001954078674316</t>
         </is>
       </c>
       <c r="AD42" s="3" t="inlineStr">
         <is>
-          <t>-1.599358081817627</t>
+          <t>-1.5993359088897705</t>
         </is>
       </c>
       <c r="AE42" s="3" t="inlineStr">
         <is>
-          <t>1.6010594367980957</t>
+          <t>1.601035475730896</t>
         </is>
       </c>
       <c r="AF42" s="3" t="inlineStr">
